--- a/core/utils/docs_proj_items/cadastrodeitens2CONTAGEM.xlsx
+++ b/core/utils/docs_proj_items/cadastrodeitens2CONTAGEM.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\docs_proj_items\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C604969D-2D5C-4538-B379-D1C0F7BA6B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,148 +25,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="44">
   <si>
-    <t xml:space="preserve">PROJETO</t>
+    <t>PROJETO</t>
   </si>
   <si>
-    <t xml:space="preserve">ITEM</t>
+    <t>ITEM</t>
   </si>
   <si>
-    <t xml:space="preserve">GENERO</t>
+    <t>GENERO</t>
   </si>
   <si>
-    <t xml:space="preserve">ISKIT</t>
+    <t>ISKIT</t>
   </si>
   <si>
-    <t xml:space="preserve">ID_PROV_I</t>
+    <t>ID_PROV_I</t>
   </si>
   <si>
-    <t xml:space="preserve">COMP</t>
+    <t>COMP</t>
   </si>
   <si>
-    <t xml:space="preserve">06M</t>
+    <t>06M</t>
   </si>
   <si>
-    <t xml:space="preserve">00</t>
+    <t>00</t>
   </si>
   <si>
-    <t xml:space="preserve">01</t>
+    <t>01</t>
   </si>
   <si>
-    <t xml:space="preserve">02</t>
+    <t>02</t>
   </si>
   <si>
-    <t xml:space="preserve">04</t>
+    <t>04</t>
   </si>
   <si>
-    <t xml:space="preserve">06</t>
+    <t>06</t>
   </si>
   <si>
-    <t xml:space="preserve">08</t>
+    <t>08</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
+    <t>10</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
+    <t>12</t>
   </si>
   <si>
-    <t xml:space="preserve">14</t>
+    <t>14</t>
   </si>
   <si>
-    <t xml:space="preserve">16</t>
+    <t>16</t>
   </si>
   <si>
-    <t xml:space="preserve">PP</t>
+    <t>PP</t>
   </si>
   <si>
-    <t xml:space="preserve">P</t>
+    <t>P</t>
   </si>
   <si>
-    <t xml:space="preserve">M</t>
+    <t>M</t>
   </si>
   <si>
-    <t xml:space="preserve">G</t>
+    <t>G</t>
   </si>
   <si>
-    <t xml:space="preserve">GG</t>
+    <t>GG</t>
   </si>
   <si>
-    <t xml:space="preserve">XG</t>
+    <t>XG</t>
   </si>
   <si>
-    <t xml:space="preserve">EG</t>
+    <t>EG</t>
   </si>
   <si>
-    <t xml:space="preserve">XGG</t>
+    <t>XGG</t>
   </si>
   <si>
-    <t xml:space="preserve">EGG</t>
+    <t>EGG</t>
   </si>
   <si>
-    <t xml:space="preserve">EXG</t>
+    <t>EXG</t>
   </si>
   <si>
-    <t xml:space="preserve">EXGG</t>
+    <t>EXGG</t>
   </si>
   <si>
-    <t xml:space="preserve">G1</t>
+    <t>G1</t>
   </si>
   <si>
-    <t xml:space="preserve">G2</t>
+    <t>G2</t>
   </si>
   <si>
-    <t xml:space="preserve">G3</t>
+    <t>G3</t>
   </si>
   <si>
-    <t xml:space="preserve">CONTAGEM</t>
+    <t>CONTAGEM</t>
   </si>
   <si>
-    <t xml:space="preserve">CAMISETA MANGA CURTA</t>
+    <t>CAMISETA MANGA CURTA</t>
   </si>
   <si>
-    <t xml:space="preserve">UNISSEX</t>
+    <t>UNISSEX</t>
   </si>
   <si>
-    <t xml:space="preserve">N</t>
+    <t>N</t>
   </si>
   <si>
-    <t xml:space="preserve">X</t>
+    <t>X</t>
   </si>
   <si>
-    <t xml:space="preserve">BERMUDA</t>
+    <t>BERMUDA</t>
   </si>
   <si>
-    <t xml:space="preserve">CAMISETA REGATA</t>
+    <t>CAMISETA REGATA</t>
   </si>
   <si>
-    <t xml:space="preserve">JAQUETA COM CAPUZ</t>
+    <t>JAQUETA COM CAPUZ</t>
   </si>
   <si>
-    <t xml:space="preserve">CALÇA</t>
+    <t>CALÇA</t>
   </si>
   <si>
-    <t xml:space="preserve">KIT UNIFORME 1 - INF. E FUND. I</t>
+    <t>KIT UNIFORME 1 - INF. E FUND. I</t>
   </si>
   <si>
-    <t xml:space="preserve">Y</t>
+    <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">KIT UNIFORME 2 - FUND. II E EJA</t>
+    <t>KIT UNIFORME 2 - FUND. II E EJA</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
-  </numFmts>
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,28 +173,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -263,7 +250,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -293,7 +280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.25"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
@@ -329,164 +316,120 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -545,60 +488,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF2F5597"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -630,7 +589,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -654,7 +613,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -714,33 +673,32 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AE1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE774"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.2890625" defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="1" width="16.29"/>
+    <col min="1" max="1" width="27.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:31" ht="19.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -835,7 +793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:31" ht="24" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -848,10 +806,10 @@
       <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="7">
         <v>3</v>
       </c>
       <c r="G2" s="8"/>
@@ -906,7 +864,7 @@
       <c r="AD2" s="10"/>
       <c r="AE2" s="10"/>
     </row>
-    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:31" ht="19.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -919,10 +877,10 @@
       <c r="D3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>2</v>
       </c>
       <c r="G3" s="8"/>
@@ -977,7 +935,7 @@
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:31" ht="20.85" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -990,10 +948,10 @@
       <c r="D4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="8"/>
@@ -1048,7 +1006,7 @@
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:31" ht="19.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1061,10 +1019,10 @@
       <c r="D5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="6">
         <v>4</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="8"/>
@@ -1119,7 +1077,7 @@
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:31" ht="19.5" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
@@ -1132,10 +1090,10 @@
       <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="6">
         <v>5</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="8"/>
@@ -1190,7 +1148,7 @@
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:31" ht="19.5" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1223,7 +1181,7 @@
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:31" ht="19.5" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1256,7 +1214,7 @@
       <c r="AD8" s="10"/>
       <c r="AE8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:31" ht="19.5" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
@@ -1274,56 +1232,30 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
-      <c r="Z9" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:31" ht="19.5" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1341,30 +1273,56 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
+      <c r="S10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="W10" s="9"/>
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
+      <c r="Z10" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:31" ht="19.5" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1397,7 +1355,7 @@
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:31" ht="19.5" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1430,7 +1388,7 @@
       <c r="AD12" s="15"/>
       <c r="AE12" s="15"/>
     </row>
-    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:31" ht="19.5" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1463,7 +1421,7 @@
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
     </row>
-    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:31" ht="19.5" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1496,7 +1454,7 @@
       <c r="AD14" s="15"/>
       <c r="AE14" s="15"/>
     </row>
-    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:31" ht="19.5" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1529,7 +1487,7 @@
       <c r="AD15" s="15"/>
       <c r="AE15" s="15"/>
     </row>
-    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:31" ht="19.5" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1562,7 +1520,7 @@
       <c r="AD16" s="15"/>
       <c r="AE16" s="15"/>
     </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:31" ht="19.5" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1595,7 +1553,7 @@
       <c r="AD17" s="15"/>
       <c r="AE17" s="15"/>
     </row>
-    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:31" ht="19.5" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1628,7 +1586,7 @@
       <c r="AD18" s="15"/>
       <c r="AE18" s="15"/>
     </row>
-    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:31" ht="19.5" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1661,7 +1619,7 @@
       <c r="AD19" s="15"/>
       <c r="AE19" s="15"/>
     </row>
-    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:31" ht="19.5" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1694,7 +1652,7 @@
       <c r="AD20" s="15"/>
       <c r="AE20" s="15"/>
     </row>
-    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:31" ht="19.5" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1727,7 +1685,7 @@
       <c r="AD21" s="15"/>
       <c r="AE21" s="15"/>
     </row>
-    <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:31" ht="19.5" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1760,7 +1718,7 @@
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
     </row>
-    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:31" ht="19.5" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1793,7 +1751,7 @@
       <c r="AD23" s="15"/>
       <c r="AE23" s="15"/>
     </row>
-    <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:31" ht="19.5" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -1826,7 +1784,7 @@
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
     </row>
-    <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:31" ht="19.5" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1859,7 +1817,7 @@
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
     </row>
-    <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:31" ht="19.5" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -1892,7 +1850,7 @@
       <c r="AD26" s="15"/>
       <c r="AE26" s="15"/>
     </row>
-    <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:31" ht="19.5" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1925,7 +1883,7 @@
       <c r="AD27" s="15"/>
       <c r="AE27" s="15"/>
     </row>
-    <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:31" ht="19.5" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1958,7 +1916,7 @@
       <c r="AD28" s="15"/>
       <c r="AE28" s="15"/>
     </row>
-    <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:31" ht="19.5" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1991,7 +1949,7 @@
       <c r="AD29" s="15"/>
       <c r="AE29" s="15"/>
     </row>
-    <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:31" ht="19.5" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2024,7 +1982,7 @@
       <c r="AD30" s="15"/>
       <c r="AE30" s="15"/>
     </row>
-    <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:31" ht="19.5" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2057,7 +2015,7 @@
       <c r="AD31" s="15"/>
       <c r="AE31" s="15"/>
     </row>
-    <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:31" ht="19.5" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2090,7 +2048,7 @@
       <c r="AD32" s="15"/>
       <c r="AE32" s="15"/>
     </row>
-    <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:31" ht="19.5" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2123,7 +2081,7 @@
       <c r="AD33" s="15"/>
       <c r="AE33" s="15"/>
     </row>
-    <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:31" ht="19.5" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2156,7 +2114,7 @@
       <c r="AD34" s="15"/>
       <c r="AE34" s="15"/>
     </row>
-    <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:31" ht="19.5" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2189,7 +2147,7 @@
       <c r="AD35" s="15"/>
       <c r="AE35" s="15"/>
     </row>
-    <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:31" ht="19.5" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2222,7 +2180,7 @@
       <c r="AD36" s="15"/>
       <c r="AE36" s="15"/>
     </row>
-    <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:31" ht="19.5" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2255,7 +2213,7 @@
       <c r="AD37" s="15"/>
       <c r="AE37" s="15"/>
     </row>
-    <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:31" ht="19.5" customHeight="1">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2288,7 +2246,7 @@
       <c r="AD38" s="15"/>
       <c r="AE38" s="15"/>
     </row>
-    <row r="39" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:31" ht="19.5" customHeight="1">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2321,7 +2279,7 @@
       <c r="AD39" s="15"/>
       <c r="AE39" s="15"/>
     </row>
-    <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:31" ht="19.5" customHeight="1">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2354,7 +2312,7 @@
       <c r="AD40" s="15"/>
       <c r="AE40" s="15"/>
     </row>
-    <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:31" ht="19.5" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -2387,7 +2345,7 @@
       <c r="AD41" s="15"/>
       <c r="AE41" s="15"/>
     </row>
-    <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:31" ht="19.5" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2420,7 +2378,7 @@
       <c r="AD42" s="15"/>
       <c r="AE42" s="15"/>
     </row>
-    <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:31" ht="19.5" customHeight="1">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -2453,7 +2411,7 @@
       <c r="AD43" s="15"/>
       <c r="AE43" s="15"/>
     </row>
-    <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:31" ht="19.5" customHeight="1">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2486,7 +2444,7 @@
       <c r="AD44" s="15"/>
       <c r="AE44" s="15"/>
     </row>
-    <row r="45" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:31" ht="19.5" customHeight="1">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2519,7 +2477,7 @@
       <c r="AD45" s="15"/>
       <c r="AE45" s="15"/>
     </row>
-    <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:31" ht="19.5" customHeight="1">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -2552,7 +2510,7 @@
       <c r="AD46" s="15"/>
       <c r="AE46" s="15"/>
     </row>
-    <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:31" ht="19.5" customHeight="1">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -2585,7 +2543,7 @@
       <c r="AD47" s="15"/>
       <c r="AE47" s="15"/>
     </row>
-    <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:31" ht="19.5" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -2618,7 +2576,7 @@
       <c r="AD48" s="15"/>
       <c r="AE48" s="15"/>
     </row>
-    <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:31" ht="19.5" customHeight="1">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -2651,7 +2609,7 @@
       <c r="AD49" s="15"/>
       <c r="AE49" s="15"/>
     </row>
-    <row r="50" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:31" ht="19.5" customHeight="1">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -2684,7 +2642,7 @@
       <c r="AD50" s="15"/>
       <c r="AE50" s="15"/>
     </row>
-    <row r="51" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:31" ht="19.5" customHeight="1">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -2717,7 +2675,7 @@
       <c r="AD51" s="15"/>
       <c r="AE51" s="15"/>
     </row>
-    <row r="52" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:31" ht="19.5" customHeight="1">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -2750,7 +2708,7 @@
       <c r="AD52" s="15"/>
       <c r="AE52" s="15"/>
     </row>
-    <row r="53" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:31" ht="19.5" customHeight="1">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -2783,7 +2741,7 @@
       <c r="AD53" s="15"/>
       <c r="AE53" s="15"/>
     </row>
-    <row r="54" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:31" ht="19.5" customHeight="1">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -2816,7 +2774,7 @@
       <c r="AD54" s="15"/>
       <c r="AE54" s="15"/>
     </row>
-    <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:31" ht="19.5" customHeight="1">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -2849,7 +2807,7 @@
       <c r="AD55" s="15"/>
       <c r="AE55" s="15"/>
     </row>
-    <row r="56" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:31" ht="19.5" customHeight="1">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -2882,7 +2840,7 @@
       <c r="AD56" s="15"/>
       <c r="AE56" s="15"/>
     </row>
-    <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:31" ht="19.5" customHeight="1">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -2915,7 +2873,7 @@
       <c r="AD57" s="15"/>
       <c r="AE57" s="15"/>
     </row>
-    <row r="58" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:31" ht="19.5" customHeight="1">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -2948,7 +2906,7 @@
       <c r="AD58" s="15"/>
       <c r="AE58" s="15"/>
     </row>
-    <row r="59" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:31" ht="19.5" customHeight="1">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -2981,7 +2939,7 @@
       <c r="AD59" s="15"/>
       <c r="AE59" s="15"/>
     </row>
-    <row r="60" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:31" ht="19.5" customHeight="1">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -3014,7 +2972,7 @@
       <c r="AD60" s="15"/>
       <c r="AE60" s="15"/>
     </row>
-    <row r="61" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:31" ht="19.5" customHeight="1">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -3047,7 +3005,7 @@
       <c r="AD61" s="15"/>
       <c r="AE61" s="15"/>
     </row>
-    <row r="62" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:31" ht="19.5" customHeight="1">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -3080,7 +3038,7 @@
       <c r="AD62" s="15"/>
       <c r="AE62" s="15"/>
     </row>
-    <row r="63" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:31" ht="19.5" customHeight="1">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -3113,7 +3071,7 @@
       <c r="AD63" s="15"/>
       <c r="AE63" s="15"/>
     </row>
-    <row r="64" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:31" ht="19.5" customHeight="1">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -3146,7 +3104,7 @@
       <c r="AD64" s="15"/>
       <c r="AE64" s="15"/>
     </row>
-    <row r="65" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:31" ht="19.5" customHeight="1">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -3179,7 +3137,7 @@
       <c r="AD65" s="15"/>
       <c r="AE65" s="15"/>
     </row>
-    <row r="66" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:31" ht="19.5" customHeight="1">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -3212,7 +3170,7 @@
       <c r="AD66" s="15"/>
       <c r="AE66" s="15"/>
     </row>
-    <row r="67" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:31" ht="19.5" customHeight="1">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -3245,7 +3203,7 @@
       <c r="AD67" s="15"/>
       <c r="AE67" s="15"/>
     </row>
-    <row r="68" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:31" ht="19.5" customHeight="1">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -3278,7 +3236,7 @@
       <c r="AD68" s="15"/>
       <c r="AE68" s="15"/>
     </row>
-    <row r="69" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:31" ht="19.5" customHeight="1">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -3311,7 +3269,7 @@
       <c r="AD69" s="15"/>
       <c r="AE69" s="15"/>
     </row>
-    <row r="70" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:31" ht="19.5" customHeight="1">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -3344,7 +3302,7 @@
       <c r="AD70" s="15"/>
       <c r="AE70" s="15"/>
     </row>
-    <row r="71" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:31" ht="19.5" customHeight="1">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -3377,7 +3335,7 @@
       <c r="AD71" s="15"/>
       <c r="AE71" s="15"/>
     </row>
-    <row r="72" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:31" ht="19.5" customHeight="1">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -3410,7 +3368,7 @@
       <c r="AD72" s="15"/>
       <c r="AE72" s="15"/>
     </row>
-    <row r="73" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:31" ht="19.5" customHeight="1">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -3443,7 +3401,7 @@
       <c r="AD73" s="15"/>
       <c r="AE73" s="15"/>
     </row>
-    <row r="74" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:31" ht="19.5" customHeight="1">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -3476,7 +3434,7 @@
       <c r="AD74" s="15"/>
       <c r="AE74" s="15"/>
     </row>
-    <row r="75" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:31" ht="19.5" customHeight="1">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -3509,7 +3467,7 @@
       <c r="AD75" s="15"/>
       <c r="AE75" s="15"/>
     </row>
-    <row r="76" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:31" ht="19.5" customHeight="1">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -3542,7 +3500,7 @@
       <c r="AD76" s="15"/>
       <c r="AE76" s="15"/>
     </row>
-    <row r="77" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:31" ht="19.5" customHeight="1">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -3575,7 +3533,7 @@
       <c r="AD77" s="15"/>
       <c r="AE77" s="15"/>
     </row>
-    <row r="78" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:31" ht="19.5" customHeight="1">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -3608,7 +3566,7 @@
       <c r="AD78" s="15"/>
       <c r="AE78" s="15"/>
     </row>
-    <row r="79" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:31" ht="19.5" customHeight="1">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -3641,7 +3599,7 @@
       <c r="AD79" s="15"/>
       <c r="AE79" s="15"/>
     </row>
-    <row r="80" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:31" ht="19.5" customHeight="1">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -3674,7 +3632,7 @@
       <c r="AD80" s="15"/>
       <c r="AE80" s="15"/>
     </row>
-    <row r="81" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:31" ht="19.5" customHeight="1">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -3707,7 +3665,7 @@
       <c r="AD81" s="15"/>
       <c r="AE81" s="15"/>
     </row>
-    <row r="82" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:31" ht="19.5" customHeight="1">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -3740,7 +3698,7 @@
       <c r="AD82" s="15"/>
       <c r="AE82" s="15"/>
     </row>
-    <row r="83" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:31" ht="19.5" customHeight="1">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -3773,7 +3731,7 @@
       <c r="AD83" s="15"/>
       <c r="AE83" s="15"/>
     </row>
-    <row r="84" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:31" ht="19.5" customHeight="1">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -3806,7 +3764,7 @@
       <c r="AD84" s="15"/>
       <c r="AE84" s="15"/>
     </row>
-    <row r="85" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:31" ht="19.5" customHeight="1">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -3839,7 +3797,7 @@
       <c r="AD85" s="15"/>
       <c r="AE85" s="15"/>
     </row>
-    <row r="86" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:31" ht="19.5" customHeight="1">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -3872,7 +3830,7 @@
       <c r="AD86" s="15"/>
       <c r="AE86" s="15"/>
     </row>
-    <row r="87" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:31" ht="19.5" customHeight="1">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -3905,7 +3863,7 @@
       <c r="AD87" s="15"/>
       <c r="AE87" s="15"/>
     </row>
-    <row r="88" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:31" ht="19.5" customHeight="1">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -3938,7 +3896,7 @@
       <c r="AD88" s="15"/>
       <c r="AE88" s="15"/>
     </row>
-    <row r="89" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:31" ht="19.5" customHeight="1">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -3971,7 +3929,7 @@
       <c r="AD89" s="15"/>
       <c r="AE89" s="15"/>
     </row>
-    <row r="90" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:31" ht="19.5" customHeight="1">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -4004,7 +3962,7 @@
       <c r="AD90" s="15"/>
       <c r="AE90" s="15"/>
     </row>
-    <row r="91" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:31" ht="19.5" customHeight="1">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -4037,7 +3995,7 @@
       <c r="AD91" s="15"/>
       <c r="AE91" s="15"/>
     </row>
-    <row r="92" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:31" ht="19.5" customHeight="1">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -4070,7 +4028,7 @@
       <c r="AD92" s="15"/>
       <c r="AE92" s="15"/>
     </row>
-    <row r="93" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:31" ht="19.5" customHeight="1">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -4103,7 +4061,7 @@
       <c r="AD93" s="15"/>
       <c r="AE93" s="15"/>
     </row>
-    <row r="94" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:31" ht="19.5" customHeight="1">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -4136,7 +4094,7 @@
       <c r="AD94" s="15"/>
       <c r="AE94" s="15"/>
     </row>
-    <row r="95" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:31" ht="19.5" customHeight="1">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -4169,7 +4127,7 @@
       <c r="AD95" s="15"/>
       <c r="AE95" s="15"/>
     </row>
-    <row r="96" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:31" ht="19.5" customHeight="1">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -4202,7 +4160,7 @@
       <c r="AD96" s="15"/>
       <c r="AE96" s="15"/>
     </row>
-    <row r="97" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:31" ht="19.5" customHeight="1">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -4235,7 +4193,7 @@
       <c r="AD97" s="15"/>
       <c r="AE97" s="15"/>
     </row>
-    <row r="98" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:31" ht="19.5" customHeight="1">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -4268,7 +4226,7 @@
       <c r="AD98" s="15"/>
       <c r="AE98" s="15"/>
     </row>
-    <row r="99" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:31" ht="19.5" customHeight="1">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -4301,7 +4259,7 @@
       <c r="AD99" s="15"/>
       <c r="AE99" s="15"/>
     </row>
-    <row r="100" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:31" ht="19.5" customHeight="1">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -4334,7 +4292,7 @@
       <c r="AD100" s="15"/>
       <c r="AE100" s="15"/>
     </row>
-    <row r="101" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:31" ht="19.5" customHeight="1">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -4367,7 +4325,7 @@
       <c r="AD101" s="15"/>
       <c r="AE101" s="15"/>
     </row>
-    <row r="102" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:31" ht="19.5" customHeight="1">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -4400,7 +4358,7 @@
       <c r="AD102" s="15"/>
       <c r="AE102" s="15"/>
     </row>
-    <row r="103" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:31" ht="19.5" customHeight="1">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -4433,7 +4391,7 @@
       <c r="AD103" s="15"/>
       <c r="AE103" s="15"/>
     </row>
-    <row r="104" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:31" ht="19.5" customHeight="1">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -4466,7 +4424,7 @@
       <c r="AD104" s="15"/>
       <c r="AE104" s="15"/>
     </row>
-    <row r="105" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:31" ht="19.5" customHeight="1">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -4499,7 +4457,7 @@
       <c r="AD105" s="15"/>
       <c r="AE105" s="15"/>
     </row>
-    <row r="106" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:31" ht="19.5" customHeight="1">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -4532,7 +4490,7 @@
       <c r="AD106" s="15"/>
       <c r="AE106" s="15"/>
     </row>
-    <row r="107" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:31" ht="19.5" customHeight="1">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -4565,7 +4523,7 @@
       <c r="AD107" s="15"/>
       <c r="AE107" s="15"/>
     </row>
-    <row r="108" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:31" ht="19.5" customHeight="1">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -4598,7 +4556,7 @@
       <c r="AD108" s="15"/>
       <c r="AE108" s="15"/>
     </row>
-    <row r="109" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:31" ht="19.5" customHeight="1">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -4631,7 +4589,7 @@
       <c r="AD109" s="15"/>
       <c r="AE109" s="15"/>
     </row>
-    <row r="110" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:31" ht="19.5" customHeight="1">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -4664,7 +4622,7 @@
       <c r="AD110" s="15"/>
       <c r="AE110" s="15"/>
     </row>
-    <row r="111" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:31" ht="19.5" customHeight="1">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -4697,7 +4655,7 @@
       <c r="AD111" s="15"/>
       <c r="AE111" s="15"/>
     </row>
-    <row r="112" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:31" ht="19.5" customHeight="1">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -4730,7 +4688,7 @@
       <c r="AD112" s="15"/>
       <c r="AE112" s="15"/>
     </row>
-    <row r="113" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:31" ht="19.5" customHeight="1">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -4763,7 +4721,7 @@
       <c r="AD113" s="15"/>
       <c r="AE113" s="15"/>
     </row>
-    <row r="114" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:31" ht="19.5" customHeight="1">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -4796,7 +4754,7 @@
       <c r="AD114" s="15"/>
       <c r="AE114" s="15"/>
     </row>
-    <row r="115" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:31" ht="19.5" customHeight="1">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -4829,7 +4787,7 @@
       <c r="AD115" s="15"/>
       <c r="AE115" s="15"/>
     </row>
-    <row r="116" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:31" ht="19.5" customHeight="1">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -4862,7 +4820,7 @@
       <c r="AD116" s="15"/>
       <c r="AE116" s="15"/>
     </row>
-    <row r="117" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:31" ht="19.5" customHeight="1">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -4895,7 +4853,7 @@
       <c r="AD117" s="15"/>
       <c r="AE117" s="15"/>
     </row>
-    <row r="118" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:31" ht="19.5" customHeight="1">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -4928,7 +4886,7 @@
       <c r="AD118" s="15"/>
       <c r="AE118" s="15"/>
     </row>
-    <row r="119" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:31" ht="19.5" customHeight="1">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -4961,7 +4919,7 @@
       <c r="AD119" s="15"/>
       <c r="AE119" s="15"/>
     </row>
-    <row r="120" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:31" ht="19.5" customHeight="1">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -4994,7 +4952,7 @@
       <c r="AD120" s="15"/>
       <c r="AE120" s="15"/>
     </row>
-    <row r="121" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:31" ht="19.5" customHeight="1">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -5027,7 +4985,7 @@
       <c r="AD121" s="15"/>
       <c r="AE121" s="15"/>
     </row>
-    <row r="122" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:31" ht="19.5" customHeight="1">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -5060,7 +5018,7 @@
       <c r="AD122" s="15"/>
       <c r="AE122" s="15"/>
     </row>
-    <row r="123" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:31" ht="19.5" customHeight="1">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -5093,7 +5051,7 @@
       <c r="AD123" s="15"/>
       <c r="AE123" s="15"/>
     </row>
-    <row r="124" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:31" ht="19.5" customHeight="1">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -5126,7 +5084,7 @@
       <c r="AD124" s="15"/>
       <c r="AE124" s="15"/>
     </row>
-    <row r="125" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:31" ht="19.5" customHeight="1">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -5159,7 +5117,7 @@
       <c r="AD125" s="15"/>
       <c r="AE125" s="15"/>
     </row>
-    <row r="126" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:31" ht="19.5" customHeight="1">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -5192,7 +5150,7 @@
       <c r="AD126" s="15"/>
       <c r="AE126" s="15"/>
     </row>
-    <row r="127" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:31" ht="19.5" customHeight="1">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -5225,7 +5183,7 @@
       <c r="AD127" s="15"/>
       <c r="AE127" s="15"/>
     </row>
-    <row r="128" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:31" ht="19.5" customHeight="1">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -5258,7 +5216,7 @@
       <c r="AD128" s="15"/>
       <c r="AE128" s="15"/>
     </row>
-    <row r="129" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:31" ht="19.5" customHeight="1">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -5291,7 +5249,7 @@
       <c r="AD129" s="15"/>
       <c r="AE129" s="15"/>
     </row>
-    <row r="130" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:31" ht="19.5" customHeight="1">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -5324,7 +5282,7 @@
       <c r="AD130" s="15"/>
       <c r="AE130" s="15"/>
     </row>
-    <row r="131" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:31" ht="19.5" customHeight="1">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -5357,7 +5315,7 @@
       <c r="AD131" s="15"/>
       <c r="AE131" s="15"/>
     </row>
-    <row r="132" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:31" ht="19.5" customHeight="1">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -5390,7 +5348,7 @@
       <c r="AD132" s="15"/>
       <c r="AE132" s="15"/>
     </row>
-    <row r="133" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:31" ht="19.5" customHeight="1">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -5423,7 +5381,7 @@
       <c r="AD133" s="15"/>
       <c r="AE133" s="15"/>
     </row>
-    <row r="134" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:31" ht="19.5" customHeight="1">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -5456,7 +5414,7 @@
       <c r="AD134" s="15"/>
       <c r="AE134" s="15"/>
     </row>
-    <row r="135" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:31" ht="19.5" customHeight="1">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -5489,7 +5447,7 @@
       <c r="AD135" s="15"/>
       <c r="AE135" s="15"/>
     </row>
-    <row r="136" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:31" ht="19.5" customHeight="1">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -5522,7 +5480,7 @@
       <c r="AD136" s="15"/>
       <c r="AE136" s="15"/>
     </row>
-    <row r="137" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:31" ht="19.5" customHeight="1">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -5555,7 +5513,7 @@
       <c r="AD137" s="15"/>
       <c r="AE137" s="15"/>
     </row>
-    <row r="138" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:31" ht="19.5" customHeight="1">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -5588,7 +5546,7 @@
       <c r="AD138" s="15"/>
       <c r="AE138" s="15"/>
     </row>
-    <row r="139" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:31" ht="19.5" customHeight="1">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -5621,7 +5579,7 @@
       <c r="AD139" s="15"/>
       <c r="AE139" s="15"/>
     </row>
-    <row r="140" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:31" ht="19.5" customHeight="1">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -5654,7 +5612,7 @@
       <c r="AD140" s="15"/>
       <c r="AE140" s="15"/>
     </row>
-    <row r="141" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:31" ht="19.5" customHeight="1">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -5687,7 +5645,7 @@
       <c r="AD141" s="15"/>
       <c r="AE141" s="15"/>
     </row>
-    <row r="142" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:31" ht="19.5" customHeight="1">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -5720,7 +5678,7 @@
       <c r="AD142" s="20"/>
       <c r="AE142" s="20"/>
     </row>
-    <row r="143" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:31" ht="19.5" customHeight="1">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -5753,7 +5711,7 @@
       <c r="AD143" s="20"/>
       <c r="AE143" s="20"/>
     </row>
-    <row r="144" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:31" ht="19.5" customHeight="1">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -5786,7 +5744,7 @@
       <c r="AD144" s="20"/>
       <c r="AE144" s="20"/>
     </row>
-    <row r="145" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:31" ht="19.5" customHeight="1">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -5819,7 +5777,7 @@
       <c r="AD145" s="20"/>
       <c r="AE145" s="20"/>
     </row>
-    <row r="146" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:31" ht="19.5" customHeight="1">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -5852,7 +5810,7 @@
       <c r="AD146" s="20"/>
       <c r="AE146" s="20"/>
     </row>
-    <row r="147" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:31" ht="19.5" customHeight="1">
       <c r="A147" s="21"/>
       <c r="B147" s="21"/>
       <c r="C147" s="21"/>
@@ -5885,7 +5843,7 @@
       <c r="AD147" s="22"/>
       <c r="AE147" s="22"/>
     </row>
-    <row r="148" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:31" ht="19.5" customHeight="1">
       <c r="A148" s="21"/>
       <c r="B148" s="21"/>
       <c r="C148" s="21"/>
@@ -5918,7 +5876,7 @@
       <c r="AD148" s="22"/>
       <c r="AE148" s="22"/>
     </row>
-    <row r="149" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:31" ht="19.5" customHeight="1">
       <c r="A149" s="21"/>
       <c r="B149" s="21"/>
       <c r="C149" s="21"/>
@@ -5951,7 +5909,7 @@
       <c r="AD149" s="22"/>
       <c r="AE149" s="22"/>
     </row>
-    <row r="150" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:31" ht="19.5" customHeight="1">
       <c r="A150" s="21"/>
       <c r="B150" s="21"/>
       <c r="C150" s="21"/>
@@ -5984,7 +5942,7 @@
       <c r="AD150" s="22"/>
       <c r="AE150" s="22"/>
     </row>
-    <row r="151" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:31" ht="19.5" customHeight="1">
       <c r="A151" s="21"/>
       <c r="B151" s="21"/>
       <c r="C151" s="21"/>
@@ -6017,7 +5975,7 @@
       <c r="AD151" s="22"/>
       <c r="AE151" s="22"/>
     </row>
-    <row r="152" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:31" ht="19.5" customHeight="1">
       <c r="A152" s="21"/>
       <c r="B152" s="21"/>
       <c r="C152" s="21"/>
@@ -6050,7 +6008,7 @@
       <c r="AD152" s="22"/>
       <c r="AE152" s="22"/>
     </row>
-    <row r="153" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:31" ht="19.5" customHeight="1">
       <c r="A153" s="21"/>
       <c r="B153" s="21"/>
       <c r="C153" s="21"/>
@@ -6083,7 +6041,7 @@
       <c r="AD153" s="22"/>
       <c r="AE153" s="22"/>
     </row>
-    <row r="154" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:31" ht="19.5" customHeight="1">
       <c r="A154" s="21"/>
       <c r="B154" s="21"/>
       <c r="C154" s="21"/>
@@ -6116,7 +6074,7 @@
       <c r="AD154" s="22"/>
       <c r="AE154" s="22"/>
     </row>
-    <row r="155" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:31" ht="19.5" customHeight="1">
       <c r="A155" s="21"/>
       <c r="B155" s="21"/>
       <c r="C155" s="21"/>
@@ -6149,7 +6107,7 @@
       <c r="AD155" s="22"/>
       <c r="AE155" s="22"/>
     </row>
-    <row r="156" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:31" ht="19.5" customHeight="1">
       <c r="A156" s="21"/>
       <c r="B156" s="21"/>
       <c r="C156" s="21"/>
@@ -6182,7 +6140,7 @@
       <c r="AD156" s="22"/>
       <c r="AE156" s="22"/>
     </row>
-    <row r="157" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:31" ht="19.5" customHeight="1">
       <c r="A157" s="21"/>
       <c r="B157" s="21"/>
       <c r="C157" s="21"/>
@@ -6215,7 +6173,7 @@
       <c r="AD157" s="22"/>
       <c r="AE157" s="22"/>
     </row>
-    <row r="158" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:31" ht="19.5" customHeight="1">
       <c r="A158" s="21"/>
       <c r="B158" s="21"/>
       <c r="C158" s="21"/>
@@ -6248,7 +6206,7 @@
       <c r="AD158" s="22"/>
       <c r="AE158" s="22"/>
     </row>
-    <row r="159" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:31" ht="19.5" customHeight="1">
       <c r="A159" s="21"/>
       <c r="B159" s="21"/>
       <c r="C159" s="21"/>
@@ -6281,7 +6239,7 @@
       <c r="AD159" s="22"/>
       <c r="AE159" s="22"/>
     </row>
-    <row r="160" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:31" ht="19.5" customHeight="1">
       <c r="A160" s="21"/>
       <c r="B160" s="21"/>
       <c r="C160" s="21"/>
@@ -6314,7 +6272,7 @@
       <c r="AD160" s="22"/>
       <c r="AE160" s="22"/>
     </row>
-    <row r="161" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:31" ht="19.5" customHeight="1">
       <c r="A161" s="21"/>
       <c r="B161" s="21"/>
       <c r="C161" s="21"/>
@@ -6347,7 +6305,7 @@
       <c r="AD161" s="22"/>
       <c r="AE161" s="22"/>
     </row>
-    <row r="162" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:31" ht="19.5" customHeight="1">
       <c r="A162" s="21"/>
       <c r="B162" s="21"/>
       <c r="C162" s="21"/>
@@ -6380,7 +6338,7 @@
       <c r="AD162" s="22"/>
       <c r="AE162" s="22"/>
     </row>
-    <row r="163" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:31" ht="19.5" customHeight="1">
       <c r="A163" s="21"/>
       <c r="B163" s="21"/>
       <c r="C163" s="21"/>
@@ -6413,7 +6371,7 @@
       <c r="AD163" s="22"/>
       <c r="AE163" s="22"/>
     </row>
-    <row r="164" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:31" ht="19.5" customHeight="1">
       <c r="A164" s="21"/>
       <c r="B164" s="21"/>
       <c r="C164" s="21"/>
@@ -6446,7 +6404,7 @@
       <c r="AD164" s="22"/>
       <c r="AE164" s="22"/>
     </row>
-    <row r="165" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:31" ht="19.5" customHeight="1">
       <c r="A165" s="21"/>
       <c r="B165" s="21"/>
       <c r="C165" s="21"/>
@@ -6479,7 +6437,7 @@
       <c r="AD165" s="22"/>
       <c r="AE165" s="22"/>
     </row>
-    <row r="166" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:31" ht="19.5" customHeight="1">
       <c r="A166" s="21"/>
       <c r="B166" s="21"/>
       <c r="C166" s="21"/>
@@ -6512,7 +6470,7 @@
       <c r="AD166" s="22"/>
       <c r="AE166" s="22"/>
     </row>
-    <row r="167" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:31" ht="19.5" customHeight="1">
       <c r="A167" s="21"/>
       <c r="B167" s="21"/>
       <c r="C167" s="21"/>
@@ -6545,7 +6503,7 @@
       <c r="AD167" s="22"/>
       <c r="AE167" s="22"/>
     </row>
-    <row r="168" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:31" ht="19.5" customHeight="1">
       <c r="A168" s="21"/>
       <c r="B168" s="21"/>
       <c r="C168" s="21"/>
@@ -6578,7 +6536,7 @@
       <c r="AD168" s="22"/>
       <c r="AE168" s="22"/>
     </row>
-    <row r="169" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:31" ht="19.5" customHeight="1">
       <c r="A169" s="21"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
@@ -6611,7 +6569,7 @@
       <c r="AD169" s="22"/>
       <c r="AE169" s="22"/>
     </row>
-    <row r="170" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:31" ht="19.5" customHeight="1">
       <c r="A170" s="21"/>
       <c r="B170" s="21"/>
       <c r="C170" s="21"/>
@@ -6644,7 +6602,7 @@
       <c r="AD170" s="22"/>
       <c r="AE170" s="22"/>
     </row>
-    <row r="171" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:31" ht="19.5" customHeight="1">
       <c r="A171" s="21"/>
       <c r="B171" s="21"/>
       <c r="C171" s="21"/>
@@ -6677,7 +6635,7 @@
       <c r="AD171" s="22"/>
       <c r="AE171" s="22"/>
     </row>
-    <row r="172" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:31" ht="19.5" customHeight="1">
       <c r="A172" s="21"/>
       <c r="B172" s="21"/>
       <c r="C172" s="21"/>
@@ -6710,7 +6668,7 @@
       <c r="AD172" s="22"/>
       <c r="AE172" s="22"/>
     </row>
-    <row r="173" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:31" ht="19.5" customHeight="1">
       <c r="A173" s="21"/>
       <c r="B173" s="21"/>
       <c r="C173" s="21"/>
@@ -6743,7 +6701,7 @@
       <c r="AD173" s="22"/>
       <c r="AE173" s="22"/>
     </row>
-    <row r="174" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:31" ht="19.5" customHeight="1">
       <c r="A174" s="21"/>
       <c r="B174" s="21"/>
       <c r="C174" s="21"/>
@@ -6776,7 +6734,7 @@
       <c r="AD174" s="22"/>
       <c r="AE174" s="22"/>
     </row>
-    <row r="175" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:31" ht="19.5" customHeight="1">
       <c r="A175" s="21"/>
       <c r="B175" s="21"/>
       <c r="C175" s="21"/>
@@ -6809,7 +6767,7 @@
       <c r="AD175" s="22"/>
       <c r="AE175" s="22"/>
     </row>
-    <row r="176" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:31" ht="19.5" customHeight="1">
       <c r="A176" s="21"/>
       <c r="B176" s="21"/>
       <c r="C176" s="21"/>
@@ -6842,7 +6800,7 @@
       <c r="AD176" s="22"/>
       <c r="AE176" s="22"/>
     </row>
-    <row r="177" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:31" ht="19.5" customHeight="1">
       <c r="A177" s="21"/>
       <c r="B177" s="21"/>
       <c r="C177" s="21"/>
@@ -6875,7 +6833,7 @@
       <c r="AD177" s="22"/>
       <c r="AE177" s="22"/>
     </row>
-    <row r="178" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:31" ht="19.5" customHeight="1">
       <c r="A178" s="21"/>
       <c r="B178" s="21"/>
       <c r="C178" s="21"/>
@@ -6908,7 +6866,7 @@
       <c r="AD178" s="22"/>
       <c r="AE178" s="22"/>
     </row>
-    <row r="179" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:31" ht="19.5" customHeight="1">
       <c r="A179" s="21"/>
       <c r="B179" s="21"/>
       <c r="C179" s="21"/>
@@ -6941,7 +6899,7 @@
       <c r="AD179" s="22"/>
       <c r="AE179" s="22"/>
     </row>
-    <row r="180" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:31" ht="19.5" customHeight="1">
       <c r="A180" s="21"/>
       <c r="B180" s="21"/>
       <c r="C180" s="21"/>
@@ -6974,7 +6932,7 @@
       <c r="AD180" s="22"/>
       <c r="AE180" s="22"/>
     </row>
-    <row r="181" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:31" ht="19.5" customHeight="1">
       <c r="A181" s="21"/>
       <c r="B181" s="21"/>
       <c r="C181" s="21"/>
@@ -7007,7 +6965,7 @@
       <c r="AD181" s="22"/>
       <c r="AE181" s="22"/>
     </row>
-    <row r="182" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:31" ht="19.5" customHeight="1">
       <c r="A182" s="21"/>
       <c r="B182" s="21"/>
       <c r="C182" s="21"/>
@@ -7040,7 +6998,7 @@
       <c r="AD182" s="22"/>
       <c r="AE182" s="22"/>
     </row>
-    <row r="183" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:31" ht="19.5" customHeight="1">
       <c r="A183" s="21"/>
       <c r="B183" s="21"/>
       <c r="C183" s="21"/>
@@ -7073,7 +7031,7 @@
       <c r="AD183" s="22"/>
       <c r="AE183" s="22"/>
     </row>
-    <row r="184" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:31" ht="19.5" customHeight="1">
       <c r="A184" s="21"/>
       <c r="B184" s="21"/>
       <c r="C184" s="21"/>
@@ -7106,7 +7064,7 @@
       <c r="AD184" s="22"/>
       <c r="AE184" s="22"/>
     </row>
-    <row r="185" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:31" ht="19.5" customHeight="1">
       <c r="A185" s="21"/>
       <c r="B185" s="21"/>
       <c r="C185" s="21"/>
@@ -7139,7 +7097,7 @@
       <c r="AD185" s="22"/>
       <c r="AE185" s="22"/>
     </row>
-    <row r="186" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:31" ht="19.5" customHeight="1">
       <c r="A186" s="21"/>
       <c r="B186" s="21"/>
       <c r="C186" s="21"/>
@@ -7172,7 +7130,7 @@
       <c r="AD186" s="22"/>
       <c r="AE186" s="22"/>
     </row>
-    <row r="187" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:31" ht="19.5" customHeight="1">
       <c r="A187" s="21"/>
       <c r="B187" s="21"/>
       <c r="C187" s="21"/>
@@ -7205,7 +7163,7 @@
       <c r="AD187" s="22"/>
       <c r="AE187" s="22"/>
     </row>
-    <row r="188" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:31" ht="19.5" customHeight="1">
       <c r="A188" s="21"/>
       <c r="B188" s="21"/>
       <c r="C188" s="21"/>
@@ -7238,7 +7196,7 @@
       <c r="AD188" s="22"/>
       <c r="AE188" s="22"/>
     </row>
-    <row r="189" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:31" ht="19.5" customHeight="1">
       <c r="A189" s="21"/>
       <c r="B189" s="21"/>
       <c r="C189" s="21"/>
@@ -7271,7 +7229,7 @@
       <c r="AD189" s="22"/>
       <c r="AE189" s="22"/>
     </row>
-    <row r="190" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:31" ht="19.5" customHeight="1">
       <c r="A190" s="21"/>
       <c r="B190" s="21"/>
       <c r="C190" s="21"/>
@@ -7304,7 +7262,7 @@
       <c r="AD190" s="22"/>
       <c r="AE190" s="22"/>
     </row>
-    <row r="191" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:31" ht="19.5" customHeight="1">
       <c r="A191" s="21"/>
       <c r="B191" s="21"/>
       <c r="C191" s="21"/>
@@ -7337,7 +7295,7 @@
       <c r="AD191" s="22"/>
       <c r="AE191" s="22"/>
     </row>
-    <row r="192" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:31" ht="19.5" customHeight="1">
       <c r="A192" s="21"/>
       <c r="B192" s="21"/>
       <c r="C192" s="21"/>
@@ -7370,7 +7328,7 @@
       <c r="AD192" s="22"/>
       <c r="AE192" s="22"/>
     </row>
-    <row r="193" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:31" ht="19.5" customHeight="1">
       <c r="A193" s="21"/>
       <c r="B193" s="21"/>
       <c r="C193" s="21"/>
@@ -7403,7 +7361,7 @@
       <c r="AD193" s="22"/>
       <c r="AE193" s="22"/>
     </row>
-    <row r="194" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:31" ht="19.5" customHeight="1">
       <c r="A194" s="21"/>
       <c r="B194" s="21"/>
       <c r="C194" s="21"/>
@@ -7436,7 +7394,7 @@
       <c r="AD194" s="22"/>
       <c r="AE194" s="22"/>
     </row>
-    <row r="195" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:31" ht="19.5" customHeight="1">
       <c r="A195" s="21"/>
       <c r="B195" s="21"/>
       <c r="C195" s="21"/>
@@ -7469,7 +7427,7 @@
       <c r="AD195" s="22"/>
       <c r="AE195" s="22"/>
     </row>
-    <row r="196" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:31" ht="19.5" customHeight="1">
       <c r="A196" s="21"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -7502,7 +7460,7 @@
       <c r="AD196" s="22"/>
       <c r="AE196" s="22"/>
     </row>
-    <row r="197" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:31" ht="19.5" customHeight="1">
       <c r="A197" s="21"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
@@ -7535,7 +7493,7 @@
       <c r="AD197" s="22"/>
       <c r="AE197" s="22"/>
     </row>
-    <row r="198" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:31" ht="19.5" customHeight="1">
       <c r="A198" s="21"/>
       <c r="B198" s="21"/>
       <c r="C198" s="21"/>
@@ -7568,7 +7526,7 @@
       <c r="AD198" s="22"/>
       <c r="AE198" s="22"/>
     </row>
-    <row r="199" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:31" ht="19.5" customHeight="1">
       <c r="A199" s="21"/>
       <c r="B199" s="21"/>
       <c r="C199" s="21"/>
@@ -7601,7 +7559,7 @@
       <c r="AD199" s="22"/>
       <c r="AE199" s="22"/>
     </row>
-    <row r="200" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:31" ht="19.5" customHeight="1">
       <c r="A200" s="21"/>
       <c r="B200" s="21"/>
       <c r="C200" s="21"/>
@@ -7634,7 +7592,7 @@
       <c r="AD200" s="22"/>
       <c r="AE200" s="22"/>
     </row>
-    <row r="201" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:31" ht="19.5" customHeight="1">
       <c r="A201" s="21"/>
       <c r="B201" s="21"/>
       <c r="C201" s="21"/>
@@ -7667,7 +7625,7 @@
       <c r="AD201" s="22"/>
       <c r="AE201" s="22"/>
     </row>
-    <row r="202" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:31" ht="19.5" customHeight="1">
       <c r="A202" s="21"/>
       <c r="B202" s="21"/>
       <c r="C202" s="21"/>
@@ -7700,7 +7658,7 @@
       <c r="AD202" s="22"/>
       <c r="AE202" s="22"/>
     </row>
-    <row r="203" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:31" ht="19.5" customHeight="1">
       <c r="A203" s="21"/>
       <c r="B203" s="21"/>
       <c r="C203" s="21"/>
@@ -7733,7 +7691,7 @@
       <c r="AD203" s="22"/>
       <c r="AE203" s="22"/>
     </row>
-    <row r="204" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:31" ht="19.5" customHeight="1">
       <c r="A204" s="21"/>
       <c r="B204" s="21"/>
       <c r="C204" s="21"/>
@@ -7766,7 +7724,7 @@
       <c r="AD204" s="22"/>
       <c r="AE204" s="22"/>
     </row>
-    <row r="205" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:31" ht="19.5" customHeight="1">
       <c r="A205" s="21"/>
       <c r="B205" s="21"/>
       <c r="C205" s="21"/>
@@ -7799,7 +7757,7 @@
       <c r="AD205" s="22"/>
       <c r="AE205" s="22"/>
     </row>
-    <row r="206" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:31" ht="19.5" customHeight="1">
       <c r="A206" s="21"/>
       <c r="B206" s="21"/>
       <c r="C206" s="21"/>
@@ -7832,7 +7790,7 @@
       <c r="AD206" s="22"/>
       <c r="AE206" s="22"/>
     </row>
-    <row r="207" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:31" ht="19.5" customHeight="1">
       <c r="A207" s="21"/>
       <c r="B207" s="21"/>
       <c r="C207" s="21"/>
@@ -7865,7 +7823,7 @@
       <c r="AD207" s="22"/>
       <c r="AE207" s="22"/>
     </row>
-    <row r="208" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:31" ht="19.5" customHeight="1">
       <c r="A208" s="21"/>
       <c r="B208" s="21"/>
       <c r="C208" s="21"/>
@@ -7898,7 +7856,7 @@
       <c r="AD208" s="22"/>
       <c r="AE208" s="22"/>
     </row>
-    <row r="209" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:31" ht="19.5" customHeight="1">
       <c r="A209" s="21"/>
       <c r="B209" s="21"/>
       <c r="C209" s="21"/>
@@ -7931,7 +7889,7 @@
       <c r="AD209" s="22"/>
       <c r="AE209" s="22"/>
     </row>
-    <row r="210" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:31" ht="19.5" customHeight="1">
       <c r="A210" s="21"/>
       <c r="B210" s="21"/>
       <c r="C210" s="21"/>
@@ -7964,7 +7922,7 @@
       <c r="AD210" s="22"/>
       <c r="AE210" s="22"/>
     </row>
-    <row r="211" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:31" ht="19.5" customHeight="1">
       <c r="A211" s="21"/>
       <c r="B211" s="21"/>
       <c r="C211" s="21"/>
@@ -7997,7 +7955,7 @@
       <c r="AD211" s="22"/>
       <c r="AE211" s="22"/>
     </row>
-    <row r="212" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:31" ht="19.5" customHeight="1">
       <c r="A212" s="21"/>
       <c r="B212" s="21"/>
       <c r="C212" s="21"/>
@@ -8030,7 +7988,7 @@
       <c r="AD212" s="22"/>
       <c r="AE212" s="22"/>
     </row>
-    <row r="213" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:31" ht="19.5" customHeight="1">
       <c r="A213" s="21"/>
       <c r="B213" s="21"/>
       <c r="C213" s="21"/>
@@ -8063,7 +8021,7 @@
       <c r="AD213" s="22"/>
       <c r="AE213" s="22"/>
     </row>
-    <row r="214" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:31" ht="19.5" customHeight="1">
       <c r="A214" s="21"/>
       <c r="B214" s="21"/>
       <c r="C214" s="21"/>
@@ -8096,7 +8054,7 @@
       <c r="AD214" s="22"/>
       <c r="AE214" s="22"/>
     </row>
-    <row r="215" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:31" ht="19.5" customHeight="1">
       <c r="A215" s="21"/>
       <c r="B215" s="21"/>
       <c r="C215" s="21"/>
@@ -8129,7 +8087,7 @@
       <c r="AD215" s="22"/>
       <c r="AE215" s="22"/>
     </row>
-    <row r="216" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:31" ht="19.5" customHeight="1">
       <c r="A216" s="21"/>
       <c r="B216" s="21"/>
       <c r="C216" s="21"/>
@@ -8162,7 +8120,7 @@
       <c r="AD216" s="22"/>
       <c r="AE216" s="22"/>
     </row>
-    <row r="217" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:31" ht="19.5" customHeight="1">
       <c r="A217" s="21"/>
       <c r="B217" s="21"/>
       <c r="C217" s="21"/>
@@ -8195,7 +8153,7 @@
       <c r="AD217" s="22"/>
       <c r="AE217" s="22"/>
     </row>
-    <row r="218" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:31" ht="19.5" customHeight="1">
       <c r="A218" s="21"/>
       <c r="B218" s="21"/>
       <c r="C218" s="21"/>
@@ -8228,7 +8186,7 @@
       <c r="AD218" s="22"/>
       <c r="AE218" s="22"/>
     </row>
-    <row r="219" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:31" ht="19.5" customHeight="1">
       <c r="A219" s="21"/>
       <c r="B219" s="21"/>
       <c r="C219" s="21"/>
@@ -8261,7 +8219,7 @@
       <c r="AD219" s="22"/>
       <c r="AE219" s="22"/>
     </row>
-    <row r="220" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:31" ht="19.5" customHeight="1">
       <c r="A220" s="21"/>
       <c r="B220" s="21"/>
       <c r="C220" s="21"/>
@@ -8294,7 +8252,7 @@
       <c r="AD220" s="22"/>
       <c r="AE220" s="22"/>
     </row>
-    <row r="221" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:31" ht="19.5" customHeight="1">
       <c r="A221" s="21"/>
       <c r="B221" s="21"/>
       <c r="C221" s="21"/>
@@ -8327,7 +8285,7 @@
       <c r="AD221" s="22"/>
       <c r="AE221" s="22"/>
     </row>
-    <row r="222" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:31" ht="19.5" customHeight="1">
       <c r="A222" s="21"/>
       <c r="B222" s="21"/>
       <c r="C222" s="21"/>
@@ -8360,7 +8318,7 @@
       <c r="AD222" s="22"/>
       <c r="AE222" s="22"/>
     </row>
-    <row r="223" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:31" ht="19.5" customHeight="1">
       <c r="A223" s="21"/>
       <c r="B223" s="21"/>
       <c r="C223" s="21"/>
@@ -8393,7 +8351,7 @@
       <c r="AD223" s="22"/>
       <c r="AE223" s="22"/>
     </row>
-    <row r="224" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:31" ht="19.5" customHeight="1">
       <c r="A224" s="21"/>
       <c r="B224" s="21"/>
       <c r="C224" s="21"/>
@@ -8426,7 +8384,7 @@
       <c r="AD224" s="22"/>
       <c r="AE224" s="22"/>
     </row>
-    <row r="225" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:31" ht="19.5" customHeight="1">
       <c r="A225" s="21"/>
       <c r="B225" s="21"/>
       <c r="C225" s="21"/>
@@ -8459,7 +8417,7 @@
       <c r="AD225" s="22"/>
       <c r="AE225" s="22"/>
     </row>
-    <row r="226" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:31" ht="19.5" customHeight="1">
       <c r="A226" s="21"/>
       <c r="B226" s="21"/>
       <c r="C226" s="21"/>
@@ -8492,7 +8450,7 @@
       <c r="AD226" s="22"/>
       <c r="AE226" s="22"/>
     </row>
-    <row r="227" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:31" ht="19.5" customHeight="1">
       <c r="A227" s="21"/>
       <c r="B227" s="21"/>
       <c r="C227" s="21"/>
@@ -8525,7 +8483,7 @@
       <c r="AD227" s="22"/>
       <c r="AE227" s="22"/>
     </row>
-    <row r="228" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:31" ht="19.5" customHeight="1">
       <c r="A228" s="21"/>
       <c r="B228" s="21"/>
       <c r="C228" s="21"/>
@@ -8558,7 +8516,7 @@
       <c r="AD228" s="22"/>
       <c r="AE228" s="22"/>
     </row>
-    <row r="229" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:31" ht="19.5" customHeight="1">
       <c r="A229" s="21"/>
       <c r="B229" s="21"/>
       <c r="C229" s="21"/>
@@ -8591,7 +8549,7 @@
       <c r="AD229" s="22"/>
       <c r="AE229" s="22"/>
     </row>
-    <row r="230" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:31" ht="19.5" customHeight="1">
       <c r="A230" s="21"/>
       <c r="B230" s="21"/>
       <c r="C230" s="21"/>
@@ -8624,7 +8582,7 @@
       <c r="AD230" s="22"/>
       <c r="AE230" s="22"/>
     </row>
-    <row r="231" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:31" ht="19.5" customHeight="1">
       <c r="A231" s="21"/>
       <c r="B231" s="21"/>
       <c r="C231" s="21"/>
@@ -8657,7 +8615,7 @@
       <c r="AD231" s="22"/>
       <c r="AE231" s="22"/>
     </row>
-    <row r="232" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:31" ht="19.5" customHeight="1">
       <c r="A232" s="21"/>
       <c r="B232" s="21"/>
       <c r="C232" s="21"/>
@@ -8690,7 +8648,7 @@
       <c r="AD232" s="22"/>
       <c r="AE232" s="22"/>
     </row>
-    <row r="233" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:31" ht="19.5" customHeight="1">
       <c r="A233" s="21"/>
       <c r="B233" s="21"/>
       <c r="C233" s="21"/>
@@ -8723,7 +8681,7 @@
       <c r="AD233" s="22"/>
       <c r="AE233" s="22"/>
     </row>
-    <row r="234" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:31" ht="19.5" customHeight="1">
       <c r="A234" s="21"/>
       <c r="B234" s="21"/>
       <c r="C234" s="21"/>
@@ -8756,7 +8714,7 @@
       <c r="AD234" s="22"/>
       <c r="AE234" s="22"/>
     </row>
-    <row r="235" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:31" ht="19.5" customHeight="1">
       <c r="A235" s="21"/>
       <c r="B235" s="21"/>
       <c r="C235" s="21"/>
@@ -8789,7 +8747,7 @@
       <c r="AD235" s="22"/>
       <c r="AE235" s="22"/>
     </row>
-    <row r="236" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:31" ht="19.5" customHeight="1">
       <c r="A236" s="21"/>
       <c r="B236" s="21"/>
       <c r="C236" s="21"/>
@@ -8822,7 +8780,7 @@
       <c r="AD236" s="22"/>
       <c r="AE236" s="22"/>
     </row>
-    <row r="237" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:31" ht="19.5" customHeight="1">
       <c r="A237" s="21"/>
       <c r="B237" s="21"/>
       <c r="C237" s="21"/>
@@ -8855,7 +8813,7 @@
       <c r="AD237" s="22"/>
       <c r="AE237" s="22"/>
     </row>
-    <row r="238" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:31" ht="19.5" customHeight="1">
       <c r="A238" s="21"/>
       <c r="B238" s="21"/>
       <c r="C238" s="21"/>
@@ -8888,7 +8846,7 @@
       <c r="AD238" s="22"/>
       <c r="AE238" s="22"/>
     </row>
-    <row r="239" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:31" ht="19.5" customHeight="1">
       <c r="A239" s="21"/>
       <c r="B239" s="21"/>
       <c r="C239" s="21"/>
@@ -8921,7 +8879,7 @@
       <c r="AD239" s="22"/>
       <c r="AE239" s="22"/>
     </row>
-    <row r="240" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:31" ht="19.5" customHeight="1">
       <c r="A240" s="21"/>
       <c r="B240" s="21"/>
       <c r="C240" s="21"/>
@@ -8954,7 +8912,7 @@
       <c r="AD240" s="22"/>
       <c r="AE240" s="22"/>
     </row>
-    <row r="241" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:31" ht="19.5" customHeight="1">
       <c r="A241" s="21"/>
       <c r="B241" s="21"/>
       <c r="C241" s="21"/>
@@ -8987,7 +8945,7 @@
       <c r="AD241" s="22"/>
       <c r="AE241" s="22"/>
     </row>
-    <row r="242" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:31" ht="19.5" customHeight="1">
       <c r="A242" s="21"/>
       <c r="B242" s="21"/>
       <c r="C242" s="21"/>
@@ -9020,7 +8978,7 @@
       <c r="AD242" s="22"/>
       <c r="AE242" s="22"/>
     </row>
-    <row r="243" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:31" ht="19.5" customHeight="1">
       <c r="A243" s="21"/>
       <c r="B243" s="21"/>
       <c r="C243" s="21"/>
@@ -9053,7 +9011,7 @@
       <c r="AD243" s="22"/>
       <c r="AE243" s="22"/>
     </row>
-    <row r="244" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:31" ht="19.5" customHeight="1">
       <c r="A244" s="21"/>
       <c r="B244" s="21"/>
       <c r="C244" s="21"/>
@@ -9086,7 +9044,7 @@
       <c r="AD244" s="22"/>
       <c r="AE244" s="22"/>
     </row>
-    <row r="245" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:31" ht="19.5" customHeight="1">
       <c r="A245" s="21"/>
       <c r="B245" s="21"/>
       <c r="C245" s="21"/>
@@ -9119,7 +9077,7 @@
       <c r="AD245" s="22"/>
       <c r="AE245" s="22"/>
     </row>
-    <row r="246" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:31" ht="19.5" customHeight="1">
       <c r="A246" s="21"/>
       <c r="B246" s="21"/>
       <c r="C246" s="21"/>
@@ -9152,7 +9110,7 @@
       <c r="AD246" s="22"/>
       <c r="AE246" s="22"/>
     </row>
-    <row r="247" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:31" ht="19.5" customHeight="1">
       <c r="A247" s="21"/>
       <c r="B247" s="21"/>
       <c r="C247" s="21"/>
@@ -9185,7 +9143,7 @@
       <c r="AD247" s="22"/>
       <c r="AE247" s="22"/>
     </row>
-    <row r="248" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:31" ht="19.5" customHeight="1">
       <c r="A248" s="21"/>
       <c r="B248" s="21"/>
       <c r="C248" s="21"/>
@@ -9218,7 +9176,7 @@
       <c r="AD248" s="22"/>
       <c r="AE248" s="22"/>
     </row>
-    <row r="249" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:31" ht="19.5" customHeight="1">
       <c r="A249" s="21"/>
       <c r="B249" s="21"/>
       <c r="C249" s="21"/>
@@ -9251,7 +9209,7 @@
       <c r="AD249" s="22"/>
       <c r="AE249" s="22"/>
     </row>
-    <row r="250" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:31" ht="19.5" customHeight="1">
       <c r="A250" s="21"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
@@ -9284,7 +9242,7 @@
       <c r="AD250" s="22"/>
       <c r="AE250" s="22"/>
     </row>
-    <row r="251" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:31" ht="19.5" customHeight="1">
       <c r="A251" s="21"/>
       <c r="B251" s="21"/>
       <c r="C251" s="21"/>
@@ -9317,7 +9275,7 @@
       <c r="AD251" s="22"/>
       <c r="AE251" s="22"/>
     </row>
-    <row r="252" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:31" ht="19.5" customHeight="1">
       <c r="A252" s="21"/>
       <c r="B252" s="21"/>
       <c r="C252" s="21"/>
@@ -9350,7 +9308,7 @@
       <c r="AD252" s="22"/>
       <c r="AE252" s="22"/>
     </row>
-    <row r="253" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:31" ht="19.5" customHeight="1">
       <c r="A253" s="21"/>
       <c r="B253" s="21"/>
       <c r="C253" s="21"/>
@@ -9383,7 +9341,7 @@
       <c r="AD253" s="22"/>
       <c r="AE253" s="22"/>
     </row>
-    <row r="254" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:31" ht="19.5" customHeight="1">
       <c r="A254" s="21"/>
       <c r="B254" s="21"/>
       <c r="C254" s="21"/>
@@ -9416,7 +9374,7 @@
       <c r="AD254" s="22"/>
       <c r="AE254" s="22"/>
     </row>
-    <row r="255" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:31" ht="19.5" customHeight="1">
       <c r="A255" s="21"/>
       <c r="B255" s="21"/>
       <c r="C255" s="21"/>
@@ -9449,7 +9407,7 @@
       <c r="AD255" s="22"/>
       <c r="AE255" s="22"/>
     </row>
-    <row r="256" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:31" ht="19.5" customHeight="1">
       <c r="A256" s="21"/>
       <c r="B256" s="21"/>
       <c r="C256" s="21"/>
@@ -9482,7 +9440,7 @@
       <c r="AD256" s="22"/>
       <c r="AE256" s="22"/>
     </row>
-    <row r="257" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:31" ht="19.5" customHeight="1">
       <c r="A257" s="21"/>
       <c r="B257" s="21"/>
       <c r="C257" s="21"/>
@@ -9515,7 +9473,7 @@
       <c r="AD257" s="22"/>
       <c r="AE257" s="22"/>
     </row>
-    <row r="258" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:31" ht="19.5" customHeight="1">
       <c r="A258" s="21"/>
       <c r="B258" s="21"/>
       <c r="C258" s="21"/>
@@ -9548,7 +9506,7 @@
       <c r="AD258" s="22"/>
       <c r="AE258" s="22"/>
     </row>
-    <row r="259" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:31" ht="19.5" customHeight="1">
       <c r="A259" s="21"/>
       <c r="B259" s="21"/>
       <c r="C259" s="21"/>
@@ -9581,7 +9539,7 @@
       <c r="AD259" s="22"/>
       <c r="AE259" s="22"/>
     </row>
-    <row r="260" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:31" ht="19.5" customHeight="1">
       <c r="A260" s="21"/>
       <c r="B260" s="21"/>
       <c r="C260" s="21"/>
@@ -9614,7 +9572,7 @@
       <c r="AD260" s="22"/>
       <c r="AE260" s="22"/>
     </row>
-    <row r="261" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:31" ht="19.5" customHeight="1">
       <c r="A261" s="21"/>
       <c r="B261" s="21"/>
       <c r="C261" s="21"/>
@@ -9647,7 +9605,7 @@
       <c r="AD261" s="22"/>
       <c r="AE261" s="22"/>
     </row>
-    <row r="262" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:31" ht="19.5" customHeight="1">
       <c r="A262" s="21"/>
       <c r="B262" s="21"/>
       <c r="C262" s="21"/>
@@ -9680,7 +9638,7 @@
       <c r="AD262" s="22"/>
       <c r="AE262" s="22"/>
     </row>
-    <row r="263" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:31" ht="19.5" customHeight="1">
       <c r="A263" s="21"/>
       <c r="B263" s="21"/>
       <c r="C263" s="21"/>
@@ -9713,7 +9671,7 @@
       <c r="AD263" s="22"/>
       <c r="AE263" s="22"/>
     </row>
-    <row r="264" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:31" ht="19.5" customHeight="1">
       <c r="A264" s="21"/>
       <c r="B264" s="21"/>
       <c r="C264" s="21"/>
@@ -9746,7 +9704,7 @@
       <c r="AD264" s="22"/>
       <c r="AE264" s="22"/>
     </row>
-    <row r="265" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:31" ht="19.5" customHeight="1">
       <c r="A265" s="21"/>
       <c r="B265" s="21"/>
       <c r="C265" s="21"/>
@@ -9779,7 +9737,7 @@
       <c r="AD265" s="22"/>
       <c r="AE265" s="22"/>
     </row>
-    <row r="266" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:31" ht="19.5" customHeight="1">
       <c r="A266" s="21"/>
       <c r="B266" s="21"/>
       <c r="C266" s="21"/>
@@ -9812,7 +9770,7 @@
       <c r="AD266" s="22"/>
       <c r="AE266" s="22"/>
     </row>
-    <row r="267" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:31" ht="19.5" customHeight="1">
       <c r="A267" s="21"/>
       <c r="B267" s="21"/>
       <c r="C267" s="21"/>
@@ -9845,7 +9803,7 @@
       <c r="AD267" s="22"/>
       <c r="AE267" s="22"/>
     </row>
-    <row r="268" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:31" ht="19.5" customHeight="1">
       <c r="A268" s="21"/>
       <c r="B268" s="21"/>
       <c r="C268" s="21"/>
@@ -9878,7 +9836,7 @@
       <c r="AD268" s="22"/>
       <c r="AE268" s="22"/>
     </row>
-    <row r="269" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:31" ht="19.5" customHeight="1">
       <c r="A269" s="21"/>
       <c r="B269" s="21"/>
       <c r="C269" s="21"/>
@@ -9911,7 +9869,7 @@
       <c r="AD269" s="22"/>
       <c r="AE269" s="22"/>
     </row>
-    <row r="270" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:31" ht="19.5" customHeight="1">
       <c r="A270" s="21"/>
       <c r="B270" s="21"/>
       <c r="C270" s="21"/>
@@ -9944,7 +9902,7 @@
       <c r="AD270" s="22"/>
       <c r="AE270" s="22"/>
     </row>
-    <row r="271" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:31" ht="19.5" customHeight="1">
       <c r="A271" s="21"/>
       <c r="B271" s="21"/>
       <c r="C271" s="21"/>
@@ -9977,7 +9935,7 @@
       <c r="AD271" s="22"/>
       <c r="AE271" s="22"/>
     </row>
-    <row r="272" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:31" ht="19.5" customHeight="1">
       <c r="A272" s="21"/>
       <c r="B272" s="21"/>
       <c r="C272" s="21"/>
@@ -10010,7 +9968,7 @@
       <c r="AD272" s="22"/>
       <c r="AE272" s="22"/>
     </row>
-    <row r="273" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:31" ht="19.5" customHeight="1">
       <c r="A273" s="21"/>
       <c r="B273" s="21"/>
       <c r="C273" s="21"/>
@@ -10043,7 +10001,7 @@
       <c r="AD273" s="22"/>
       <c r="AE273" s="22"/>
     </row>
-    <row r="274" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:31" ht="19.5" customHeight="1">
       <c r="A274" s="21"/>
       <c r="B274" s="21"/>
       <c r="C274" s="21"/>
@@ -10076,7 +10034,7 @@
       <c r="AD274" s="22"/>
       <c r="AE274" s="22"/>
     </row>
-    <row r="275" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:31" ht="19.5" customHeight="1">
       <c r="A275" s="21"/>
       <c r="B275" s="21"/>
       <c r="C275" s="21"/>
@@ -10109,7 +10067,7 @@
       <c r="AD275" s="22"/>
       <c r="AE275" s="22"/>
     </row>
-    <row r="276" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:31" ht="19.5" customHeight="1">
       <c r="A276" s="21"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
@@ -10142,7 +10100,7 @@
       <c r="AD276" s="22"/>
       <c r="AE276" s="22"/>
     </row>
-    <row r="277" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:31" ht="19.5" customHeight="1">
       <c r="A277" s="21"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
@@ -10175,7 +10133,7 @@
       <c r="AD277" s="22"/>
       <c r="AE277" s="22"/>
     </row>
-    <row r="278" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:31" ht="19.5" customHeight="1">
       <c r="A278" s="21"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
@@ -10208,7 +10166,7 @@
       <c r="AD278" s="22"/>
       <c r="AE278" s="22"/>
     </row>
-    <row r="279" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:31" ht="19.5" customHeight="1">
       <c r="A279" s="21"/>
       <c r="B279" s="21"/>
       <c r="C279" s="21"/>
@@ -10241,7 +10199,7 @@
       <c r="AD279" s="22"/>
       <c r="AE279" s="22"/>
     </row>
-    <row r="280" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:31" ht="19.5" customHeight="1">
       <c r="A280" s="21"/>
       <c r="B280" s="21"/>
       <c r="C280" s="21"/>
@@ -10274,7 +10232,7 @@
       <c r="AD280" s="22"/>
       <c r="AE280" s="22"/>
     </row>
-    <row r="281" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:31" ht="19.5" customHeight="1">
       <c r="A281" s="21"/>
       <c r="B281" s="21"/>
       <c r="C281" s="21"/>
@@ -10307,7 +10265,7 @@
       <c r="AD281" s="22"/>
       <c r="AE281" s="22"/>
     </row>
-    <row r="282" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:31" ht="19.5" customHeight="1">
       <c r="A282" s="21"/>
       <c r="B282" s="21"/>
       <c r="C282" s="21"/>
@@ -10340,7 +10298,7 @@
       <c r="AD282" s="22"/>
       <c r="AE282" s="22"/>
     </row>
-    <row r="283" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:31" ht="19.5" customHeight="1">
       <c r="A283" s="21"/>
       <c r="B283" s="21"/>
       <c r="C283" s="21"/>
@@ -10373,7 +10331,7 @@
       <c r="AD283" s="22"/>
       <c r="AE283" s="22"/>
     </row>
-    <row r="284" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:31" ht="19.5" customHeight="1">
       <c r="A284" s="21"/>
       <c r="B284" s="21"/>
       <c r="C284" s="21"/>
@@ -10406,7 +10364,7 @@
       <c r="AD284" s="22"/>
       <c r="AE284" s="22"/>
     </row>
-    <row r="285" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:31" ht="19.5" customHeight="1">
       <c r="A285" s="21"/>
       <c r="B285" s="21"/>
       <c r="C285" s="21"/>
@@ -10439,7 +10397,7 @@
       <c r="AD285" s="22"/>
       <c r="AE285" s="22"/>
     </row>
-    <row r="286" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:31" ht="19.5" customHeight="1">
       <c r="A286" s="21"/>
       <c r="B286" s="21"/>
       <c r="C286" s="21"/>
@@ -10472,7 +10430,7 @@
       <c r="AD286" s="22"/>
       <c r="AE286" s="22"/>
     </row>
-    <row r="287" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:31" ht="19.5" customHeight="1">
       <c r="A287" s="21"/>
       <c r="B287" s="21"/>
       <c r="C287" s="21"/>
@@ -10505,7 +10463,7 @@
       <c r="AD287" s="22"/>
       <c r="AE287" s="22"/>
     </row>
-    <row r="288" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:31" ht="19.5" customHeight="1">
       <c r="A288" s="21"/>
       <c r="B288" s="21"/>
       <c r="C288" s="21"/>
@@ -10538,7 +10496,7 @@
       <c r="AD288" s="22"/>
       <c r="AE288" s="22"/>
     </row>
-    <row r="289" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:31" ht="19.5" customHeight="1">
       <c r="A289" s="21"/>
       <c r="B289" s="21"/>
       <c r="C289" s="21"/>
@@ -10571,7 +10529,7 @@
       <c r="AD289" s="22"/>
       <c r="AE289" s="22"/>
     </row>
-    <row r="290" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:31" ht="19.5" customHeight="1">
       <c r="A290" s="21"/>
       <c r="B290" s="21"/>
       <c r="C290" s="21"/>
@@ -10604,7 +10562,7 @@
       <c r="AD290" s="22"/>
       <c r="AE290" s="22"/>
     </row>
-    <row r="291" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:31" ht="19.5" customHeight="1">
       <c r="A291" s="21"/>
       <c r="B291" s="21"/>
       <c r="C291" s="21"/>
@@ -10637,7 +10595,7 @@
       <c r="AD291" s="22"/>
       <c r="AE291" s="22"/>
     </row>
-    <row r="292" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:31" ht="19.5" customHeight="1">
       <c r="A292" s="21"/>
       <c r="B292" s="21"/>
       <c r="C292" s="21"/>
@@ -10670,7 +10628,7 @@
       <c r="AD292" s="22"/>
       <c r="AE292" s="22"/>
     </row>
-    <row r="293" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:31" ht="19.5" customHeight="1">
       <c r="A293" s="21"/>
       <c r="B293" s="21"/>
       <c r="C293" s="21"/>
@@ -10703,7 +10661,7 @@
       <c r="AD293" s="22"/>
       <c r="AE293" s="22"/>
     </row>
-    <row r="294" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:31" ht="19.5" customHeight="1">
       <c r="A294" s="21"/>
       <c r="B294" s="21"/>
       <c r="C294" s="21"/>
@@ -10736,7 +10694,7 @@
       <c r="AD294" s="22"/>
       <c r="AE294" s="22"/>
     </row>
-    <row r="295" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:31" ht="19.5" customHeight="1">
       <c r="A295" s="21"/>
       <c r="B295" s="21"/>
       <c r="C295" s="21"/>
@@ -10769,7 +10727,7 @@
       <c r="AD295" s="22"/>
       <c r="AE295" s="22"/>
     </row>
-    <row r="296" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:31" ht="19.5" customHeight="1">
       <c r="A296" s="21"/>
       <c r="B296" s="21"/>
       <c r="C296" s="21"/>
@@ -10802,7 +10760,7 @@
       <c r="AD296" s="22"/>
       <c r="AE296" s="22"/>
     </row>
-    <row r="297" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:31" ht="19.5" customHeight="1">
       <c r="A297" s="21"/>
       <c r="B297" s="21"/>
       <c r="C297" s="21"/>
@@ -10835,7 +10793,7 @@
       <c r="AD297" s="22"/>
       <c r="AE297" s="22"/>
     </row>
-    <row r="298" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:31" ht="19.5" customHeight="1">
       <c r="A298" s="21"/>
       <c r="B298" s="21"/>
       <c r="C298" s="21"/>
@@ -10868,7 +10826,7 @@
       <c r="AD298" s="22"/>
       <c r="AE298" s="22"/>
     </row>
-    <row r="299" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:31" ht="19.5" customHeight="1">
       <c r="A299" s="21"/>
       <c r="B299" s="21"/>
       <c r="C299" s="21"/>
@@ -10901,7 +10859,7 @@
       <c r="AD299" s="22"/>
       <c r="AE299" s="22"/>
     </row>
-    <row r="300" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:31" ht="19.5" customHeight="1">
       <c r="A300" s="21"/>
       <c r="B300" s="21"/>
       <c r="C300" s="21"/>
@@ -10934,7 +10892,7 @@
       <c r="AD300" s="22"/>
       <c r="AE300" s="22"/>
     </row>
-    <row r="301" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:31" ht="19.5" customHeight="1">
       <c r="A301" s="21"/>
       <c r="B301" s="21"/>
       <c r="C301" s="21"/>
@@ -10967,7 +10925,7 @@
       <c r="AD301" s="22"/>
       <c r="AE301" s="22"/>
     </row>
-    <row r="302" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:31" ht="19.5" customHeight="1">
       <c r="A302" s="21"/>
       <c r="B302" s="21"/>
       <c r="C302" s="21"/>
@@ -11000,7 +10958,7 @@
       <c r="AD302" s="22"/>
       <c r="AE302" s="22"/>
     </row>
-    <row r="303" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:31" ht="19.5" customHeight="1">
       <c r="A303" s="21"/>
       <c r="B303" s="21"/>
       <c r="C303" s="21"/>
@@ -11033,7 +10991,7 @@
       <c r="AD303" s="22"/>
       <c r="AE303" s="22"/>
     </row>
-    <row r="304" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:31" ht="19.5" customHeight="1">
       <c r="A304" s="21"/>
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
@@ -11066,7 +11024,7 @@
       <c r="AD304" s="22"/>
       <c r="AE304" s="22"/>
     </row>
-    <row r="305" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:31" ht="19.5" customHeight="1">
       <c r="A305" s="21"/>
       <c r="B305" s="21"/>
       <c r="C305" s="21"/>
@@ -11099,7 +11057,7 @@
       <c r="AD305" s="22"/>
       <c r="AE305" s="22"/>
     </row>
-    <row r="306" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:31" ht="19.5" customHeight="1">
       <c r="A306" s="21"/>
       <c r="B306" s="21"/>
       <c r="C306" s="21"/>
@@ -11132,7 +11090,7 @@
       <c r="AD306" s="22"/>
       <c r="AE306" s="22"/>
     </row>
-    <row r="307" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:31" ht="19.5" customHeight="1">
       <c r="A307" s="21"/>
       <c r="B307" s="21"/>
       <c r="C307" s="21"/>
@@ -11165,7 +11123,7 @@
       <c r="AD307" s="22"/>
       <c r="AE307" s="22"/>
     </row>
-    <row r="308" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:31" ht="19.5" customHeight="1">
       <c r="A308" s="21"/>
       <c r="B308" s="21"/>
       <c r="C308" s="21"/>
@@ -11198,7 +11156,7 @@
       <c r="AD308" s="22"/>
       <c r="AE308" s="22"/>
     </row>
-    <row r="309" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:31" ht="19.5" customHeight="1">
       <c r="A309" s="21"/>
       <c r="B309" s="21"/>
       <c r="C309" s="21"/>
@@ -11231,7 +11189,7 @@
       <c r="AD309" s="22"/>
       <c r="AE309" s="22"/>
     </row>
-    <row r="310" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:31" ht="19.5" customHeight="1">
       <c r="A310" s="21"/>
       <c r="B310" s="21"/>
       <c r="C310" s="21"/>
@@ -11264,7 +11222,7 @@
       <c r="AD310" s="22"/>
       <c r="AE310" s="22"/>
     </row>
-    <row r="311" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:31" ht="19.5" customHeight="1">
       <c r="A311" s="21"/>
       <c r="B311" s="21"/>
       <c r="C311" s="21"/>
@@ -11297,7 +11255,7 @@
       <c r="AD311" s="22"/>
       <c r="AE311" s="22"/>
     </row>
-    <row r="312" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:31" ht="19.5" customHeight="1">
       <c r="A312" s="21"/>
       <c r="B312" s="21"/>
       <c r="C312" s="21"/>
@@ -11330,7 +11288,7 @@
       <c r="AD312" s="22"/>
       <c r="AE312" s="22"/>
     </row>
-    <row r="313" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:31" ht="19.5" customHeight="1">
       <c r="A313" s="21"/>
       <c r="B313" s="21"/>
       <c r="C313" s="21"/>
@@ -11363,7 +11321,7 @@
       <c r="AD313" s="22"/>
       <c r="AE313" s="22"/>
     </row>
-    <row r="314" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:31" ht="19.5" customHeight="1">
       <c r="A314" s="21"/>
       <c r="B314" s="21"/>
       <c r="C314" s="21"/>
@@ -11396,7 +11354,7 @@
       <c r="AD314" s="22"/>
       <c r="AE314" s="22"/>
     </row>
-    <row r="315" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:31" ht="19.5" customHeight="1">
       <c r="A315" s="21"/>
       <c r="B315" s="21"/>
       <c r="C315" s="21"/>
@@ -11429,7 +11387,7 @@
       <c r="AD315" s="22"/>
       <c r="AE315" s="22"/>
     </row>
-    <row r="316" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:31" ht="19.5" customHeight="1">
       <c r="A316" s="21"/>
       <c r="B316" s="21"/>
       <c r="C316" s="21"/>
@@ -11462,7 +11420,7 @@
       <c r="AD316" s="22"/>
       <c r="AE316" s="22"/>
     </row>
-    <row r="317" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:31" ht="19.5" customHeight="1">
       <c r="A317" s="21"/>
       <c r="B317" s="21"/>
       <c r="C317" s="21"/>
@@ -11495,7 +11453,7 @@
       <c r="AD317" s="22"/>
       <c r="AE317" s="22"/>
     </row>
-    <row r="318" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:31" ht="19.5" customHeight="1">
       <c r="A318" s="21"/>
       <c r="B318" s="21"/>
       <c r="C318" s="21"/>
@@ -11528,7 +11486,7 @@
       <c r="AD318" s="22"/>
       <c r="AE318" s="22"/>
     </row>
-    <row r="319" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:31" ht="19.5" customHeight="1">
       <c r="A319" s="21"/>
       <c r="B319" s="21"/>
       <c r="C319" s="21"/>
@@ -11561,7 +11519,7 @@
       <c r="AD319" s="22"/>
       <c r="AE319" s="22"/>
     </row>
-    <row r="320" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:31" ht="19.5" customHeight="1">
       <c r="A320" s="21"/>
       <c r="B320" s="21"/>
       <c r="C320" s="21"/>
@@ -11594,7 +11552,7 @@
       <c r="AD320" s="22"/>
       <c r="AE320" s="22"/>
     </row>
-    <row r="321" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:31" ht="19.5" customHeight="1">
       <c r="A321" s="21"/>
       <c r="B321" s="21"/>
       <c r="C321" s="21"/>
@@ -11627,7 +11585,7 @@
       <c r="AD321" s="22"/>
       <c r="AE321" s="22"/>
     </row>
-    <row r="322" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:31" ht="19.5" customHeight="1">
       <c r="A322" s="21"/>
       <c r="B322" s="21"/>
       <c r="C322" s="21"/>
@@ -11660,7 +11618,7 @@
       <c r="AD322" s="22"/>
       <c r="AE322" s="22"/>
     </row>
-    <row r="323" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:31" ht="19.5" customHeight="1">
       <c r="A323" s="21"/>
       <c r="B323" s="21"/>
       <c r="C323" s="21"/>
@@ -11693,7 +11651,7 @@
       <c r="AD323" s="22"/>
       <c r="AE323" s="22"/>
     </row>
-    <row r="324" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:31" ht="19.5" customHeight="1">
       <c r="A324" s="21"/>
       <c r="B324" s="21"/>
       <c r="C324" s="21"/>
@@ -11726,7 +11684,7 @@
       <c r="AD324" s="22"/>
       <c r="AE324" s="22"/>
     </row>
-    <row r="325" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:31" ht="19.5" customHeight="1">
       <c r="A325" s="23"/>
       <c r="B325" s="23"/>
       <c r="C325" s="23"/>
@@ -11734,7 +11692,7 @@
       <c r="E325" s="23"/>
       <c r="F325" s="23"/>
     </row>
-    <row r="326" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:31" ht="19.5" customHeight="1">
       <c r="A326" s="23"/>
       <c r="B326" s="23"/>
       <c r="C326" s="23"/>
@@ -11742,7 +11700,7 @@
       <c r="E326" s="23"/>
       <c r="F326" s="23"/>
     </row>
-    <row r="327" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:31" ht="19.5" customHeight="1">
       <c r="A327" s="23"/>
       <c r="B327" s="23"/>
       <c r="C327" s="23"/>
@@ -11750,7 +11708,7 @@
       <c r="E327" s="23"/>
       <c r="F327" s="23"/>
     </row>
-    <row r="328" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:31" ht="19.5" customHeight="1">
       <c r="A328" s="23"/>
       <c r="B328" s="23"/>
       <c r="C328" s="23"/>
@@ -11758,7 +11716,7 @@
       <c r="E328" s="23"/>
       <c r="F328" s="23"/>
     </row>
-    <row r="329" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:31" ht="19.5" customHeight="1">
       <c r="A329" s="23"/>
       <c r="B329" s="23"/>
       <c r="C329" s="23"/>
@@ -11766,7 +11724,7 @@
       <c r="E329" s="23"/>
       <c r="F329" s="23"/>
     </row>
-    <row r="330" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:31" ht="19.5" customHeight="1">
       <c r="A330" s="23"/>
       <c r="B330" s="23"/>
       <c r="C330" s="23"/>
@@ -11774,7 +11732,7 @@
       <c r="E330" s="23"/>
       <c r="F330" s="23"/>
     </row>
-    <row r="331" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:31" ht="19.5" customHeight="1">
       <c r="A331" s="23"/>
       <c r="B331" s="23"/>
       <c r="C331" s="23"/>
@@ -11782,7 +11740,7 @@
       <c r="E331" s="23"/>
       <c r="F331" s="23"/>
     </row>
-    <row r="332" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:31" ht="19.5" customHeight="1">
       <c r="A332" s="23"/>
       <c r="B332" s="23"/>
       <c r="C332" s="23"/>
@@ -11790,7 +11748,7 @@
       <c r="E332" s="23"/>
       <c r="F332" s="23"/>
     </row>
-    <row r="333" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:31" ht="19.5" customHeight="1">
       <c r="A333" s="23"/>
       <c r="B333" s="23"/>
       <c r="C333" s="23"/>
@@ -11798,7 +11756,7 @@
       <c r="E333" s="23"/>
       <c r="F333" s="23"/>
     </row>
-    <row r="334" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:31" ht="19.5" customHeight="1">
       <c r="A334" s="23"/>
       <c r="B334" s="23"/>
       <c r="C334" s="23"/>
@@ -11806,7 +11764,7 @@
       <c r="E334" s="23"/>
       <c r="F334" s="23"/>
     </row>
-    <row r="335" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:31" ht="19.5" customHeight="1">
       <c r="A335" s="23"/>
       <c r="B335" s="23"/>
       <c r="C335" s="23"/>
@@ -11814,7 +11772,7 @@
       <c r="E335" s="23"/>
       <c r="F335" s="23"/>
     </row>
-    <row r="336" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:31" ht="19.5" customHeight="1">
       <c r="A336" s="23"/>
       <c r="B336" s="23"/>
       <c r="C336" s="23"/>
@@ -11822,7 +11780,7 @@
       <c r="E336" s="23"/>
       <c r="F336" s="23"/>
     </row>
-    <row r="337" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:6" ht="19.5" customHeight="1">
       <c r="A337" s="23"/>
       <c r="B337" s="23"/>
       <c r="C337" s="23"/>
@@ -11830,7 +11788,7 @@
       <c r="E337" s="23"/>
       <c r="F337" s="23"/>
     </row>
-    <row r="338" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:6" ht="19.5" customHeight="1">
       <c r="A338" s="23"/>
       <c r="B338" s="23"/>
       <c r="C338" s="23"/>
@@ -11838,7 +11796,7 @@
       <c r="E338" s="23"/>
       <c r="F338" s="23"/>
     </row>
-    <row r="339" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:6" ht="19.5" customHeight="1">
       <c r="A339" s="23"/>
       <c r="B339" s="23"/>
       <c r="C339" s="23"/>
@@ -11846,7 +11804,7 @@
       <c r="E339" s="23"/>
       <c r="F339" s="23"/>
     </row>
-    <row r="340" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:6" ht="19.5" customHeight="1">
       <c r="A340" s="23"/>
       <c r="B340" s="23"/>
       <c r="C340" s="23"/>
@@ -11854,7 +11812,7 @@
       <c r="E340" s="23"/>
       <c r="F340" s="23"/>
     </row>
-    <row r="341" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:6" ht="19.5" customHeight="1">
       <c r="A341" s="23"/>
       <c r="B341" s="23"/>
       <c r="C341" s="23"/>
@@ -11862,7 +11820,7 @@
       <c r="E341" s="23"/>
       <c r="F341" s="23"/>
     </row>
-    <row r="342" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:6" ht="19.5" customHeight="1">
       <c r="A342" s="23"/>
       <c r="B342" s="23"/>
       <c r="C342" s="23"/>
@@ -11870,7 +11828,7 @@
       <c r="E342" s="23"/>
       <c r="F342" s="23"/>
     </row>
-    <row r="343" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:6" ht="19.5" customHeight="1">
       <c r="A343" s="23"/>
       <c r="B343" s="23"/>
       <c r="C343" s="23"/>
@@ -11878,7 +11836,7 @@
       <c r="E343" s="23"/>
       <c r="F343" s="23"/>
     </row>
-    <row r="344" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:6" ht="19.5" customHeight="1">
       <c r="A344" s="23"/>
       <c r="B344" s="23"/>
       <c r="C344" s="23"/>
@@ -11886,7 +11844,7 @@
       <c r="E344" s="23"/>
       <c r="F344" s="23"/>
     </row>
-    <row r="345" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:6" ht="19.5" customHeight="1">
       <c r="A345" s="23"/>
       <c r="B345" s="23"/>
       <c r="C345" s="23"/>
@@ -11894,7 +11852,7 @@
       <c r="E345" s="23"/>
       <c r="F345" s="23"/>
     </row>
-    <row r="346" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:6" ht="19.5" customHeight="1">
       <c r="A346" s="23"/>
       <c r="B346" s="23"/>
       <c r="C346" s="23"/>
@@ -11902,7 +11860,7 @@
       <c r="E346" s="23"/>
       <c r="F346" s="23"/>
     </row>
-    <row r="347" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:6" ht="19.5" customHeight="1">
       <c r="A347" s="23"/>
       <c r="B347" s="23"/>
       <c r="C347" s="23"/>
@@ -11910,7 +11868,7 @@
       <c r="E347" s="23"/>
       <c r="F347" s="23"/>
     </row>
-    <row r="348" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:6" ht="19.5" customHeight="1">
       <c r="A348" s="23"/>
       <c r="B348" s="23"/>
       <c r="C348" s="23"/>
@@ -11918,7 +11876,7 @@
       <c r="E348" s="23"/>
       <c r="F348" s="23"/>
     </row>
-    <row r="349" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:6" ht="19.5" customHeight="1">
       <c r="A349" s="23"/>
       <c r="B349" s="23"/>
       <c r="C349" s="23"/>
@@ -11926,7 +11884,7 @@
       <c r="E349" s="23"/>
       <c r="F349" s="23"/>
     </row>
-    <row r="350" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:6" ht="19.5" customHeight="1">
       <c r="A350" s="23"/>
       <c r="B350" s="23"/>
       <c r="C350" s="23"/>
@@ -11934,7 +11892,7 @@
       <c r="E350" s="23"/>
       <c r="F350" s="23"/>
     </row>
-    <row r="351" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:6" ht="19.5" customHeight="1">
       <c r="A351" s="23"/>
       <c r="B351" s="23"/>
       <c r="C351" s="23"/>
@@ -11942,7 +11900,7 @@
       <c r="E351" s="23"/>
       <c r="F351" s="23"/>
     </row>
-    <row r="352" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:6" ht="19.5" customHeight="1">
       <c r="A352" s="23"/>
       <c r="B352" s="23"/>
       <c r="C352" s="23"/>
@@ -11950,7 +11908,7 @@
       <c r="E352" s="23"/>
       <c r="F352" s="23"/>
     </row>
-    <row r="353" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:6" ht="19.5" customHeight="1">
       <c r="A353" s="23"/>
       <c r="B353" s="23"/>
       <c r="C353" s="23"/>
@@ -11958,7 +11916,7 @@
       <c r="E353" s="23"/>
       <c r="F353" s="23"/>
     </row>
-    <row r="354" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:6" ht="19.5" customHeight="1">
       <c r="A354" s="23"/>
       <c r="B354" s="23"/>
       <c r="C354" s="23"/>
@@ -11966,7 +11924,7 @@
       <c r="E354" s="23"/>
       <c r="F354" s="23"/>
     </row>
-    <row r="355" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:6" ht="19.5" customHeight="1">
       <c r="A355" s="23"/>
       <c r="B355" s="23"/>
       <c r="C355" s="23"/>
@@ -11974,7 +11932,7 @@
       <c r="E355" s="23"/>
       <c r="F355" s="23"/>
     </row>
-    <row r="356" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:6" ht="19.5" customHeight="1">
       <c r="A356" s="23"/>
       <c r="B356" s="23"/>
       <c r="C356" s="23"/>
@@ -11982,7 +11940,7 @@
       <c r="E356" s="23"/>
       <c r="F356" s="23"/>
     </row>
-    <row r="357" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:6" ht="19.5" customHeight="1">
       <c r="A357" s="23"/>
       <c r="B357" s="23"/>
       <c r="C357" s="23"/>
@@ -11990,7 +11948,7 @@
       <c r="E357" s="23"/>
       <c r="F357" s="23"/>
     </row>
-    <row r="358" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:6" ht="19.5" customHeight="1">
       <c r="A358" s="23"/>
       <c r="B358" s="23"/>
       <c r="C358" s="23"/>
@@ -11998,7 +11956,7 @@
       <c r="E358" s="23"/>
       <c r="F358" s="23"/>
     </row>
-    <row r="359" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:6" ht="19.5" customHeight="1">
       <c r="A359" s="23"/>
       <c r="B359" s="23"/>
       <c r="C359" s="23"/>
@@ -12006,7 +11964,7 @@
       <c r="E359" s="23"/>
       <c r="F359" s="23"/>
     </row>
-    <row r="360" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:6" ht="19.5" customHeight="1">
       <c r="A360" s="23"/>
       <c r="B360" s="23"/>
       <c r="C360" s="23"/>
@@ -12014,7 +11972,7 @@
       <c r="E360" s="23"/>
       <c r="F360" s="23"/>
     </row>
-    <row r="361" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:6" ht="19.5" customHeight="1">
       <c r="A361" s="23"/>
       <c r="B361" s="23"/>
       <c r="C361" s="23"/>
@@ -12022,7 +11980,7 @@
       <c r="E361" s="23"/>
       <c r="F361" s="23"/>
     </row>
-    <row r="362" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:6" ht="19.5" customHeight="1">
       <c r="A362" s="23"/>
       <c r="B362" s="23"/>
       <c r="C362" s="23"/>
@@ -12030,7 +11988,7 @@
       <c r="E362" s="23"/>
       <c r="F362" s="23"/>
     </row>
-    <row r="363" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:6" ht="19.5" customHeight="1">
       <c r="A363" s="23"/>
       <c r="B363" s="23"/>
       <c r="C363" s="23"/>
@@ -12038,7 +11996,7 @@
       <c r="E363" s="23"/>
       <c r="F363" s="23"/>
     </row>
-    <row r="364" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:6" ht="19.5" customHeight="1">
       <c r="A364" s="23"/>
       <c r="B364" s="23"/>
       <c r="C364" s="23"/>
@@ -12046,7 +12004,7 @@
       <c r="E364" s="23"/>
       <c r="F364" s="23"/>
     </row>
-    <row r="365" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:6" ht="19.5" customHeight="1">
       <c r="A365" s="23"/>
       <c r="B365" s="23"/>
       <c r="C365" s="23"/>
@@ -12054,7 +12012,7 @@
       <c r="E365" s="23"/>
       <c r="F365" s="23"/>
     </row>
-    <row r="366" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:6" ht="19.5" customHeight="1">
       <c r="A366" s="23"/>
       <c r="B366" s="23"/>
       <c r="C366" s="23"/>
@@ -12062,7 +12020,7 @@
       <c r="E366" s="23"/>
       <c r="F366" s="23"/>
     </row>
-    <row r="367" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:6" ht="19.5" customHeight="1">
       <c r="A367" s="23"/>
       <c r="B367" s="23"/>
       <c r="C367" s="23"/>
@@ -12070,7 +12028,7 @@
       <c r="E367" s="23"/>
       <c r="F367" s="23"/>
     </row>
-    <row r="368" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:6" ht="19.5" customHeight="1">
       <c r="A368" s="23"/>
       <c r="B368" s="23"/>
       <c r="C368" s="23"/>
@@ -12078,7 +12036,7 @@
       <c r="E368" s="23"/>
       <c r="F368" s="23"/>
     </row>
-    <row r="369" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:6" ht="19.5" customHeight="1">
       <c r="A369" s="23"/>
       <c r="B369" s="23"/>
       <c r="C369" s="23"/>
@@ -12086,7 +12044,7 @@
       <c r="E369" s="23"/>
       <c r="F369" s="23"/>
     </row>
-    <row r="370" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:6" ht="19.5" customHeight="1">
       <c r="A370" s="23"/>
       <c r="B370" s="23"/>
       <c r="C370" s="23"/>
@@ -12094,7 +12052,7 @@
       <c r="E370" s="23"/>
       <c r="F370" s="23"/>
     </row>
-    <row r="371" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:6" ht="19.5" customHeight="1">
       <c r="A371" s="23"/>
       <c r="B371" s="23"/>
       <c r="C371" s="23"/>
@@ -12102,7 +12060,7 @@
       <c r="E371" s="23"/>
       <c r="F371" s="23"/>
     </row>
-    <row r="372" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:6" ht="19.5" customHeight="1">
       <c r="A372" s="23"/>
       <c r="B372" s="23"/>
       <c r="C372" s="23"/>
@@ -12110,7 +12068,7 @@
       <c r="E372" s="23"/>
       <c r="F372" s="23"/>
     </row>
-    <row r="373" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:6" ht="19.5" customHeight="1">
       <c r="A373" s="23"/>
       <c r="B373" s="23"/>
       <c r="C373" s="23"/>
@@ -12118,7 +12076,7 @@
       <c r="E373" s="23"/>
       <c r="F373" s="23"/>
     </row>
-    <row r="374" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:6" ht="19.5" customHeight="1">
       <c r="A374" s="23"/>
       <c r="B374" s="23"/>
       <c r="C374" s="23"/>
@@ -12126,7 +12084,7 @@
       <c r="E374" s="23"/>
       <c r="F374" s="23"/>
     </row>
-    <row r="375" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:6" ht="19.5" customHeight="1">
       <c r="A375" s="23"/>
       <c r="B375" s="23"/>
       <c r="C375" s="23"/>
@@ -12134,7 +12092,7 @@
       <c r="E375" s="23"/>
       <c r="F375" s="23"/>
     </row>
-    <row r="376" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:6" ht="19.5" customHeight="1">
       <c r="A376" s="23"/>
       <c r="B376" s="23"/>
       <c r="C376" s="23"/>
@@ -12142,7 +12100,7 @@
       <c r="E376" s="23"/>
       <c r="F376" s="23"/>
     </row>
-    <row r="377" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:6" ht="19.5" customHeight="1">
       <c r="A377" s="23"/>
       <c r="B377" s="23"/>
       <c r="C377" s="23"/>
@@ -12150,7 +12108,7 @@
       <c r="E377" s="23"/>
       <c r="F377" s="23"/>
     </row>
-    <row r="378" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:6" ht="19.5" customHeight="1">
       <c r="A378" s="23"/>
       <c r="B378" s="23"/>
       <c r="C378" s="23"/>
@@ -12158,7 +12116,7 @@
       <c r="E378" s="23"/>
       <c r="F378" s="23"/>
     </row>
-    <row r="379" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:6" ht="19.5" customHeight="1">
       <c r="A379" s="23"/>
       <c r="B379" s="23"/>
       <c r="C379" s="23"/>
@@ -12166,7 +12124,7 @@
       <c r="E379" s="23"/>
       <c r="F379" s="23"/>
     </row>
-    <row r="380" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:6" ht="19.5" customHeight="1">
       <c r="A380" s="23"/>
       <c r="B380" s="23"/>
       <c r="C380" s="23"/>
@@ -12174,7 +12132,7 @@
       <c r="E380" s="23"/>
       <c r="F380" s="23"/>
     </row>
-    <row r="381" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:6" ht="19.5" customHeight="1">
       <c r="A381" s="23"/>
       <c r="B381" s="23"/>
       <c r="C381" s="23"/>
@@ -12182,7 +12140,7 @@
       <c r="E381" s="23"/>
       <c r="F381" s="23"/>
     </row>
-    <row r="382" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:6" ht="19.5" customHeight="1">
       <c r="A382" s="23"/>
       <c r="B382" s="23"/>
       <c r="C382" s="23"/>
@@ -12190,7 +12148,7 @@
       <c r="E382" s="23"/>
       <c r="F382" s="23"/>
     </row>
-    <row r="383" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:6" ht="19.5" customHeight="1">
       <c r="A383" s="23"/>
       <c r="B383" s="23"/>
       <c r="C383" s="23"/>
@@ -12198,7 +12156,7 @@
       <c r="E383" s="23"/>
       <c r="F383" s="23"/>
     </row>
-    <row r="384" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:6" ht="19.5" customHeight="1">
       <c r="A384" s="23"/>
       <c r="B384" s="23"/>
       <c r="C384" s="23"/>
@@ -12206,7 +12164,7 @@
       <c r="E384" s="23"/>
       <c r="F384" s="23"/>
     </row>
-    <row r="385" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:6" ht="19.5" customHeight="1">
       <c r="A385" s="23"/>
       <c r="B385" s="23"/>
       <c r="C385" s="23"/>
@@ -12214,7 +12172,7 @@
       <c r="E385" s="23"/>
       <c r="F385" s="23"/>
     </row>
-    <row r="386" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="386" spans="1:6" ht="19.5" customHeight="1">
       <c r="A386" s="23"/>
       <c r="B386" s="23"/>
       <c r="C386" s="23"/>
@@ -12222,7 +12180,7 @@
       <c r="E386" s="23"/>
       <c r="F386" s="23"/>
     </row>
-    <row r="387" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="387" spans="1:6" ht="19.5" customHeight="1">
       <c r="A387" s="23"/>
       <c r="B387" s="23"/>
       <c r="C387" s="23"/>
@@ -12230,7 +12188,7 @@
       <c r="E387" s="23"/>
       <c r="F387" s="23"/>
     </row>
-    <row r="388" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="388" spans="1:6" ht="19.5" customHeight="1">
       <c r="A388" s="23"/>
       <c r="B388" s="23"/>
       <c r="C388" s="23"/>
@@ -12238,7 +12196,7 @@
       <c r="E388" s="23"/>
       <c r="F388" s="23"/>
     </row>
-    <row r="389" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="389" spans="1:6" ht="19.5" customHeight="1">
       <c r="A389" s="23"/>
       <c r="B389" s="23"/>
       <c r="C389" s="23"/>
@@ -12246,7 +12204,7 @@
       <c r="E389" s="23"/>
       <c r="F389" s="23"/>
     </row>
-    <row r="390" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="390" spans="1:6" ht="19.5" customHeight="1">
       <c r="A390" s="23"/>
       <c r="B390" s="23"/>
       <c r="C390" s="23"/>
@@ -12254,7 +12212,7 @@
       <c r="E390" s="23"/>
       <c r="F390" s="23"/>
     </row>
-    <row r="391" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="391" spans="1:6" ht="19.5" customHeight="1">
       <c r="A391" s="23"/>
       <c r="B391" s="23"/>
       <c r="C391" s="23"/>
@@ -12262,7 +12220,7 @@
       <c r="E391" s="23"/>
       <c r="F391" s="23"/>
     </row>
-    <row r="392" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="392" spans="1:6" ht="19.5" customHeight="1">
       <c r="A392" s="23"/>
       <c r="B392" s="23"/>
       <c r="C392" s="23"/>
@@ -12270,7 +12228,7 @@
       <c r="E392" s="23"/>
       <c r="F392" s="23"/>
     </row>
-    <row r="393" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="393" spans="1:6" ht="19.5" customHeight="1">
       <c r="A393" s="23"/>
       <c r="B393" s="23"/>
       <c r="C393" s="23"/>
@@ -12278,7 +12236,7 @@
       <c r="E393" s="23"/>
       <c r="F393" s="23"/>
     </row>
-    <row r="394" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="394" spans="1:6" ht="19.5" customHeight="1">
       <c r="A394" s="23"/>
       <c r="B394" s="23"/>
       <c r="C394" s="23"/>
@@ -12286,7 +12244,7 @@
       <c r="E394" s="23"/>
       <c r="F394" s="23"/>
     </row>
-    <row r="395" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="395" spans="1:6" ht="19.5" customHeight="1">
       <c r="A395" s="23"/>
       <c r="B395" s="23"/>
       <c r="C395" s="23"/>
@@ -12294,7 +12252,7 @@
       <c r="E395" s="23"/>
       <c r="F395" s="23"/>
     </row>
-    <row r="396" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="396" spans="1:6" ht="19.5" customHeight="1">
       <c r="A396" s="23"/>
       <c r="B396" s="23"/>
       <c r="C396" s="23"/>
@@ -12302,7 +12260,7 @@
       <c r="E396" s="23"/>
       <c r="F396" s="23"/>
     </row>
-    <row r="397" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="397" spans="1:6" ht="19.5" customHeight="1">
       <c r="A397" s="23"/>
       <c r="B397" s="23"/>
       <c r="C397" s="23"/>
@@ -12310,7 +12268,7 @@
       <c r="E397" s="23"/>
       <c r="F397" s="23"/>
     </row>
-    <row r="398" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="398" spans="1:6" ht="19.5" customHeight="1">
       <c r="A398" s="23"/>
       <c r="B398" s="23"/>
       <c r="C398" s="23"/>
@@ -12318,7 +12276,7 @@
       <c r="E398" s="23"/>
       <c r="F398" s="23"/>
     </row>
-    <row r="399" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="399" spans="1:6" ht="19.5" customHeight="1">
       <c r="A399" s="23"/>
       <c r="B399" s="23"/>
       <c r="C399" s="23"/>
@@ -12326,7 +12284,7 @@
       <c r="E399" s="23"/>
       <c r="F399" s="23"/>
     </row>
-    <row r="400" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="400" spans="1:6" ht="19.5" customHeight="1">
       <c r="A400" s="23"/>
       <c r="B400" s="23"/>
       <c r="C400" s="23"/>
@@ -12334,7 +12292,7 @@
       <c r="E400" s="23"/>
       <c r="F400" s="23"/>
     </row>
-    <row r="401" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="401" spans="1:6" ht="19.5" customHeight="1">
       <c r="A401" s="23"/>
       <c r="B401" s="23"/>
       <c r="C401" s="23"/>
@@ -12342,7 +12300,7 @@
       <c r="E401" s="23"/>
       <c r="F401" s="23"/>
     </row>
-    <row r="402" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="402" spans="1:6" ht="19.5" customHeight="1">
       <c r="A402" s="23"/>
       <c r="B402" s="23"/>
       <c r="C402" s="23"/>
@@ -12350,7 +12308,7 @@
       <c r="E402" s="23"/>
       <c r="F402" s="23"/>
     </row>
-    <row r="403" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="403" spans="1:6" ht="19.5" customHeight="1">
       <c r="A403" s="23"/>
       <c r="B403" s="23"/>
       <c r="C403" s="23"/>
@@ -12358,7 +12316,7 @@
       <c r="E403" s="23"/>
       <c r="F403" s="23"/>
     </row>
-    <row r="404" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="404" spans="1:6" ht="19.5" customHeight="1">
       <c r="A404" s="23"/>
       <c r="B404" s="23"/>
       <c r="C404" s="23"/>
@@ -12366,7 +12324,7 @@
       <c r="E404" s="23"/>
       <c r="F404" s="23"/>
     </row>
-    <row r="405" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="405" spans="1:6" ht="19.5" customHeight="1">
       <c r="A405" s="23"/>
       <c r="B405" s="23"/>
       <c r="C405" s="23"/>
@@ -12374,7 +12332,7 @@
       <c r="E405" s="23"/>
       <c r="F405" s="23"/>
     </row>
-    <row r="406" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="406" spans="1:6" ht="19.5" customHeight="1">
       <c r="A406" s="23"/>
       <c r="B406" s="23"/>
       <c r="C406" s="23"/>
@@ -12382,7 +12340,7 @@
       <c r="E406" s="23"/>
       <c r="F406" s="23"/>
     </row>
-    <row r="407" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="407" spans="1:6" ht="19.5" customHeight="1">
       <c r="A407" s="23"/>
       <c r="B407" s="23"/>
       <c r="C407" s="23"/>
@@ -12390,7 +12348,7 @@
       <c r="E407" s="23"/>
       <c r="F407" s="23"/>
     </row>
-    <row r="408" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="408" spans="1:6" ht="19.5" customHeight="1">
       <c r="A408" s="23"/>
       <c r="B408" s="23"/>
       <c r="C408" s="23"/>
@@ -12398,7 +12356,7 @@
       <c r="E408" s="23"/>
       <c r="F408" s="23"/>
     </row>
-    <row r="409" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="409" spans="1:6" ht="19.5" customHeight="1">
       <c r="A409" s="23"/>
       <c r="B409" s="23"/>
       <c r="C409" s="23"/>
@@ -12406,7 +12364,7 @@
       <c r="E409" s="23"/>
       <c r="F409" s="23"/>
     </row>
-    <row r="410" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="410" spans="1:6" ht="19.5" customHeight="1">
       <c r="A410" s="23"/>
       <c r="B410" s="23"/>
       <c r="C410" s="23"/>
@@ -12414,7 +12372,7 @@
       <c r="E410" s="23"/>
       <c r="F410" s="23"/>
     </row>
-    <row r="411" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="411" spans="1:6" ht="19.5" customHeight="1">
       <c r="A411" s="23"/>
       <c r="B411" s="23"/>
       <c r="C411" s="23"/>
@@ -12422,7 +12380,7 @@
       <c r="E411" s="23"/>
       <c r="F411" s="23"/>
     </row>
-    <row r="412" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="412" spans="1:6" ht="19.5" customHeight="1">
       <c r="A412" s="23"/>
       <c r="B412" s="23"/>
       <c r="C412" s="23"/>
@@ -12430,7 +12388,7 @@
       <c r="E412" s="23"/>
       <c r="F412" s="23"/>
     </row>
-    <row r="413" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="413" spans="1:6" ht="19.5" customHeight="1">
       <c r="A413" s="23"/>
       <c r="B413" s="23"/>
       <c r="C413" s="23"/>
@@ -12438,7 +12396,7 @@
       <c r="E413" s="23"/>
       <c r="F413" s="23"/>
     </row>
-    <row r="414" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="414" spans="1:6" ht="19.5" customHeight="1">
       <c r="A414" s="23"/>
       <c r="B414" s="23"/>
       <c r="C414" s="23"/>
@@ -12446,7 +12404,7 @@
       <c r="E414" s="23"/>
       <c r="F414" s="23"/>
     </row>
-    <row r="415" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="415" spans="1:6" ht="19.5" customHeight="1">
       <c r="A415" s="23"/>
       <c r="B415" s="23"/>
       <c r="C415" s="23"/>
@@ -12454,7 +12412,7 @@
       <c r="E415" s="23"/>
       <c r="F415" s="23"/>
     </row>
-    <row r="416" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="416" spans="1:6" ht="19.5" customHeight="1">
       <c r="A416" s="23"/>
       <c r="B416" s="23"/>
       <c r="C416" s="23"/>
@@ -12462,7 +12420,7 @@
       <c r="E416" s="23"/>
       <c r="F416" s="23"/>
     </row>
-    <row r="417" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="417" spans="1:6" ht="19.5" customHeight="1">
       <c r="A417" s="23"/>
       <c r="B417" s="23"/>
       <c r="C417" s="23"/>
@@ -12470,7 +12428,7 @@
       <c r="E417" s="23"/>
       <c r="F417" s="23"/>
     </row>
-    <row r="418" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="418" spans="1:6" ht="19.5" customHeight="1">
       <c r="A418" s="23"/>
       <c r="B418" s="23"/>
       <c r="C418" s="23"/>
@@ -12478,7 +12436,7 @@
       <c r="E418" s="23"/>
       <c r="F418" s="23"/>
     </row>
-    <row r="419" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="419" spans="1:6" ht="19.5" customHeight="1">
       <c r="A419" s="23"/>
       <c r="B419" s="23"/>
       <c r="C419" s="23"/>
@@ -12486,7 +12444,7 @@
       <c r="E419" s="23"/>
       <c r="F419" s="23"/>
     </row>
-    <row r="420" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="420" spans="1:6" ht="19.5" customHeight="1">
       <c r="A420" s="23"/>
       <c r="B420" s="23"/>
       <c r="C420" s="23"/>
@@ -12494,7 +12452,7 @@
       <c r="E420" s="23"/>
       <c r="F420" s="23"/>
     </row>
-    <row r="421" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="421" spans="1:6" ht="19.5" customHeight="1">
       <c r="A421" s="23"/>
       <c r="B421" s="23"/>
       <c r="C421" s="23"/>
@@ -12502,7 +12460,7 @@
       <c r="E421" s="23"/>
       <c r="F421" s="23"/>
     </row>
-    <row r="422" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="422" spans="1:6" ht="19.5" customHeight="1">
       <c r="A422" s="23"/>
       <c r="B422" s="23"/>
       <c r="C422" s="23"/>
@@ -12510,7 +12468,7 @@
       <c r="E422" s="23"/>
       <c r="F422" s="23"/>
     </row>
-    <row r="423" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="423" spans="1:6" ht="19.5" customHeight="1">
       <c r="A423" s="23"/>
       <c r="B423" s="23"/>
       <c r="C423" s="23"/>
@@ -12518,7 +12476,7 @@
       <c r="E423" s="23"/>
       <c r="F423" s="23"/>
     </row>
-    <row r="424" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="424" spans="1:6" ht="19.5" customHeight="1">
       <c r="A424" s="23"/>
       <c r="B424" s="23"/>
       <c r="C424" s="23"/>
@@ -12526,7 +12484,7 @@
       <c r="E424" s="23"/>
       <c r="F424" s="23"/>
     </row>
-    <row r="425" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="425" spans="1:6" ht="19.5" customHeight="1">
       <c r="A425" s="23"/>
       <c r="B425" s="23"/>
       <c r="C425" s="23"/>
@@ -12534,7 +12492,7 @@
       <c r="E425" s="23"/>
       <c r="F425" s="23"/>
     </row>
-    <row r="426" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="426" spans="1:6" ht="19.5" customHeight="1">
       <c r="A426" s="23"/>
       <c r="B426" s="23"/>
       <c r="C426" s="23"/>
@@ -12542,7 +12500,7 @@
       <c r="E426" s="23"/>
       <c r="F426" s="23"/>
     </row>
-    <row r="427" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="427" spans="1:6" ht="19.5" customHeight="1">
       <c r="A427" s="23"/>
       <c r="B427" s="23"/>
       <c r="C427" s="23"/>
@@ -12550,7 +12508,7 @@
       <c r="E427" s="23"/>
       <c r="F427" s="23"/>
     </row>
-    <row r="428" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="428" spans="1:6" ht="19.5" customHeight="1">
       <c r="A428" s="23"/>
       <c r="B428" s="23"/>
       <c r="C428" s="23"/>
@@ -12558,7 +12516,7 @@
       <c r="E428" s="23"/>
       <c r="F428" s="23"/>
     </row>
-    <row r="429" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="429" spans="1:6" ht="19.5" customHeight="1">
       <c r="A429" s="23"/>
       <c r="B429" s="23"/>
       <c r="C429" s="23"/>
@@ -12566,7 +12524,7 @@
       <c r="E429" s="23"/>
       <c r="F429" s="23"/>
     </row>
-    <row r="430" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="430" spans="1:6" ht="19.5" customHeight="1">
       <c r="A430" s="23"/>
       <c r="B430" s="23"/>
       <c r="C430" s="23"/>
@@ -12574,7 +12532,7 @@
       <c r="E430" s="23"/>
       <c r="F430" s="23"/>
     </row>
-    <row r="431" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="431" spans="1:6" ht="19.5" customHeight="1">
       <c r="A431" s="23"/>
       <c r="B431" s="23"/>
       <c r="C431" s="23"/>
@@ -12582,7 +12540,7 @@
       <c r="E431" s="23"/>
       <c r="F431" s="23"/>
     </row>
-    <row r="432" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="432" spans="1:6" ht="19.5" customHeight="1">
       <c r="A432" s="23"/>
       <c r="B432" s="23"/>
       <c r="C432" s="23"/>
@@ -12590,7 +12548,7 @@
       <c r="E432" s="23"/>
       <c r="F432" s="23"/>
     </row>
-    <row r="433" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="433" spans="1:6" ht="19.5" customHeight="1">
       <c r="A433" s="23"/>
       <c r="B433" s="23"/>
       <c r="C433" s="23"/>
@@ -12598,7 +12556,7 @@
       <c r="E433" s="23"/>
       <c r="F433" s="23"/>
     </row>
-    <row r="434" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="434" spans="1:6" ht="19.5" customHeight="1">
       <c r="A434" s="23"/>
       <c r="B434" s="23"/>
       <c r="C434" s="23"/>
@@ -12606,7 +12564,7 @@
       <c r="E434" s="23"/>
       <c r="F434" s="23"/>
     </row>
-    <row r="435" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="435" spans="1:6" ht="19.5" customHeight="1">
       <c r="A435" s="23"/>
       <c r="B435" s="23"/>
       <c r="C435" s="23"/>
@@ -12614,7 +12572,7 @@
       <c r="E435" s="23"/>
       <c r="F435" s="23"/>
     </row>
-    <row r="436" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="436" spans="1:6" ht="19.5" customHeight="1">
       <c r="A436" s="23"/>
       <c r="B436" s="23"/>
       <c r="C436" s="23"/>
@@ -12622,7 +12580,7 @@
       <c r="E436" s="23"/>
       <c r="F436" s="23"/>
     </row>
-    <row r="437" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="437" spans="1:6" ht="19.5" customHeight="1">
       <c r="A437" s="23"/>
       <c r="B437" s="23"/>
       <c r="C437" s="23"/>
@@ -12630,7 +12588,7 @@
       <c r="E437" s="23"/>
       <c r="F437" s="23"/>
     </row>
-    <row r="438" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="438" spans="1:6" ht="19.5" customHeight="1">
       <c r="A438" s="23"/>
       <c r="B438" s="23"/>
       <c r="C438" s="23"/>
@@ -12638,7 +12596,7 @@
       <c r="E438" s="23"/>
       <c r="F438" s="23"/>
     </row>
-    <row r="439" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="439" spans="1:6" ht="19.5" customHeight="1">
       <c r="A439" s="23"/>
       <c r="B439" s="23"/>
       <c r="C439" s="23"/>
@@ -12646,7 +12604,7 @@
       <c r="E439" s="23"/>
       <c r="F439" s="23"/>
     </row>
-    <row r="440" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="440" spans="1:6" ht="19.5" customHeight="1">
       <c r="A440" s="23"/>
       <c r="B440" s="23"/>
       <c r="C440" s="23"/>
@@ -12654,7 +12612,7 @@
       <c r="E440" s="23"/>
       <c r="F440" s="23"/>
     </row>
-    <row r="441" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="441" spans="1:6" ht="19.5" customHeight="1">
       <c r="A441" s="23"/>
       <c r="B441" s="23"/>
       <c r="C441" s="23"/>
@@ -12662,7 +12620,7 @@
       <c r="E441" s="23"/>
       <c r="F441" s="23"/>
     </row>
-    <row r="442" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="442" spans="1:6" ht="19.5" customHeight="1">
       <c r="A442" s="23"/>
       <c r="B442" s="23"/>
       <c r="C442" s="23"/>
@@ -12670,7 +12628,7 @@
       <c r="E442" s="23"/>
       <c r="F442" s="23"/>
     </row>
-    <row r="443" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="443" spans="1:6" ht="19.5" customHeight="1">
       <c r="A443" s="23"/>
       <c r="B443" s="23"/>
       <c r="C443" s="23"/>
@@ -12678,7 +12636,7 @@
       <c r="E443" s="23"/>
       <c r="F443" s="23"/>
     </row>
-    <row r="444" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="444" spans="1:6" ht="19.5" customHeight="1">
       <c r="A444" s="23"/>
       <c r="B444" s="23"/>
       <c r="C444" s="23"/>
@@ -12686,7 +12644,7 @@
       <c r="E444" s="23"/>
       <c r="F444" s="23"/>
     </row>
-    <row r="445" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="445" spans="1:6" ht="19.5" customHeight="1">
       <c r="A445" s="23"/>
       <c r="B445" s="23"/>
       <c r="C445" s="23"/>
@@ -12694,7 +12652,7 @@
       <c r="E445" s="23"/>
       <c r="F445" s="23"/>
     </row>
-    <row r="446" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="446" spans="1:6" ht="19.5" customHeight="1">
       <c r="A446" s="23"/>
       <c r="B446" s="23"/>
       <c r="C446" s="23"/>
@@ -12702,7 +12660,7 @@
       <c r="E446" s="23"/>
       <c r="F446" s="23"/>
     </row>
-    <row r="447" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="447" spans="1:6" ht="19.5" customHeight="1">
       <c r="A447" s="23"/>
       <c r="B447" s="23"/>
       <c r="C447" s="23"/>
@@ -12710,7 +12668,7 @@
       <c r="E447" s="23"/>
       <c r="F447" s="23"/>
     </row>
-    <row r="448" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="448" spans="1:6" ht="19.5" customHeight="1">
       <c r="A448" s="23"/>
       <c r="B448" s="23"/>
       <c r="C448" s="23"/>
@@ -12718,7 +12676,7 @@
       <c r="E448" s="23"/>
       <c r="F448" s="23"/>
     </row>
-    <row r="449" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="449" spans="1:6" ht="19.5" customHeight="1">
       <c r="A449" s="23"/>
       <c r="B449" s="23"/>
       <c r="C449" s="23"/>
@@ -12726,7 +12684,7 @@
       <c r="E449" s="23"/>
       <c r="F449" s="23"/>
     </row>
-    <row r="450" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="450" spans="1:6" ht="19.5" customHeight="1">
       <c r="A450" s="23"/>
       <c r="B450" s="23"/>
       <c r="C450" s="23"/>
@@ -12734,7 +12692,7 @@
       <c r="E450" s="23"/>
       <c r="F450" s="23"/>
     </row>
-    <row r="451" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="451" spans="1:6" ht="19.5" customHeight="1">
       <c r="A451" s="23"/>
       <c r="B451" s="23"/>
       <c r="C451" s="23"/>
@@ -12742,7 +12700,7 @@
       <c r="E451" s="23"/>
       <c r="F451" s="23"/>
     </row>
-    <row r="452" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="452" spans="1:6" ht="19.5" customHeight="1">
       <c r="A452" s="23"/>
       <c r="B452" s="23"/>
       <c r="C452" s="23"/>
@@ -12750,7 +12708,7 @@
       <c r="E452" s="23"/>
       <c r="F452" s="23"/>
     </row>
-    <row r="453" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="453" spans="1:6" ht="19.5" customHeight="1">
       <c r="A453" s="23"/>
       <c r="B453" s="23"/>
       <c r="C453" s="23"/>
@@ -12758,7 +12716,7 @@
       <c r="E453" s="23"/>
       <c r="F453" s="23"/>
     </row>
-    <row r="454" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="454" spans="1:6" ht="19.5" customHeight="1">
       <c r="A454" s="23"/>
       <c r="B454" s="23"/>
       <c r="C454" s="23"/>
@@ -12766,7 +12724,7 @@
       <c r="E454" s="23"/>
       <c r="F454" s="23"/>
     </row>
-    <row r="455" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="455" spans="1:6" ht="19.5" customHeight="1">
       <c r="A455" s="23"/>
       <c r="B455" s="23"/>
       <c r="C455" s="23"/>
@@ -12774,7 +12732,7 @@
       <c r="E455" s="23"/>
       <c r="F455" s="23"/>
     </row>
-    <row r="456" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="456" spans="1:6" ht="19.5" customHeight="1">
       <c r="A456" s="23"/>
       <c r="B456" s="23"/>
       <c r="C456" s="23"/>
@@ -12782,7 +12740,7 @@
       <c r="E456" s="23"/>
       <c r="F456" s="23"/>
     </row>
-    <row r="457" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="457" spans="1:6" ht="19.5" customHeight="1">
       <c r="A457" s="23"/>
       <c r="B457" s="23"/>
       <c r="C457" s="23"/>
@@ -12790,7 +12748,7 @@
       <c r="E457" s="23"/>
       <c r="F457" s="23"/>
     </row>
-    <row r="458" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="458" spans="1:6" ht="19.5" customHeight="1">
       <c r="A458" s="23"/>
       <c r="B458" s="23"/>
       <c r="C458" s="23"/>
@@ -12798,7 +12756,7 @@
       <c r="E458" s="23"/>
       <c r="F458" s="23"/>
     </row>
-    <row r="459" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="459" spans="1:6" ht="19.5" customHeight="1">
       <c r="A459" s="23"/>
       <c r="B459" s="23"/>
       <c r="C459" s="23"/>
@@ -12806,7 +12764,7 @@
       <c r="E459" s="23"/>
       <c r="F459" s="23"/>
     </row>
-    <row r="460" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="460" spans="1:6" ht="19.5" customHeight="1">
       <c r="A460" s="23"/>
       <c r="B460" s="23"/>
       <c r="C460" s="23"/>
@@ -12814,7 +12772,7 @@
       <c r="E460" s="23"/>
       <c r="F460" s="23"/>
     </row>
-    <row r="461" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="461" spans="1:6" ht="19.5" customHeight="1">
       <c r="A461" s="23"/>
       <c r="B461" s="23"/>
       <c r="C461" s="23"/>
@@ -12822,7 +12780,7 @@
       <c r="E461" s="23"/>
       <c r="F461" s="23"/>
     </row>
-    <row r="462" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="462" spans="1:6" ht="19.5" customHeight="1">
       <c r="A462" s="23"/>
       <c r="B462" s="23"/>
       <c r="C462" s="23"/>
@@ -12830,7 +12788,7 @@
       <c r="E462" s="23"/>
       <c r="F462" s="23"/>
     </row>
-    <row r="463" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="463" spans="1:6" ht="19.5" customHeight="1">
       <c r="A463" s="23"/>
       <c r="B463" s="23"/>
       <c r="C463" s="23"/>
@@ -12838,7 +12796,7 @@
       <c r="E463" s="23"/>
       <c r="F463" s="23"/>
     </row>
-    <row r="464" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="464" spans="1:6" ht="19.5" customHeight="1">
       <c r="A464" s="23"/>
       <c r="B464" s="23"/>
       <c r="C464" s="23"/>
@@ -12846,7 +12804,7 @@
       <c r="E464" s="23"/>
       <c r="F464" s="23"/>
     </row>
-    <row r="465" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="465" spans="1:6" ht="19.5" customHeight="1">
       <c r="A465" s="23"/>
       <c r="B465" s="23"/>
       <c r="C465" s="23"/>
@@ -12854,7 +12812,7 @@
       <c r="E465" s="23"/>
       <c r="F465" s="23"/>
     </row>
-    <row r="466" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="466" spans="1:6" ht="19.5" customHeight="1">
       <c r="A466" s="23"/>
       <c r="B466" s="23"/>
       <c r="C466" s="23"/>
@@ -12862,7 +12820,7 @@
       <c r="E466" s="23"/>
       <c r="F466" s="23"/>
     </row>
-    <row r="467" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="467" spans="1:6" ht="19.5" customHeight="1">
       <c r="A467" s="23"/>
       <c r="B467" s="23"/>
       <c r="C467" s="23"/>
@@ -12870,7 +12828,7 @@
       <c r="E467" s="23"/>
       <c r="F467" s="23"/>
     </row>
-    <row r="468" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="468" spans="1:6" ht="19.5" customHeight="1">
       <c r="A468" s="23"/>
       <c r="B468" s="23"/>
       <c r="C468" s="23"/>
@@ -12878,7 +12836,7 @@
       <c r="E468" s="23"/>
       <c r="F468" s="23"/>
     </row>
-    <row r="469" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="469" spans="1:6" ht="19.5" customHeight="1">
       <c r="A469" s="23"/>
       <c r="B469" s="23"/>
       <c r="C469" s="23"/>
@@ -12886,7 +12844,7 @@
       <c r="E469" s="23"/>
       <c r="F469" s="23"/>
     </row>
-    <row r="470" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="470" spans="1:6" ht="19.5" customHeight="1">
       <c r="A470" s="23"/>
       <c r="B470" s="23"/>
       <c r="C470" s="23"/>
@@ -12894,7 +12852,7 @@
       <c r="E470" s="23"/>
       <c r="F470" s="23"/>
     </row>
-    <row r="471" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="471" spans="1:6" ht="19.5" customHeight="1">
       <c r="A471" s="23"/>
       <c r="B471" s="23"/>
       <c r="C471" s="23"/>
@@ -12902,7 +12860,7 @@
       <c r="E471" s="23"/>
       <c r="F471" s="23"/>
     </row>
-    <row r="472" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="472" spans="1:6" ht="19.5" customHeight="1">
       <c r="A472" s="23"/>
       <c r="B472" s="23"/>
       <c r="C472" s="23"/>
@@ -12910,7 +12868,7 @@
       <c r="E472" s="23"/>
       <c r="F472" s="23"/>
     </row>
-    <row r="473" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="473" spans="1:6" ht="19.5" customHeight="1">
       <c r="A473" s="23"/>
       <c r="B473" s="23"/>
       <c r="C473" s="23"/>
@@ -12918,7 +12876,7 @@
       <c r="E473" s="23"/>
       <c r="F473" s="23"/>
     </row>
-    <row r="474" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="474" spans="1:6" ht="19.5" customHeight="1">
       <c r="A474" s="23"/>
       <c r="B474" s="23"/>
       <c r="C474" s="23"/>
@@ -12926,7 +12884,7 @@
       <c r="E474" s="23"/>
       <c r="F474" s="23"/>
     </row>
-    <row r="475" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="475" spans="1:6" ht="19.5" customHeight="1">
       <c r="A475" s="23"/>
       <c r="B475" s="23"/>
       <c r="C475" s="23"/>
@@ -12934,7 +12892,7 @@
       <c r="E475" s="23"/>
       <c r="F475" s="23"/>
     </row>
-    <row r="476" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="476" spans="1:6" ht="19.5" customHeight="1">
       <c r="A476" s="23"/>
       <c r="B476" s="23"/>
       <c r="C476" s="23"/>
@@ -12942,7 +12900,7 @@
       <c r="E476" s="23"/>
       <c r="F476" s="23"/>
     </row>
-    <row r="477" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="477" spans="1:6" ht="19.5" customHeight="1">
       <c r="A477" s="23"/>
       <c r="B477" s="23"/>
       <c r="C477" s="23"/>
@@ -12950,7 +12908,7 @@
       <c r="E477" s="23"/>
       <c r="F477" s="23"/>
     </row>
-    <row r="478" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="478" spans="1:6" ht="19.5" customHeight="1">
       <c r="A478" s="23"/>
       <c r="B478" s="23"/>
       <c r="C478" s="23"/>
@@ -12958,7 +12916,7 @@
       <c r="E478" s="23"/>
       <c r="F478" s="23"/>
     </row>
-    <row r="479" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="479" spans="1:6" ht="19.5" customHeight="1">
       <c r="A479" s="23"/>
       <c r="B479" s="23"/>
       <c r="C479" s="23"/>
@@ -12966,7 +12924,7 @@
       <c r="E479" s="23"/>
       <c r="F479" s="23"/>
     </row>
-    <row r="480" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="480" spans="1:6" ht="19.5" customHeight="1">
       <c r="A480" s="23"/>
       <c r="B480" s="23"/>
       <c r="C480" s="23"/>
@@ -12974,7 +12932,7 @@
       <c r="E480" s="23"/>
       <c r="F480" s="23"/>
     </row>
-    <row r="481" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="481" spans="1:6" ht="19.5" customHeight="1">
       <c r="A481" s="23"/>
       <c r="B481" s="23"/>
       <c r="C481" s="23"/>
@@ -12982,7 +12940,7 @@
       <c r="E481" s="23"/>
       <c r="F481" s="23"/>
     </row>
-    <row r="482" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="482" spans="1:6" ht="19.5" customHeight="1">
       <c r="A482" s="23"/>
       <c r="B482" s="23"/>
       <c r="C482" s="23"/>
@@ -12990,7 +12948,7 @@
       <c r="E482" s="23"/>
       <c r="F482" s="23"/>
     </row>
-    <row r="483" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="483" spans="1:6" ht="19.5" customHeight="1">
       <c r="A483" s="23"/>
       <c r="B483" s="23"/>
       <c r="C483" s="23"/>
@@ -12998,7 +12956,7 @@
       <c r="E483" s="23"/>
       <c r="F483" s="23"/>
     </row>
-    <row r="484" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="484" spans="1:6" ht="19.5" customHeight="1">
       <c r="A484" s="23"/>
       <c r="B484" s="23"/>
       <c r="C484" s="23"/>
@@ -13006,7 +12964,7 @@
       <c r="E484" s="23"/>
       <c r="F484" s="23"/>
     </row>
-    <row r="485" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="485" spans="1:6" ht="19.5" customHeight="1">
       <c r="A485" s="23"/>
       <c r="B485" s="23"/>
       <c r="C485" s="23"/>
@@ -13014,7 +12972,7 @@
       <c r="E485" s="23"/>
       <c r="F485" s="23"/>
     </row>
-    <row r="486" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="486" spans="1:6" ht="19.5" customHeight="1">
       <c r="A486" s="23"/>
       <c r="B486" s="23"/>
       <c r="C486" s="23"/>
@@ -13022,7 +12980,7 @@
       <c r="E486" s="23"/>
       <c r="F486" s="23"/>
     </row>
-    <row r="487" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="487" spans="1:6" ht="19.5" customHeight="1">
       <c r="A487" s="23"/>
       <c r="B487" s="23"/>
       <c r="C487" s="23"/>
@@ -13030,7 +12988,7 @@
       <c r="E487" s="23"/>
       <c r="F487" s="23"/>
     </row>
-    <row r="488" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="488" spans="1:6" ht="19.5" customHeight="1">
       <c r="A488" s="23"/>
       <c r="B488" s="23"/>
       <c r="C488" s="23"/>
@@ -13038,7 +12996,7 @@
       <c r="E488" s="23"/>
       <c r="F488" s="23"/>
     </row>
-    <row r="489" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="489" spans="1:6" ht="19.5" customHeight="1">
       <c r="A489" s="23"/>
       <c r="B489" s="23"/>
       <c r="C489" s="23"/>
@@ -13046,7 +13004,7 @@
       <c r="E489" s="23"/>
       <c r="F489" s="23"/>
     </row>
-    <row r="490" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="490" spans="1:6" ht="19.5" customHeight="1">
       <c r="A490" s="23"/>
       <c r="B490" s="23"/>
       <c r="C490" s="23"/>
@@ -13054,7 +13012,7 @@
       <c r="E490" s="23"/>
       <c r="F490" s="23"/>
     </row>
-    <row r="491" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="491" spans="1:6" ht="19.5" customHeight="1">
       <c r="A491" s="23"/>
       <c r="B491" s="23"/>
       <c r="C491" s="23"/>
@@ -13062,7 +13020,7 @@
       <c r="E491" s="23"/>
       <c r="F491" s="23"/>
     </row>
-    <row r="492" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="492" spans="1:6" ht="19.5" customHeight="1">
       <c r="A492" s="23"/>
       <c r="B492" s="23"/>
       <c r="C492" s="23"/>
@@ -13070,7 +13028,7 @@
       <c r="E492" s="23"/>
       <c r="F492" s="23"/>
     </row>
-    <row r="493" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="493" spans="1:6" ht="19.5" customHeight="1">
       <c r="A493" s="23"/>
       <c r="B493" s="23"/>
       <c r="C493" s="23"/>
@@ -13078,7 +13036,7 @@
       <c r="E493" s="23"/>
       <c r="F493" s="23"/>
     </row>
-    <row r="494" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="494" spans="1:6" ht="19.5" customHeight="1">
       <c r="A494" s="23"/>
       <c r="B494" s="23"/>
       <c r="C494" s="23"/>
@@ -13086,7 +13044,7 @@
       <c r="E494" s="23"/>
       <c r="F494" s="23"/>
     </row>
-    <row r="495" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="495" spans="1:6" ht="19.5" customHeight="1">
       <c r="A495" s="23"/>
       <c r="B495" s="23"/>
       <c r="C495" s="23"/>
@@ -13094,7 +13052,7 @@
       <c r="E495" s="23"/>
       <c r="F495" s="23"/>
     </row>
-    <row r="496" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="496" spans="1:6" ht="19.5" customHeight="1">
       <c r="A496" s="23"/>
       <c r="B496" s="23"/>
       <c r="C496" s="23"/>
@@ -13102,7 +13060,7 @@
       <c r="E496" s="23"/>
       <c r="F496" s="23"/>
     </row>
-    <row r="497" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="497" spans="1:6" ht="19.5" customHeight="1">
       <c r="A497" s="23"/>
       <c r="B497" s="23"/>
       <c r="C497" s="23"/>
@@ -13110,7 +13068,7 @@
       <c r="E497" s="23"/>
       <c r="F497" s="23"/>
     </row>
-    <row r="498" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="498" spans="1:6" ht="19.5" customHeight="1">
       <c r="A498" s="23"/>
       <c r="B498" s="23"/>
       <c r="C498" s="23"/>
@@ -13118,7 +13076,7 @@
       <c r="E498" s="23"/>
       <c r="F498" s="23"/>
     </row>
-    <row r="499" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="499" spans="1:6" ht="19.5" customHeight="1">
       <c r="A499" s="23"/>
       <c r="B499" s="23"/>
       <c r="C499" s="23"/>
@@ -13126,7 +13084,7 @@
       <c r="E499" s="23"/>
       <c r="F499" s="23"/>
     </row>
-    <row r="500" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="500" spans="1:6" ht="19.5" customHeight="1">
       <c r="A500" s="23"/>
       <c r="B500" s="23"/>
       <c r="C500" s="23"/>
@@ -13134,7 +13092,7 @@
       <c r="E500" s="23"/>
       <c r="F500" s="23"/>
     </row>
-    <row r="501" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="501" spans="1:6" ht="19.5" customHeight="1">
       <c r="A501" s="23"/>
       <c r="B501" s="23"/>
       <c r="C501" s="23"/>
@@ -13142,7 +13100,7 @@
       <c r="E501" s="23"/>
       <c r="F501" s="23"/>
     </row>
-    <row r="502" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="502" spans="1:6" ht="19.5" customHeight="1">
       <c r="A502" s="23"/>
       <c r="B502" s="23"/>
       <c r="C502" s="23"/>
@@ -13150,7 +13108,7 @@
       <c r="E502" s="23"/>
       <c r="F502" s="23"/>
     </row>
-    <row r="503" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="503" spans="1:6" ht="19.5" customHeight="1">
       <c r="A503" s="23"/>
       <c r="B503" s="23"/>
       <c r="C503" s="23"/>
@@ -13158,7 +13116,7 @@
       <c r="E503" s="23"/>
       <c r="F503" s="23"/>
     </row>
-    <row r="504" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="504" spans="1:6" ht="19.5" customHeight="1">
       <c r="A504" s="23"/>
       <c r="B504" s="23"/>
       <c r="C504" s="23"/>
@@ -13166,7 +13124,7 @@
       <c r="E504" s="23"/>
       <c r="F504" s="23"/>
     </row>
-    <row r="505" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="505" spans="1:6" ht="19.5" customHeight="1">
       <c r="A505" s="23"/>
       <c r="B505" s="23"/>
       <c r="C505" s="23"/>
@@ -13174,7 +13132,7 @@
       <c r="E505" s="23"/>
       <c r="F505" s="23"/>
     </row>
-    <row r="506" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="506" spans="1:6" ht="19.5" customHeight="1">
       <c r="A506" s="23"/>
       <c r="B506" s="23"/>
       <c r="C506" s="23"/>
@@ -13182,7 +13140,7 @@
       <c r="E506" s="23"/>
       <c r="F506" s="23"/>
     </row>
-    <row r="507" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="507" spans="1:6" ht="19.5" customHeight="1">
       <c r="A507" s="23"/>
       <c r="B507" s="23"/>
       <c r="C507" s="23"/>
@@ -13190,7 +13148,7 @@
       <c r="E507" s="23"/>
       <c r="F507" s="23"/>
     </row>
-    <row r="508" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="508" spans="1:6" ht="19.5" customHeight="1">
       <c r="A508" s="23"/>
       <c r="B508" s="23"/>
       <c r="C508" s="23"/>
@@ -13198,7 +13156,7 @@
       <c r="E508" s="23"/>
       <c r="F508" s="23"/>
     </row>
-    <row r="509" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="509" spans="1:6" ht="19.5" customHeight="1">
       <c r="A509" s="23"/>
       <c r="B509" s="23"/>
       <c r="C509" s="23"/>
@@ -13206,7 +13164,7 @@
       <c r="E509" s="23"/>
       <c r="F509" s="23"/>
     </row>
-    <row r="510" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="510" spans="1:6" ht="19.5" customHeight="1">
       <c r="A510" s="23"/>
       <c r="B510" s="23"/>
       <c r="C510" s="23"/>
@@ -13214,7 +13172,7 @@
       <c r="E510" s="23"/>
       <c r="F510" s="23"/>
     </row>
-    <row r="511" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="511" spans="1:6" ht="19.5" customHeight="1">
       <c r="A511" s="23"/>
       <c r="B511" s="23"/>
       <c r="C511" s="23"/>
@@ -13222,7 +13180,7 @@
       <c r="E511" s="23"/>
       <c r="F511" s="23"/>
     </row>
-    <row r="512" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="512" spans="1:6" ht="19.5" customHeight="1">
       <c r="A512" s="23"/>
       <c r="B512" s="23"/>
       <c r="C512" s="23"/>
@@ -13230,7 +13188,7 @@
       <c r="E512" s="23"/>
       <c r="F512" s="23"/>
     </row>
-    <row r="513" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="513" spans="1:6" ht="19.5" customHeight="1">
       <c r="A513" s="23"/>
       <c r="B513" s="23"/>
       <c r="C513" s="23"/>
@@ -13238,7 +13196,7 @@
       <c r="E513" s="23"/>
       <c r="F513" s="23"/>
     </row>
-    <row r="514" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="514" spans="1:6" ht="19.5" customHeight="1">
       <c r="A514" s="23"/>
       <c r="B514" s="23"/>
       <c r="C514" s="23"/>
@@ -13246,7 +13204,7 @@
       <c r="E514" s="23"/>
       <c r="F514" s="23"/>
     </row>
-    <row r="515" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="515" spans="1:6" ht="19.5" customHeight="1">
       <c r="A515" s="23"/>
       <c r="B515" s="23"/>
       <c r="C515" s="23"/>
@@ -13254,7 +13212,7 @@
       <c r="E515" s="23"/>
       <c r="F515" s="23"/>
     </row>
-    <row r="516" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="516" spans="1:6" ht="19.5" customHeight="1">
       <c r="A516" s="23"/>
       <c r="B516" s="23"/>
       <c r="C516" s="23"/>
@@ -13262,7 +13220,7 @@
       <c r="E516" s="23"/>
       <c r="F516" s="23"/>
     </row>
-    <row r="517" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="517" spans="1:6" ht="19.5" customHeight="1">
       <c r="A517" s="23"/>
       <c r="B517" s="23"/>
       <c r="C517" s="23"/>
@@ -13270,7 +13228,7 @@
       <c r="E517" s="23"/>
       <c r="F517" s="23"/>
     </row>
-    <row r="518" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="518" spans="1:6" ht="19.5" customHeight="1">
       <c r="A518" s="23"/>
       <c r="B518" s="23"/>
       <c r="C518" s="23"/>
@@ -13278,7 +13236,7 @@
       <c r="E518" s="23"/>
       <c r="F518" s="23"/>
     </row>
-    <row r="519" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="519" spans="1:6" ht="19.5" customHeight="1">
       <c r="A519" s="23"/>
       <c r="B519" s="23"/>
       <c r="C519" s="23"/>
@@ -13286,7 +13244,7 @@
       <c r="E519" s="23"/>
       <c r="F519" s="23"/>
     </row>
-    <row r="520" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="520" spans="1:6" ht="19.5" customHeight="1">
       <c r="A520" s="23"/>
       <c r="B520" s="23"/>
       <c r="C520" s="23"/>
@@ -13294,7 +13252,7 @@
       <c r="E520" s="23"/>
       <c r="F520" s="23"/>
     </row>
-    <row r="521" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="521" spans="1:6" ht="19.5" customHeight="1">
       <c r="A521" s="23"/>
       <c r="B521" s="23"/>
       <c r="C521" s="23"/>
@@ -13302,7 +13260,7 @@
       <c r="E521" s="23"/>
       <c r="F521" s="23"/>
     </row>
-    <row r="522" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="522" spans="1:6" ht="19.5" customHeight="1">
       <c r="A522" s="23"/>
       <c r="B522" s="23"/>
       <c r="C522" s="23"/>
@@ -13310,7 +13268,7 @@
       <c r="E522" s="23"/>
       <c r="F522" s="23"/>
     </row>
-    <row r="523" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="523" spans="1:6" ht="19.5" customHeight="1">
       <c r="A523" s="23"/>
       <c r="B523" s="23"/>
       <c r="C523" s="23"/>
@@ -13318,7 +13276,7 @@
       <c r="E523" s="23"/>
       <c r="F523" s="23"/>
     </row>
-    <row r="524" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="524" spans="1:6" ht="19.5" customHeight="1">
       <c r="A524" s="23"/>
       <c r="B524" s="23"/>
       <c r="C524" s="23"/>
@@ -13326,7 +13284,7 @@
       <c r="E524" s="23"/>
       <c r="F524" s="23"/>
     </row>
-    <row r="525" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="525" spans="1:6" ht="19.5" customHeight="1">
       <c r="A525" s="23"/>
       <c r="B525" s="23"/>
       <c r="C525" s="23"/>
@@ -13334,7 +13292,7 @@
       <c r="E525" s="23"/>
       <c r="F525" s="23"/>
     </row>
-    <row r="526" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="526" spans="1:6" ht="19.5" customHeight="1">
       <c r="A526" s="23"/>
       <c r="B526" s="23"/>
       <c r="C526" s="23"/>
@@ -13342,7 +13300,7 @@
       <c r="E526" s="23"/>
       <c r="F526" s="23"/>
     </row>
-    <row r="527" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="527" spans="1:6" ht="19.5" customHeight="1">
       <c r="A527" s="23"/>
       <c r="B527" s="23"/>
       <c r="C527" s="23"/>
@@ -13350,7 +13308,7 @@
       <c r="E527" s="23"/>
       <c r="F527" s="23"/>
     </row>
-    <row r="528" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="528" spans="1:6" ht="19.5" customHeight="1">
       <c r="A528" s="23"/>
       <c r="B528" s="23"/>
       <c r="C528" s="23"/>
@@ -13358,7 +13316,7 @@
       <c r="E528" s="23"/>
       <c r="F528" s="23"/>
     </row>
-    <row r="529" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="529" spans="1:6" ht="19.5" customHeight="1">
       <c r="A529" s="23"/>
       <c r="B529" s="23"/>
       <c r="C529" s="23"/>
@@ -13366,7 +13324,7 @@
       <c r="E529" s="23"/>
       <c r="F529" s="23"/>
     </row>
-    <row r="530" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="530" spans="1:6" ht="19.5" customHeight="1">
       <c r="A530" s="23"/>
       <c r="B530" s="23"/>
       <c r="C530" s="23"/>
@@ -13374,7 +13332,7 @@
       <c r="E530" s="23"/>
       <c r="F530" s="23"/>
     </row>
-    <row r="531" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="531" spans="1:6" ht="19.5" customHeight="1">
       <c r="A531" s="23"/>
       <c r="B531" s="23"/>
       <c r="C531" s="23"/>
@@ -13382,7 +13340,7 @@
       <c r="E531" s="23"/>
       <c r="F531" s="23"/>
     </row>
-    <row r="532" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="532" spans="1:6" ht="19.5" customHeight="1">
       <c r="A532" s="23"/>
       <c r="B532" s="23"/>
       <c r="C532" s="23"/>
@@ -13390,7 +13348,7 @@
       <c r="E532" s="23"/>
       <c r="F532" s="23"/>
     </row>
-    <row r="533" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="533" spans="1:6" ht="19.5" customHeight="1">
       <c r="A533" s="23"/>
       <c r="B533" s="23"/>
       <c r="C533" s="23"/>
@@ -13398,7 +13356,7 @@
       <c r="E533" s="23"/>
       <c r="F533" s="23"/>
     </row>
-    <row r="534" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="534" spans="1:6" ht="19.5" customHeight="1">
       <c r="A534" s="23"/>
       <c r="B534" s="23"/>
       <c r="C534" s="23"/>
@@ -13406,7 +13364,7 @@
       <c r="E534" s="23"/>
       <c r="F534" s="23"/>
     </row>
-    <row r="535" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="535" spans="1:6" ht="19.5" customHeight="1">
       <c r="A535" s="23"/>
       <c r="B535" s="23"/>
       <c r="C535" s="23"/>
@@ -13414,7 +13372,7 @@
       <c r="E535" s="23"/>
       <c r="F535" s="23"/>
     </row>
-    <row r="536" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="536" spans="1:6" ht="19.5" customHeight="1">
       <c r="A536" s="23"/>
       <c r="B536" s="23"/>
       <c r="C536" s="23"/>
@@ -13422,7 +13380,7 @@
       <c r="E536" s="23"/>
       <c r="F536" s="23"/>
     </row>
-    <row r="537" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="537" spans="1:6" ht="19.5" customHeight="1">
       <c r="A537" s="23"/>
       <c r="B537" s="23"/>
       <c r="C537" s="23"/>
@@ -13430,7 +13388,7 @@
       <c r="E537" s="23"/>
       <c r="F537" s="23"/>
     </row>
-    <row r="538" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="538" spans="1:6" ht="19.5" customHeight="1">
       <c r="A538" s="23"/>
       <c r="B538" s="23"/>
       <c r="C538" s="23"/>
@@ -13438,7 +13396,7 @@
       <c r="E538" s="23"/>
       <c r="F538" s="23"/>
     </row>
-    <row r="539" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="539" spans="1:6" ht="19.5" customHeight="1">
       <c r="A539" s="23"/>
       <c r="B539" s="23"/>
       <c r="C539" s="23"/>
@@ -13446,7 +13404,7 @@
       <c r="E539" s="23"/>
       <c r="F539" s="23"/>
     </row>
-    <row r="540" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="540" spans="1:6" ht="19.5" customHeight="1">
       <c r="A540" s="23"/>
       <c r="B540" s="23"/>
       <c r="C540" s="23"/>
@@ -13454,7 +13412,7 @@
       <c r="E540" s="23"/>
       <c r="F540" s="23"/>
     </row>
-    <row r="541" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="541" spans="1:6" ht="19.5" customHeight="1">
       <c r="A541" s="23"/>
       <c r="B541" s="23"/>
       <c r="C541" s="23"/>
@@ -13462,7 +13420,7 @@
       <c r="E541" s="23"/>
       <c r="F541" s="23"/>
     </row>
-    <row r="542" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="542" spans="1:6" ht="19.5" customHeight="1">
       <c r="A542" s="23"/>
       <c r="B542" s="23"/>
       <c r="C542" s="23"/>
@@ -13470,7 +13428,7 @@
       <c r="E542" s="23"/>
       <c r="F542" s="23"/>
     </row>
-    <row r="543" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="543" spans="1:6" ht="19.5" customHeight="1">
       <c r="A543" s="23"/>
       <c r="B543" s="23"/>
       <c r="C543" s="23"/>
@@ -13478,7 +13436,7 @@
       <c r="E543" s="23"/>
       <c r="F543" s="23"/>
     </row>
-    <row r="544" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="544" spans="1:6" ht="19.5" customHeight="1">
       <c r="A544" s="23"/>
       <c r="B544" s="23"/>
       <c r="C544" s="23"/>
@@ -13486,7 +13444,7 @@
       <c r="E544" s="23"/>
       <c r="F544" s="23"/>
     </row>
-    <row r="545" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="545" spans="1:6" ht="19.5" customHeight="1">
       <c r="A545" s="23"/>
       <c r="B545" s="23"/>
       <c r="C545" s="23"/>
@@ -13494,7 +13452,7 @@
       <c r="E545" s="23"/>
       <c r="F545" s="23"/>
     </row>
-    <row r="546" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="546" spans="1:6" ht="19.5" customHeight="1">
       <c r="A546" s="23"/>
       <c r="B546" s="23"/>
       <c r="C546" s="23"/>
@@ -13502,7 +13460,7 @@
       <c r="E546" s="23"/>
       <c r="F546" s="23"/>
     </row>
-    <row r="547" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="547" spans="1:6" ht="19.5" customHeight="1">
       <c r="A547" s="23"/>
       <c r="B547" s="23"/>
       <c r="C547" s="23"/>
@@ -13510,7 +13468,7 @@
       <c r="E547" s="23"/>
       <c r="F547" s="23"/>
     </row>
-    <row r="548" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="548" spans="1:6" ht="19.5" customHeight="1">
       <c r="A548" s="23"/>
       <c r="B548" s="23"/>
       <c r="C548" s="23"/>
@@ -13518,7 +13476,7 @@
       <c r="E548" s="23"/>
       <c r="F548" s="23"/>
     </row>
-    <row r="549" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="549" spans="1:6" ht="19.5" customHeight="1">
       <c r="A549" s="23"/>
       <c r="B549" s="23"/>
       <c r="C549" s="23"/>
@@ -13526,7 +13484,7 @@
       <c r="E549" s="23"/>
       <c r="F549" s="23"/>
     </row>
-    <row r="550" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="550" spans="1:6" ht="19.5" customHeight="1">
       <c r="A550" s="23"/>
       <c r="B550" s="23"/>
       <c r="C550" s="23"/>
@@ -13534,7 +13492,7 @@
       <c r="E550" s="23"/>
       <c r="F550" s="23"/>
     </row>
-    <row r="551" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="551" spans="1:6" ht="19.5" customHeight="1">
       <c r="A551" s="23"/>
       <c r="B551" s="23"/>
       <c r="C551" s="23"/>
@@ -13542,7 +13500,7 @@
       <c r="E551" s="23"/>
       <c r="F551" s="23"/>
     </row>
-    <row r="552" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="552" spans="1:6" ht="19.5" customHeight="1">
       <c r="A552" s="23"/>
       <c r="B552" s="23"/>
       <c r="C552" s="23"/>
@@ -13550,7 +13508,7 @@
       <c r="E552" s="23"/>
       <c r="F552" s="23"/>
     </row>
-    <row r="553" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="553" spans="1:6" ht="19.5" customHeight="1">
       <c r="A553" s="23"/>
       <c r="B553" s="23"/>
       <c r="C553" s="23"/>
@@ -13558,7 +13516,7 @@
       <c r="E553" s="23"/>
       <c r="F553" s="23"/>
     </row>
-    <row r="554" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="554" spans="1:6" ht="19.5" customHeight="1">
       <c r="A554" s="23"/>
       <c r="B554" s="23"/>
       <c r="C554" s="23"/>
@@ -13566,7 +13524,7 @@
       <c r="E554" s="23"/>
       <c r="F554" s="23"/>
     </row>
-    <row r="555" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="555" spans="1:6" ht="19.5" customHeight="1">
       <c r="A555" s="23"/>
       <c r="B555" s="23"/>
       <c r="C555" s="23"/>
@@ -13574,7 +13532,7 @@
       <c r="E555" s="23"/>
       <c r="F555" s="23"/>
     </row>
-    <row r="556" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="556" spans="1:6" ht="19.5" customHeight="1">
       <c r="A556" s="23"/>
       <c r="B556" s="23"/>
       <c r="C556" s="23"/>
@@ -13582,7 +13540,7 @@
       <c r="E556" s="23"/>
       <c r="F556" s="23"/>
     </row>
-    <row r="557" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="557" spans="1:6" ht="19.5" customHeight="1">
       <c r="A557" s="23"/>
       <c r="B557" s="23"/>
       <c r="C557" s="23"/>
@@ -13590,7 +13548,7 @@
       <c r="E557" s="23"/>
       <c r="F557" s="23"/>
     </row>
-    <row r="558" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="558" spans="1:6" ht="19.5" customHeight="1">
       <c r="A558" s="23"/>
       <c r="B558" s="23"/>
       <c r="C558" s="23"/>
@@ -13598,7 +13556,7 @@
       <c r="E558" s="23"/>
       <c r="F558" s="23"/>
     </row>
-    <row r="559" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="559" spans="1:6" ht="19.5" customHeight="1">
       <c r="A559" s="23"/>
       <c r="B559" s="23"/>
       <c r="C559" s="23"/>
@@ -13606,7 +13564,7 @@
       <c r="E559" s="23"/>
       <c r="F559" s="23"/>
     </row>
-    <row r="560" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="560" spans="1:6" ht="19.5" customHeight="1">
       <c r="A560" s="23"/>
       <c r="B560" s="23"/>
       <c r="C560" s="23"/>
@@ -13614,7 +13572,7 @@
       <c r="E560" s="23"/>
       <c r="F560" s="23"/>
     </row>
-    <row r="561" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="561" spans="1:6" ht="19.5" customHeight="1">
       <c r="A561" s="23"/>
       <c r="B561" s="23"/>
       <c r="C561" s="23"/>
@@ -13622,7 +13580,7 @@
       <c r="E561" s="23"/>
       <c r="F561" s="23"/>
     </row>
-    <row r="562" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="562" spans="1:6" ht="19.5" customHeight="1">
       <c r="A562" s="23"/>
       <c r="B562" s="23"/>
       <c r="C562" s="23"/>
@@ -13630,7 +13588,7 @@
       <c r="E562" s="23"/>
       <c r="F562" s="23"/>
     </row>
-    <row r="563" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="563" spans="1:6" ht="19.5" customHeight="1">
       <c r="A563" s="23"/>
       <c r="B563" s="23"/>
       <c r="C563" s="23"/>
@@ -13638,7 +13596,7 @@
       <c r="E563" s="23"/>
       <c r="F563" s="23"/>
     </row>
-    <row r="564" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="564" spans="1:6" ht="19.5" customHeight="1">
       <c r="A564" s="23"/>
       <c r="B564" s="23"/>
       <c r="C564" s="23"/>
@@ -13646,7 +13604,7 @@
       <c r="E564" s="23"/>
       <c r="F564" s="23"/>
     </row>
-    <row r="565" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="565" spans="1:6" ht="19.5" customHeight="1">
       <c r="A565" s="23"/>
       <c r="B565" s="23"/>
       <c r="C565" s="23"/>
@@ -13654,7 +13612,7 @@
       <c r="E565" s="23"/>
       <c r="F565" s="23"/>
     </row>
-    <row r="566" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="566" spans="1:6" ht="19.5" customHeight="1">
       <c r="A566" s="23"/>
       <c r="B566" s="23"/>
       <c r="C566" s="23"/>
@@ -13662,7 +13620,7 @@
       <c r="E566" s="23"/>
       <c r="F566" s="23"/>
     </row>
-    <row r="567" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="567" spans="1:6" ht="19.5" customHeight="1">
       <c r="A567" s="23"/>
       <c r="B567" s="23"/>
       <c r="C567" s="23"/>
@@ -13670,7 +13628,7 @@
       <c r="E567" s="23"/>
       <c r="F567" s="23"/>
     </row>
-    <row r="568" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="568" spans="1:6" ht="19.5" customHeight="1">
       <c r="A568" s="23"/>
       <c r="B568" s="23"/>
       <c r="C568" s="23"/>
@@ -13678,7 +13636,7 @@
       <c r="E568" s="23"/>
       <c r="F568" s="23"/>
     </row>
-    <row r="569" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="569" spans="1:6" ht="19.5" customHeight="1">
       <c r="A569" s="23"/>
       <c r="B569" s="23"/>
       <c r="C569" s="23"/>
@@ -13686,7 +13644,7 @@
       <c r="E569" s="23"/>
       <c r="F569" s="23"/>
     </row>
-    <row r="570" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="570" spans="1:6" ht="19.5" customHeight="1">
       <c r="A570" s="23"/>
       <c r="B570" s="23"/>
       <c r="C570" s="23"/>
@@ -13694,7 +13652,7 @@
       <c r="E570" s="23"/>
       <c r="F570" s="23"/>
     </row>
-    <row r="571" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="571" spans="1:6" ht="19.5" customHeight="1">
       <c r="A571" s="23"/>
       <c r="B571" s="23"/>
       <c r="C571" s="23"/>
@@ -13702,7 +13660,7 @@
       <c r="E571" s="23"/>
       <c r="F571" s="23"/>
     </row>
-    <row r="572" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="572" spans="1:6" ht="19.5" customHeight="1">
       <c r="A572" s="23"/>
       <c r="B572" s="23"/>
       <c r="C572" s="23"/>
@@ -13710,7 +13668,7 @@
       <c r="E572" s="23"/>
       <c r="F572" s="23"/>
     </row>
-    <row r="573" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="573" spans="1:6" ht="19.5" customHeight="1">
       <c r="A573" s="23"/>
       <c r="B573" s="23"/>
       <c r="C573" s="23"/>
@@ -13718,7 +13676,7 @@
       <c r="E573" s="23"/>
       <c r="F573" s="23"/>
     </row>
-    <row r="574" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="574" spans="1:6" ht="19.5" customHeight="1">
       <c r="A574" s="23"/>
       <c r="B574" s="23"/>
       <c r="C574" s="23"/>
@@ -13726,7 +13684,7 @@
       <c r="E574" s="23"/>
       <c r="F574" s="23"/>
     </row>
-    <row r="575" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="575" spans="1:6" ht="19.5" customHeight="1">
       <c r="A575" s="23"/>
       <c r="B575" s="23"/>
       <c r="C575" s="23"/>
@@ -13734,7 +13692,7 @@
       <c r="E575" s="23"/>
       <c r="F575" s="23"/>
     </row>
-    <row r="576" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="576" spans="1:6" ht="19.5" customHeight="1">
       <c r="A576" s="23"/>
       <c r="B576" s="23"/>
       <c r="C576" s="23"/>
@@ -13742,7 +13700,7 @@
       <c r="E576" s="23"/>
       <c r="F576" s="23"/>
     </row>
-    <row r="577" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="577" spans="1:6" ht="19.5" customHeight="1">
       <c r="A577" s="23"/>
       <c r="B577" s="23"/>
       <c r="C577" s="23"/>
@@ -13750,7 +13708,7 @@
       <c r="E577" s="23"/>
       <c r="F577" s="23"/>
     </row>
-    <row r="578" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="578" spans="1:6" ht="19.5" customHeight="1">
       <c r="A578" s="23"/>
       <c r="B578" s="23"/>
       <c r="C578" s="23"/>
@@ -13758,7 +13716,7 @@
       <c r="E578" s="23"/>
       <c r="F578" s="23"/>
     </row>
-    <row r="579" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="579" spans="1:6" ht="19.5" customHeight="1">
       <c r="A579" s="23"/>
       <c r="B579" s="23"/>
       <c r="C579" s="23"/>
@@ -13766,7 +13724,7 @@
       <c r="E579" s="23"/>
       <c r="F579" s="23"/>
     </row>
-    <row r="580" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="580" spans="1:6" ht="19.5" customHeight="1">
       <c r="A580" s="23"/>
       <c r="B580" s="23"/>
       <c r="C580" s="23"/>
@@ -13774,7 +13732,7 @@
       <c r="E580" s="23"/>
       <c r="F580" s="23"/>
     </row>
-    <row r="581" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="581" spans="1:6" ht="19.5" customHeight="1">
       <c r="A581" s="23"/>
       <c r="B581" s="23"/>
       <c r="C581" s="23"/>
@@ -13782,7 +13740,7 @@
       <c r="E581" s="23"/>
       <c r="F581" s="23"/>
     </row>
-    <row r="582" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="582" spans="1:6" ht="19.5" customHeight="1">
       <c r="A582" s="23"/>
       <c r="B582" s="23"/>
       <c r="C582" s="23"/>
@@ -13790,7 +13748,7 @@
       <c r="E582" s="23"/>
       <c r="F582" s="23"/>
     </row>
-    <row r="583" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="583" spans="1:6" ht="19.5" customHeight="1">
       <c r="A583" s="23"/>
       <c r="B583" s="23"/>
       <c r="C583" s="23"/>
@@ -13798,7 +13756,7 @@
       <c r="E583" s="23"/>
       <c r="F583" s="23"/>
     </row>
-    <row r="584" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="584" spans="1:6" ht="19.5" customHeight="1">
       <c r="A584" s="23"/>
       <c r="B584" s="23"/>
       <c r="C584" s="23"/>
@@ -13806,7 +13764,7 @@
       <c r="E584" s="23"/>
       <c r="F584" s="23"/>
     </row>
-    <row r="585" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="585" spans="1:6" ht="19.5" customHeight="1">
       <c r="A585" s="23"/>
       <c r="B585" s="23"/>
       <c r="C585" s="23"/>
@@ -13814,7 +13772,7 @@
       <c r="E585" s="23"/>
       <c r="F585" s="23"/>
     </row>
-    <row r="586" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="586" spans="1:6" ht="19.5" customHeight="1">
       <c r="A586" s="23"/>
       <c r="B586" s="23"/>
       <c r="C586" s="23"/>
@@ -13822,7 +13780,7 @@
       <c r="E586" s="23"/>
       <c r="F586" s="23"/>
     </row>
-    <row r="587" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="587" spans="1:6" ht="19.5" customHeight="1">
       <c r="A587" s="23"/>
       <c r="B587" s="23"/>
       <c r="C587" s="23"/>
@@ -13830,7 +13788,7 @@
       <c r="E587" s="23"/>
       <c r="F587" s="23"/>
     </row>
-    <row r="588" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="588" spans="1:6" ht="19.5" customHeight="1">
       <c r="A588" s="23"/>
       <c r="B588" s="23"/>
       <c r="C588" s="23"/>
@@ -13838,7 +13796,7 @@
       <c r="E588" s="23"/>
       <c r="F588" s="23"/>
     </row>
-    <row r="589" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="589" spans="1:6" ht="19.5" customHeight="1">
       <c r="A589" s="23"/>
       <c r="B589" s="23"/>
       <c r="C589" s="23"/>
@@ -13846,7 +13804,7 @@
       <c r="E589" s="23"/>
       <c r="F589" s="23"/>
     </row>
-    <row r="590" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="590" spans="1:6" ht="19.5" customHeight="1">
       <c r="A590" s="23"/>
       <c r="B590" s="23"/>
       <c r="C590" s="23"/>
@@ -13854,7 +13812,7 @@
       <c r="E590" s="23"/>
       <c r="F590" s="23"/>
     </row>
-    <row r="591" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="591" spans="1:6" ht="19.5" customHeight="1">
       <c r="A591" s="23"/>
       <c r="B591" s="23"/>
       <c r="C591" s="23"/>
@@ -13862,7 +13820,7 @@
       <c r="E591" s="23"/>
       <c r="F591" s="23"/>
     </row>
-    <row r="592" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="592" spans="1:6" ht="19.5" customHeight="1">
       <c r="A592" s="23"/>
       <c r="B592" s="23"/>
       <c r="C592" s="23"/>
@@ -13870,7 +13828,7 @@
       <c r="E592" s="23"/>
       <c r="F592" s="23"/>
     </row>
-    <row r="593" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="593" spans="1:6" ht="19.5" customHeight="1">
       <c r="A593" s="23"/>
       <c r="B593" s="23"/>
       <c r="C593" s="23"/>
@@ -13878,7 +13836,7 @@
       <c r="E593" s="23"/>
       <c r="F593" s="23"/>
     </row>
-    <row r="594" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="594" spans="1:6" ht="19.5" customHeight="1">
       <c r="A594" s="23"/>
       <c r="B594" s="23"/>
       <c r="C594" s="23"/>
@@ -13886,7 +13844,7 @@
       <c r="E594" s="23"/>
       <c r="F594" s="23"/>
     </row>
-    <row r="595" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="595" spans="1:6" ht="19.5" customHeight="1">
       <c r="A595" s="23"/>
       <c r="B595" s="23"/>
       <c r="C595" s="23"/>
@@ -13894,7 +13852,7 @@
       <c r="E595" s="23"/>
       <c r="F595" s="23"/>
     </row>
-    <row r="596" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="596" spans="1:6" ht="19.5" customHeight="1">
       <c r="A596" s="23"/>
       <c r="B596" s="23"/>
       <c r="C596" s="23"/>
@@ -13902,7 +13860,7 @@
       <c r="E596" s="23"/>
       <c r="F596" s="23"/>
     </row>
-    <row r="597" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="597" spans="1:6" ht="19.5" customHeight="1">
       <c r="A597" s="23"/>
       <c r="B597" s="23"/>
       <c r="C597" s="23"/>
@@ -13910,7 +13868,7 @@
       <c r="E597" s="23"/>
       <c r="F597" s="23"/>
     </row>
-    <row r="598" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="598" spans="1:6" ht="19.5" customHeight="1">
       <c r="A598" s="23"/>
       <c r="B598" s="23"/>
       <c r="C598" s="23"/>
@@ -13918,7 +13876,7 @@
       <c r="E598" s="23"/>
       <c r="F598" s="23"/>
     </row>
-    <row r="599" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="599" spans="1:6" ht="19.5" customHeight="1">
       <c r="A599" s="23"/>
       <c r="B599" s="23"/>
       <c r="C599" s="23"/>
@@ -13926,7 +13884,7 @@
       <c r="E599" s="23"/>
       <c r="F599" s="23"/>
     </row>
-    <row r="600" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="600" spans="1:6" ht="19.5" customHeight="1">
       <c r="A600" s="23"/>
       <c r="B600" s="23"/>
       <c r="C600" s="23"/>
@@ -13934,7 +13892,7 @@
       <c r="E600" s="23"/>
       <c r="F600" s="23"/>
     </row>
-    <row r="601" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="601" spans="1:6" ht="19.5" customHeight="1">
       <c r="A601" s="23"/>
       <c r="B601" s="23"/>
       <c r="C601" s="23"/>
@@ -13942,7 +13900,7 @@
       <c r="E601" s="23"/>
       <c r="F601" s="23"/>
     </row>
-    <row r="602" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="602" spans="1:6" ht="19.5" customHeight="1">
       <c r="A602" s="23"/>
       <c r="B602" s="23"/>
       <c r="C602" s="23"/>
@@ -13950,7 +13908,7 @@
       <c r="E602" s="23"/>
       <c r="F602" s="23"/>
     </row>
-    <row r="603" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="603" spans="1:6" ht="19.5" customHeight="1">
       <c r="A603" s="23"/>
       <c r="B603" s="23"/>
       <c r="C603" s="23"/>
@@ -13958,7 +13916,7 @@
       <c r="E603" s="23"/>
       <c r="F603" s="23"/>
     </row>
-    <row r="604" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="604" spans="1:6" ht="19.5" customHeight="1">
       <c r="A604" s="23"/>
       <c r="B604" s="23"/>
       <c r="C604" s="23"/>
@@ -13966,7 +13924,7 @@
       <c r="E604" s="23"/>
       <c r="F604" s="23"/>
     </row>
-    <row r="605" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="605" spans="1:6" ht="19.5" customHeight="1">
       <c r="A605" s="23"/>
       <c r="B605" s="23"/>
       <c r="C605" s="23"/>
@@ -13974,7 +13932,7 @@
       <c r="E605" s="23"/>
       <c r="F605" s="23"/>
     </row>
-    <row r="606" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="606" spans="1:6" ht="19.5" customHeight="1">
       <c r="A606" s="23"/>
       <c r="B606" s="23"/>
       <c r="C606" s="23"/>
@@ -13982,7 +13940,7 @@
       <c r="E606" s="23"/>
       <c r="F606" s="23"/>
     </row>
-    <row r="607" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="607" spans="1:6" ht="19.5" customHeight="1">
       <c r="A607" s="23"/>
       <c r="B607" s="23"/>
       <c r="C607" s="23"/>
@@ -13990,7 +13948,7 @@
       <c r="E607" s="23"/>
       <c r="F607" s="23"/>
     </row>
-    <row r="608" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="608" spans="1:6" ht="19.5" customHeight="1">
       <c r="A608" s="23"/>
       <c r="B608" s="23"/>
       <c r="C608" s="23"/>
@@ -13998,7 +13956,7 @@
       <c r="E608" s="23"/>
       <c r="F608" s="23"/>
     </row>
-    <row r="609" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="609" spans="1:6" ht="19.5" customHeight="1">
       <c r="A609" s="23"/>
       <c r="B609" s="23"/>
       <c r="C609" s="23"/>
@@ -14006,7 +13964,7 @@
       <c r="E609" s="23"/>
       <c r="F609" s="23"/>
     </row>
-    <row r="610" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="610" spans="1:6" ht="19.5" customHeight="1">
       <c r="A610" s="23"/>
       <c r="B610" s="23"/>
       <c r="C610" s="23"/>
@@ -14014,7 +13972,7 @@
       <c r="E610" s="23"/>
       <c r="F610" s="23"/>
     </row>
-    <row r="611" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="611" spans="1:6" ht="19.5" customHeight="1">
       <c r="A611" s="23"/>
       <c r="B611" s="23"/>
       <c r="C611" s="23"/>
@@ -14022,7 +13980,7 @@
       <c r="E611" s="23"/>
       <c r="F611" s="23"/>
     </row>
-    <row r="612" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="612" spans="1:6" ht="19.5" customHeight="1">
       <c r="A612" s="23"/>
       <c r="B612" s="23"/>
       <c r="C612" s="23"/>
@@ -14030,7 +13988,7 @@
       <c r="E612" s="23"/>
       <c r="F612" s="23"/>
     </row>
-    <row r="613" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="613" spans="1:6" ht="19.5" customHeight="1">
       <c r="A613" s="23"/>
       <c r="B613" s="23"/>
       <c r="C613" s="23"/>
@@ -14038,7 +13996,7 @@
       <c r="E613" s="23"/>
       <c r="F613" s="23"/>
     </row>
-    <row r="614" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="614" spans="1:6" ht="19.5" customHeight="1">
       <c r="A614" s="23"/>
       <c r="B614" s="23"/>
       <c r="C614" s="23"/>
@@ -14046,7 +14004,7 @@
       <c r="E614" s="23"/>
       <c r="F614" s="23"/>
     </row>
-    <row r="615" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="615" spans="1:6" ht="19.5" customHeight="1">
       <c r="A615" s="23"/>
       <c r="B615" s="23"/>
       <c r="C615" s="23"/>
@@ -14054,7 +14012,7 @@
       <c r="E615" s="23"/>
       <c r="F615" s="23"/>
     </row>
-    <row r="616" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="616" spans="1:6" ht="19.5" customHeight="1">
       <c r="A616" s="23"/>
       <c r="B616" s="23"/>
       <c r="C616" s="23"/>
@@ -14062,7 +14020,7 @@
       <c r="E616" s="23"/>
       <c r="F616" s="23"/>
     </row>
-    <row r="617" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="617" spans="1:6" ht="19.5" customHeight="1">
       <c r="A617" s="23"/>
       <c r="B617" s="23"/>
       <c r="C617" s="23"/>
@@ -14070,7 +14028,7 @@
       <c r="E617" s="23"/>
       <c r="F617" s="23"/>
     </row>
-    <row r="618" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="618" spans="1:6" ht="19.5" customHeight="1">
       <c r="A618" s="23"/>
       <c r="B618" s="23"/>
       <c r="C618" s="23"/>
@@ -14078,7 +14036,7 @@
       <c r="E618" s="23"/>
       <c r="F618" s="23"/>
     </row>
-    <row r="619" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="619" spans="1:6" ht="19.5" customHeight="1">
       <c r="A619" s="23"/>
       <c r="B619" s="23"/>
       <c r="C619" s="23"/>
@@ -14086,7 +14044,7 @@
       <c r="E619" s="23"/>
       <c r="F619" s="23"/>
     </row>
-    <row r="620" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="620" spans="1:6" ht="19.5" customHeight="1">
       <c r="A620" s="23"/>
       <c r="B620" s="23"/>
       <c r="C620" s="23"/>
@@ -14094,7 +14052,7 @@
       <c r="E620" s="23"/>
       <c r="F620" s="23"/>
     </row>
-    <row r="621" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="621" spans="1:6" ht="19.5" customHeight="1">
       <c r="A621" s="23"/>
       <c r="B621" s="23"/>
       <c r="C621" s="23"/>
@@ -14102,7 +14060,7 @@
       <c r="E621" s="23"/>
       <c r="F621" s="23"/>
     </row>
-    <row r="622" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="622" spans="1:6" ht="19.5" customHeight="1">
       <c r="A622" s="23"/>
       <c r="B622" s="23"/>
       <c r="C622" s="23"/>
@@ -14110,7 +14068,7 @@
       <c r="E622" s="23"/>
       <c r="F622" s="23"/>
     </row>
-    <row r="623" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="623" spans="1:6" ht="19.5" customHeight="1">
       <c r="A623" s="23"/>
       <c r="B623" s="23"/>
       <c r="C623" s="23"/>
@@ -14118,7 +14076,7 @@
       <c r="E623" s="23"/>
       <c r="F623" s="23"/>
     </row>
-    <row r="624" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="624" spans="1:6" ht="19.5" customHeight="1">
       <c r="A624" s="23"/>
       <c r="B624" s="23"/>
       <c r="C624" s="23"/>
@@ -14126,7 +14084,7 @@
       <c r="E624" s="23"/>
       <c r="F624" s="23"/>
     </row>
-    <row r="625" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="625" spans="1:6" ht="19.5" customHeight="1">
       <c r="A625" s="23"/>
       <c r="B625" s="23"/>
       <c r="C625" s="23"/>
@@ -14134,7 +14092,7 @@
       <c r="E625" s="23"/>
       <c r="F625" s="23"/>
     </row>
-    <row r="626" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="626" spans="1:6" ht="19.5" customHeight="1">
       <c r="A626" s="23"/>
       <c r="B626" s="23"/>
       <c r="C626" s="23"/>
@@ -14142,7 +14100,7 @@
       <c r="E626" s="23"/>
       <c r="F626" s="23"/>
     </row>
-    <row r="627" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="627" spans="1:6" ht="19.5" customHeight="1">
       <c r="A627" s="23"/>
       <c r="B627" s="23"/>
       <c r="C627" s="23"/>
@@ -14150,7 +14108,7 @@
       <c r="E627" s="23"/>
       <c r="F627" s="23"/>
     </row>
-    <row r="628" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="628" spans="1:6" ht="19.5" customHeight="1">
       <c r="A628" s="23"/>
       <c r="B628" s="23"/>
       <c r="C628" s="23"/>
@@ -14158,7 +14116,7 @@
       <c r="E628" s="23"/>
       <c r="F628" s="23"/>
     </row>
-    <row r="629" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="629" spans="1:6" ht="19.5" customHeight="1">
       <c r="A629" s="23"/>
       <c r="B629" s="23"/>
       <c r="C629" s="23"/>
@@ -14166,7 +14124,7 @@
       <c r="E629" s="23"/>
       <c r="F629" s="23"/>
     </row>
-    <row r="630" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="630" spans="1:6" ht="19.5" customHeight="1">
       <c r="A630" s="23"/>
       <c r="B630" s="23"/>
       <c r="C630" s="23"/>
@@ -14174,7 +14132,7 @@
       <c r="E630" s="23"/>
       <c r="F630" s="23"/>
     </row>
-    <row r="631" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="631" spans="1:6" ht="19.5" customHeight="1">
       <c r="A631" s="23"/>
       <c r="B631" s="23"/>
       <c r="C631" s="23"/>
@@ -14182,7 +14140,7 @@
       <c r="E631" s="23"/>
       <c r="F631" s="23"/>
     </row>
-    <row r="632" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="632" spans="1:6" ht="19.5" customHeight="1">
       <c r="A632" s="23"/>
       <c r="B632" s="23"/>
       <c r="C632" s="23"/>
@@ -14190,7 +14148,7 @@
       <c r="E632" s="23"/>
       <c r="F632" s="23"/>
     </row>
-    <row r="633" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="633" spans="1:6" ht="19.5" customHeight="1">
       <c r="A633" s="23"/>
       <c r="B633" s="23"/>
       <c r="C633" s="23"/>
@@ -14198,7 +14156,7 @@
       <c r="E633" s="23"/>
       <c r="F633" s="23"/>
     </row>
-    <row r="634" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="634" spans="1:6" ht="19.5" customHeight="1">
       <c r="A634" s="23"/>
       <c r="B634" s="23"/>
       <c r="C634" s="23"/>
@@ -14206,7 +14164,7 @@
       <c r="E634" s="23"/>
       <c r="F634" s="23"/>
     </row>
-    <row r="635" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="635" spans="1:6" ht="19.5" customHeight="1">
       <c r="A635" s="23"/>
       <c r="B635" s="23"/>
       <c r="C635" s="23"/>
@@ -14214,7 +14172,7 @@
       <c r="E635" s="23"/>
       <c r="F635" s="23"/>
     </row>
-    <row r="636" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="636" spans="1:6" ht="19.5" customHeight="1">
       <c r="A636" s="23"/>
       <c r="B636" s="23"/>
       <c r="C636" s="23"/>
@@ -14222,7 +14180,7 @@
       <c r="E636" s="23"/>
       <c r="F636" s="23"/>
     </row>
-    <row r="637" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="637" spans="1:6" ht="19.5" customHeight="1">
       <c r="A637" s="23"/>
       <c r="B637" s="23"/>
       <c r="C637" s="23"/>
@@ -14230,7 +14188,7 @@
       <c r="E637" s="23"/>
       <c r="F637" s="23"/>
     </row>
-    <row r="638" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="638" spans="1:6" ht="19.5" customHeight="1">
       <c r="A638" s="23"/>
       <c r="B638" s="23"/>
       <c r="C638" s="23"/>
@@ -14238,7 +14196,7 @@
       <c r="E638" s="23"/>
       <c r="F638" s="23"/>
     </row>
-    <row r="639" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="639" spans="1:6" ht="19.5" customHeight="1">
       <c r="A639" s="23"/>
       <c r="B639" s="23"/>
       <c r="C639" s="23"/>
@@ -14246,7 +14204,7 @@
       <c r="E639" s="23"/>
       <c r="F639" s="23"/>
     </row>
-    <row r="640" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="640" spans="1:6" ht="19.5" customHeight="1">
       <c r="A640" s="23"/>
       <c r="B640" s="23"/>
       <c r="C640" s="23"/>
@@ -14254,7 +14212,7 @@
       <c r="E640" s="23"/>
       <c r="F640" s="23"/>
     </row>
-    <row r="641" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="641" spans="1:6" ht="19.5" customHeight="1">
       <c r="A641" s="23"/>
       <c r="B641" s="23"/>
       <c r="C641" s="23"/>
@@ -14262,7 +14220,7 @@
       <c r="E641" s="23"/>
       <c r="F641" s="23"/>
     </row>
-    <row r="642" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="642" spans="1:6" ht="19.5" customHeight="1">
       <c r="A642" s="23"/>
       <c r="B642" s="23"/>
       <c r="C642" s="23"/>
@@ -14270,7 +14228,7 @@
       <c r="E642" s="23"/>
       <c r="F642" s="23"/>
     </row>
-    <row r="643" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="643" spans="1:6" ht="19.5" customHeight="1">
       <c r="A643" s="23"/>
       <c r="B643" s="23"/>
       <c r="C643" s="23"/>
@@ -14278,7 +14236,7 @@
       <c r="E643" s="23"/>
       <c r="F643" s="23"/>
     </row>
-    <row r="644" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="644" spans="1:6" ht="19.5" customHeight="1">
       <c r="A644" s="23"/>
       <c r="B644" s="23"/>
       <c r="C644" s="23"/>
@@ -14286,7 +14244,7 @@
       <c r="E644" s="23"/>
       <c r="F644" s="23"/>
     </row>
-    <row r="645" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="645" spans="1:6" ht="19.5" customHeight="1">
       <c r="A645" s="23"/>
       <c r="B645" s="23"/>
       <c r="C645" s="23"/>
@@ -14294,7 +14252,7 @@
       <c r="E645" s="23"/>
       <c r="F645" s="23"/>
     </row>
-    <row r="646" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="646" spans="1:6" ht="19.5" customHeight="1">
       <c r="A646" s="23"/>
       <c r="B646" s="23"/>
       <c r="C646" s="23"/>
@@ -14302,7 +14260,7 @@
       <c r="E646" s="23"/>
       <c r="F646" s="23"/>
     </row>
-    <row r="647" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="647" spans="1:6" ht="19.5" customHeight="1">
       <c r="A647" s="23"/>
       <c r="B647" s="23"/>
       <c r="C647" s="23"/>
@@ -14310,7 +14268,7 @@
       <c r="E647" s="23"/>
       <c r="F647" s="23"/>
     </row>
-    <row r="648" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="648" spans="1:6" ht="19.5" customHeight="1">
       <c r="A648" s="23"/>
       <c r="B648" s="23"/>
       <c r="C648" s="23"/>
@@ -14318,7 +14276,7 @@
       <c r="E648" s="23"/>
       <c r="F648" s="23"/>
     </row>
-    <row r="649" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="649" spans="1:6" ht="19.5" customHeight="1">
       <c r="A649" s="23"/>
       <c r="B649" s="23"/>
       <c r="C649" s="23"/>
@@ -14326,7 +14284,7 @@
       <c r="E649" s="23"/>
       <c r="F649" s="23"/>
     </row>
-    <row r="650" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="650" spans="1:6" ht="19.5" customHeight="1">
       <c r="A650" s="23"/>
       <c r="B650" s="23"/>
       <c r="C650" s="23"/>
@@ -14334,7 +14292,7 @@
       <c r="E650" s="23"/>
       <c r="F650" s="23"/>
     </row>
-    <row r="651" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="651" spans="1:6" ht="19.5" customHeight="1">
       <c r="A651" s="23"/>
       <c r="B651" s="23"/>
       <c r="C651" s="23"/>
@@ -14342,7 +14300,7 @@
       <c r="E651" s="23"/>
       <c r="F651" s="23"/>
     </row>
-    <row r="652" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="652" spans="1:6" ht="19.5" customHeight="1">
       <c r="A652" s="23"/>
       <c r="B652" s="23"/>
       <c r="C652" s="23"/>
@@ -14350,7 +14308,7 @@
       <c r="E652" s="23"/>
       <c r="F652" s="23"/>
     </row>
-    <row r="653" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="653" spans="1:6" ht="19.5" customHeight="1">
       <c r="A653" s="23"/>
       <c r="B653" s="23"/>
       <c r="C653" s="23"/>
@@ -14358,7 +14316,7 @@
       <c r="E653" s="23"/>
       <c r="F653" s="23"/>
     </row>
-    <row r="654" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="654" spans="1:6" ht="19.5" customHeight="1">
       <c r="A654" s="23"/>
       <c r="B654" s="23"/>
       <c r="C654" s="23"/>
@@ -14366,7 +14324,7 @@
       <c r="E654" s="23"/>
       <c r="F654" s="23"/>
     </row>
-    <row r="655" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="655" spans="1:6" ht="19.5" customHeight="1">
       <c r="A655" s="23"/>
       <c r="B655" s="23"/>
       <c r="C655" s="23"/>
@@ -14374,7 +14332,7 @@
       <c r="E655" s="23"/>
       <c r="F655" s="23"/>
     </row>
-    <row r="656" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="656" spans="1:6" ht="19.5" customHeight="1">
       <c r="A656" s="23"/>
       <c r="B656" s="23"/>
       <c r="C656" s="23"/>
@@ -14382,7 +14340,7 @@
       <c r="E656" s="23"/>
       <c r="F656" s="23"/>
     </row>
-    <row r="657" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="657" spans="1:6" ht="19.5" customHeight="1">
       <c r="A657" s="23"/>
       <c r="B657" s="23"/>
       <c r="C657" s="23"/>
@@ -14390,7 +14348,7 @@
       <c r="E657" s="23"/>
       <c r="F657" s="23"/>
     </row>
-    <row r="658" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="658" spans="1:6" ht="19.5" customHeight="1">
       <c r="A658" s="23"/>
       <c r="B658" s="23"/>
       <c r="C658" s="23"/>
@@ -14398,7 +14356,7 @@
       <c r="E658" s="23"/>
       <c r="F658" s="23"/>
     </row>
-    <row r="659" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="659" spans="1:6" ht="19.5" customHeight="1">
       <c r="A659" s="23"/>
       <c r="B659" s="23"/>
       <c r="C659" s="23"/>
@@ -14406,7 +14364,7 @@
       <c r="E659" s="23"/>
       <c r="F659" s="23"/>
     </row>
-    <row r="660" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="660" spans="1:6" ht="19.5" customHeight="1">
       <c r="A660" s="23"/>
       <c r="B660" s="23"/>
       <c r="C660" s="23"/>
@@ -14414,7 +14372,7 @@
       <c r="E660" s="23"/>
       <c r="F660" s="23"/>
     </row>
-    <row r="661" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="661" spans="1:6" ht="19.5" customHeight="1">
       <c r="A661" s="23"/>
       <c r="B661" s="23"/>
       <c r="C661" s="23"/>
@@ -14422,7 +14380,7 @@
       <c r="E661" s="23"/>
       <c r="F661" s="23"/>
     </row>
-    <row r="662" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="662" spans="1:6" ht="19.5" customHeight="1">
       <c r="A662" s="23"/>
       <c r="B662" s="23"/>
       <c r="C662" s="23"/>
@@ -14430,7 +14388,7 @@
       <c r="E662" s="23"/>
       <c r="F662" s="23"/>
     </row>
-    <row r="663" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="663" spans="1:6" ht="19.5" customHeight="1">
       <c r="A663" s="23"/>
       <c r="B663" s="23"/>
       <c r="C663" s="23"/>
@@ -14438,7 +14396,7 @@
       <c r="E663" s="23"/>
       <c r="F663" s="23"/>
     </row>
-    <row r="664" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="664" spans="1:6" ht="19.5" customHeight="1">
       <c r="A664" s="23"/>
       <c r="B664" s="23"/>
       <c r="C664" s="23"/>
@@ -14446,7 +14404,7 @@
       <c r="E664" s="23"/>
       <c r="F664" s="23"/>
     </row>
-    <row r="665" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="665" spans="1:6" ht="19.5" customHeight="1">
       <c r="A665" s="23"/>
       <c r="B665" s="23"/>
       <c r="C665" s="23"/>
@@ -14454,7 +14412,7 @@
       <c r="E665" s="23"/>
       <c r="F665" s="23"/>
     </row>
-    <row r="666" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="666" spans="1:6" ht="19.5" customHeight="1">
       <c r="A666" s="23"/>
       <c r="B666" s="23"/>
       <c r="C666" s="23"/>
@@ -14462,7 +14420,7 @@
       <c r="E666" s="23"/>
       <c r="F666" s="23"/>
     </row>
-    <row r="667" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="667" spans="1:6" ht="19.5" customHeight="1">
       <c r="A667" s="23"/>
       <c r="B667" s="23"/>
       <c r="C667" s="23"/>
@@ -14470,7 +14428,7 @@
       <c r="E667" s="23"/>
       <c r="F667" s="23"/>
     </row>
-    <row r="668" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="668" spans="1:6" ht="19.5" customHeight="1">
       <c r="A668" s="23"/>
       <c r="B668" s="23"/>
       <c r="C668" s="23"/>
@@ -14478,7 +14436,7 @@
       <c r="E668" s="23"/>
       <c r="F668" s="23"/>
     </row>
-    <row r="669" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="669" spans="1:6" ht="19.5" customHeight="1">
       <c r="A669" s="23"/>
       <c r="B669" s="23"/>
       <c r="C669" s="23"/>
@@ -14486,7 +14444,7 @@
       <c r="E669" s="23"/>
       <c r="F669" s="23"/>
     </row>
-    <row r="670" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="670" spans="1:6" ht="19.5" customHeight="1">
       <c r="A670" s="23"/>
       <c r="B670" s="23"/>
       <c r="C670" s="23"/>
@@ -14494,7 +14452,7 @@
       <c r="E670" s="23"/>
       <c r="F670" s="23"/>
     </row>
-    <row r="671" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="671" spans="1:6" ht="19.5" customHeight="1">
       <c r="A671" s="23"/>
       <c r="B671" s="23"/>
       <c r="C671" s="23"/>
@@ -14502,7 +14460,7 @@
       <c r="E671" s="23"/>
       <c r="F671" s="23"/>
     </row>
-    <row r="672" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="672" spans="1:6" ht="19.5" customHeight="1">
       <c r="A672" s="23"/>
       <c r="B672" s="23"/>
       <c r="C672" s="23"/>
@@ -14510,7 +14468,7 @@
       <c r="E672" s="23"/>
       <c r="F672" s="23"/>
     </row>
-    <row r="673" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="673" spans="1:6" ht="19.5" customHeight="1">
       <c r="A673" s="23"/>
       <c r="B673" s="23"/>
       <c r="C673" s="23"/>
@@ -14518,7 +14476,7 @@
       <c r="E673" s="23"/>
       <c r="F673" s="23"/>
     </row>
-    <row r="674" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="674" spans="1:6" ht="19.5" customHeight="1">
       <c r="A674" s="23"/>
       <c r="B674" s="23"/>
       <c r="C674" s="23"/>
@@ -14526,7 +14484,7 @@
       <c r="E674" s="23"/>
       <c r="F674" s="23"/>
     </row>
-    <row r="675" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="675" spans="1:6" ht="19.5" customHeight="1">
       <c r="A675" s="23"/>
       <c r="B675" s="23"/>
       <c r="C675" s="23"/>
@@ -14534,7 +14492,7 @@
       <c r="E675" s="23"/>
       <c r="F675" s="23"/>
     </row>
-    <row r="676" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="676" spans="1:6" ht="19.5" customHeight="1">
       <c r="A676" s="23"/>
       <c r="B676" s="23"/>
       <c r="C676" s="23"/>
@@ -14542,7 +14500,7 @@
       <c r="E676" s="23"/>
       <c r="F676" s="23"/>
     </row>
-    <row r="677" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="677" spans="1:6" ht="19.5" customHeight="1">
       <c r="A677" s="23"/>
       <c r="B677" s="23"/>
       <c r="C677" s="23"/>
@@ -14550,7 +14508,7 @@
       <c r="E677" s="23"/>
       <c r="F677" s="23"/>
     </row>
-    <row r="678" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="678" spans="1:6" ht="19.5" customHeight="1">
       <c r="A678" s="23"/>
       <c r="B678" s="23"/>
       <c r="C678" s="23"/>
@@ -14558,7 +14516,7 @@
       <c r="E678" s="23"/>
       <c r="F678" s="23"/>
     </row>
-    <row r="679" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="679" spans="1:6" ht="19.5" customHeight="1">
       <c r="A679" s="23"/>
       <c r="B679" s="23"/>
       <c r="C679" s="23"/>
@@ -14566,7 +14524,7 @@
       <c r="E679" s="23"/>
       <c r="F679" s="23"/>
     </row>
-    <row r="680" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="680" spans="1:6" ht="19.5" customHeight="1">
       <c r="A680" s="23"/>
       <c r="B680" s="23"/>
       <c r="C680" s="23"/>
@@ -14574,7 +14532,7 @@
       <c r="E680" s="23"/>
       <c r="F680" s="23"/>
     </row>
-    <row r="681" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="681" spans="1:6" ht="19.5" customHeight="1">
       <c r="A681" s="23"/>
       <c r="B681" s="23"/>
       <c r="C681" s="23"/>
@@ -14582,7 +14540,7 @@
       <c r="E681" s="23"/>
       <c r="F681" s="23"/>
     </row>
-    <row r="682" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="682" spans="1:6" ht="19.5" customHeight="1">
       <c r="A682" s="23"/>
       <c r="B682" s="23"/>
       <c r="C682" s="23"/>
@@ -14590,7 +14548,7 @@
       <c r="E682" s="23"/>
       <c r="F682" s="23"/>
     </row>
-    <row r="683" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="683" spans="1:6" ht="19.5" customHeight="1">
       <c r="A683" s="23"/>
       <c r="B683" s="23"/>
       <c r="C683" s="23"/>
@@ -14598,7 +14556,7 @@
       <c r="E683" s="23"/>
       <c r="F683" s="23"/>
     </row>
-    <row r="684" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="684" spans="1:6" ht="19.5" customHeight="1">
       <c r="A684" s="23"/>
       <c r="B684" s="23"/>
       <c r="C684" s="23"/>
@@ -14606,7 +14564,7 @@
       <c r="E684" s="23"/>
       <c r="F684" s="23"/>
     </row>
-    <row r="685" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="685" spans="1:6" ht="19.5" customHeight="1">
       <c r="A685" s="23"/>
       <c r="B685" s="23"/>
       <c r="C685" s="23"/>
@@ -14614,7 +14572,7 @@
       <c r="E685" s="23"/>
       <c r="F685" s="23"/>
     </row>
-    <row r="686" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="686" spans="1:6" ht="19.5" customHeight="1">
       <c r="A686" s="23"/>
       <c r="B686" s="23"/>
       <c r="C686" s="23"/>
@@ -14622,7 +14580,7 @@
       <c r="E686" s="23"/>
       <c r="F686" s="23"/>
     </row>
-    <row r="687" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="687" spans="1:6" ht="19.5" customHeight="1">
       <c r="A687" s="23"/>
       <c r="B687" s="23"/>
       <c r="C687" s="23"/>
@@ -14630,7 +14588,7 @@
       <c r="E687" s="23"/>
       <c r="F687" s="23"/>
     </row>
-    <row r="688" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="688" spans="1:6" ht="19.5" customHeight="1">
       <c r="A688" s="23"/>
       <c r="B688" s="23"/>
       <c r="C688" s="23"/>
@@ -14638,7 +14596,7 @@
       <c r="E688" s="23"/>
       <c r="F688" s="23"/>
     </row>
-    <row r="689" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="689" spans="1:6" ht="19.5" customHeight="1">
       <c r="A689" s="23"/>
       <c r="B689" s="23"/>
       <c r="C689" s="23"/>
@@ -14646,7 +14604,7 @@
       <c r="E689" s="23"/>
       <c r="F689" s="23"/>
     </row>
-    <row r="690" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="690" spans="1:6" ht="19.5" customHeight="1">
       <c r="A690" s="23"/>
       <c r="B690" s="23"/>
       <c r="C690" s="23"/>
@@ -14654,7 +14612,7 @@
       <c r="E690" s="23"/>
       <c r="F690" s="23"/>
     </row>
-    <row r="691" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="691" spans="1:6" ht="19.5" customHeight="1">
       <c r="A691" s="23"/>
       <c r="B691" s="23"/>
       <c r="C691" s="23"/>
@@ -14662,7 +14620,7 @@
       <c r="E691" s="23"/>
       <c r="F691" s="23"/>
     </row>
-    <row r="692" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="692" spans="1:6" ht="19.5" customHeight="1">
       <c r="A692" s="23"/>
       <c r="B692" s="23"/>
       <c r="C692" s="23"/>
@@ -14670,7 +14628,7 @@
       <c r="E692" s="23"/>
       <c r="F692" s="23"/>
     </row>
-    <row r="693" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="693" spans="1:6" ht="19.5" customHeight="1">
       <c r="A693" s="23"/>
       <c r="B693" s="23"/>
       <c r="C693" s="23"/>
@@ -14678,7 +14636,7 @@
       <c r="E693" s="23"/>
       <c r="F693" s="23"/>
     </row>
-    <row r="694" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="694" spans="1:6" ht="19.5" customHeight="1">
       <c r="A694" s="23"/>
       <c r="B694" s="23"/>
       <c r="C694" s="23"/>
@@ -14686,7 +14644,7 @@
       <c r="E694" s="23"/>
       <c r="F694" s="23"/>
     </row>
-    <row r="695" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="695" spans="1:6" ht="19.5" customHeight="1">
       <c r="A695" s="23"/>
       <c r="B695" s="23"/>
       <c r="C695" s="23"/>
@@ -14694,7 +14652,7 @@
       <c r="E695" s="23"/>
       <c r="F695" s="23"/>
     </row>
-    <row r="696" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="696" spans="1:6" ht="19.5" customHeight="1">
       <c r="A696" s="23"/>
       <c r="B696" s="23"/>
       <c r="C696" s="23"/>
@@ -14702,7 +14660,7 @@
       <c r="E696" s="23"/>
       <c r="F696" s="23"/>
     </row>
-    <row r="697" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="697" spans="1:6" ht="19.5" customHeight="1">
       <c r="A697" s="23"/>
       <c r="B697" s="23"/>
       <c r="C697" s="23"/>
@@ -14710,7 +14668,7 @@
       <c r="E697" s="23"/>
       <c r="F697" s="23"/>
     </row>
-    <row r="698" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="698" spans="1:6" ht="19.5" customHeight="1">
       <c r="A698" s="23"/>
       <c r="B698" s="23"/>
       <c r="C698" s="23"/>
@@ -14718,7 +14676,7 @@
       <c r="E698" s="23"/>
       <c r="F698" s="23"/>
     </row>
-    <row r="699" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="699" spans="1:6" ht="19.5" customHeight="1">
       <c r="A699" s="23"/>
       <c r="B699" s="23"/>
       <c r="C699" s="23"/>
@@ -14726,7 +14684,7 @@
       <c r="E699" s="23"/>
       <c r="F699" s="23"/>
     </row>
-    <row r="700" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="700" spans="1:6" ht="19.5" customHeight="1">
       <c r="A700" s="23"/>
       <c r="B700" s="23"/>
       <c r="C700" s="23"/>
@@ -14734,7 +14692,7 @@
       <c r="E700" s="23"/>
       <c r="F700" s="23"/>
     </row>
-    <row r="701" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="701" spans="1:6" ht="19.5" customHeight="1">
       <c r="A701" s="23"/>
       <c r="B701" s="23"/>
       <c r="C701" s="23"/>
@@ -14742,7 +14700,7 @@
       <c r="E701" s="23"/>
       <c r="F701" s="23"/>
     </row>
-    <row r="702" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="702" spans="1:6" ht="19.5" customHeight="1">
       <c r="A702" s="23"/>
       <c r="B702" s="23"/>
       <c r="C702" s="23"/>
@@ -14750,7 +14708,7 @@
       <c r="E702" s="23"/>
       <c r="F702" s="23"/>
     </row>
-    <row r="703" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="703" spans="1:6" ht="19.5" customHeight="1">
       <c r="A703" s="23"/>
       <c r="B703" s="23"/>
       <c r="C703" s="23"/>
@@ -14758,7 +14716,7 @@
       <c r="E703" s="23"/>
       <c r="F703" s="23"/>
     </row>
-    <row r="704" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="704" spans="1:6" ht="19.5" customHeight="1">
       <c r="A704" s="23"/>
       <c r="B704" s="23"/>
       <c r="C704" s="23"/>
@@ -14766,7 +14724,7 @@
       <c r="E704" s="23"/>
       <c r="F704" s="23"/>
     </row>
-    <row r="705" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="705" spans="1:6" ht="19.5" customHeight="1">
       <c r="A705" s="23"/>
       <c r="B705" s="23"/>
       <c r="C705" s="23"/>
@@ -14774,7 +14732,7 @@
       <c r="E705" s="23"/>
       <c r="F705" s="23"/>
     </row>
-    <row r="706" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="706" spans="1:6" ht="19.5" customHeight="1">
       <c r="A706" s="23"/>
       <c r="B706" s="23"/>
       <c r="C706" s="23"/>
@@ -14782,7 +14740,7 @@
       <c r="E706" s="23"/>
       <c r="F706" s="23"/>
     </row>
-    <row r="707" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="707" spans="1:6" ht="19.5" customHeight="1">
       <c r="A707" s="23"/>
       <c r="B707" s="23"/>
       <c r="C707" s="23"/>
@@ -14790,7 +14748,7 @@
       <c r="E707" s="23"/>
       <c r="F707" s="23"/>
     </row>
-    <row r="708" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="708" spans="1:6" ht="19.5" customHeight="1">
       <c r="A708" s="23"/>
       <c r="B708" s="23"/>
       <c r="C708" s="23"/>
@@ -14798,7 +14756,7 @@
       <c r="E708" s="23"/>
       <c r="F708" s="23"/>
     </row>
-    <row r="709" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="709" spans="1:6" ht="19.5" customHeight="1">
       <c r="A709" s="23"/>
       <c r="B709" s="23"/>
       <c r="C709" s="23"/>
@@ -14806,7 +14764,7 @@
       <c r="E709" s="23"/>
       <c r="F709" s="23"/>
     </row>
-    <row r="710" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="710" spans="1:6" ht="19.5" customHeight="1">
       <c r="A710" s="23"/>
       <c r="B710" s="23"/>
       <c r="C710" s="23"/>
@@ -14814,7 +14772,7 @@
       <c r="E710" s="23"/>
       <c r="F710" s="23"/>
     </row>
-    <row r="711" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="711" spans="1:6" ht="19.5" customHeight="1">
       <c r="A711" s="23"/>
       <c r="B711" s="23"/>
       <c r="C711" s="23"/>
@@ -14822,7 +14780,7 @@
       <c r="E711" s="23"/>
       <c r="F711" s="23"/>
     </row>
-    <row r="712" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="712" spans="1:6" ht="19.5" customHeight="1">
       <c r="A712" s="23"/>
       <c r="B712" s="23"/>
       <c r="C712" s="23"/>
@@ -14830,7 +14788,7 @@
       <c r="E712" s="23"/>
       <c r="F712" s="23"/>
     </row>
-    <row r="713" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="713" spans="1:6" ht="19.5" customHeight="1">
       <c r="A713" s="23"/>
       <c r="B713" s="23"/>
       <c r="C713" s="23"/>
@@ -14838,7 +14796,7 @@
       <c r="E713" s="23"/>
       <c r="F713" s="23"/>
     </row>
-    <row r="714" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="714" spans="1:6" ht="19.5" customHeight="1">
       <c r="A714" s="23"/>
       <c r="B714" s="23"/>
       <c r="C714" s="23"/>
@@ -14846,7 +14804,7 @@
       <c r="E714" s="23"/>
       <c r="F714" s="23"/>
     </row>
-    <row r="715" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="715" spans="1:6" ht="19.5" customHeight="1">
       <c r="A715" s="23"/>
       <c r="B715" s="23"/>
       <c r="C715" s="23"/>
@@ -14854,7 +14812,7 @@
       <c r="E715" s="23"/>
       <c r="F715" s="23"/>
     </row>
-    <row r="716" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="716" spans="1:6" ht="19.5" customHeight="1">
       <c r="A716" s="23"/>
       <c r="B716" s="23"/>
       <c r="C716" s="23"/>
@@ -14862,7 +14820,7 @@
       <c r="E716" s="23"/>
       <c r="F716" s="23"/>
     </row>
-    <row r="717" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="717" spans="1:6" ht="19.5" customHeight="1">
       <c r="A717" s="23"/>
       <c r="B717" s="23"/>
       <c r="C717" s="23"/>
@@ -14870,7 +14828,7 @@
       <c r="E717" s="23"/>
       <c r="F717" s="23"/>
     </row>
-    <row r="718" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="718" spans="1:6" ht="19.5" customHeight="1">
       <c r="A718" s="23"/>
       <c r="B718" s="23"/>
       <c r="C718" s="23"/>
@@ -14878,7 +14836,7 @@
       <c r="E718" s="23"/>
       <c r="F718" s="23"/>
     </row>
-    <row r="719" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="719" spans="1:6" ht="19.5" customHeight="1">
       <c r="A719" s="23"/>
       <c r="B719" s="23"/>
       <c r="C719" s="23"/>
@@ -14886,7 +14844,7 @@
       <c r="E719" s="23"/>
       <c r="F719" s="23"/>
     </row>
-    <row r="720" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="720" spans="1:6" ht="19.5" customHeight="1">
       <c r="A720" s="23"/>
       <c r="B720" s="23"/>
       <c r="C720" s="23"/>
@@ -14894,7 +14852,7 @@
       <c r="E720" s="23"/>
       <c r="F720" s="23"/>
     </row>
-    <row r="721" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="721" spans="1:6" ht="19.5" customHeight="1">
       <c r="A721" s="23"/>
       <c r="B721" s="23"/>
       <c r="C721" s="23"/>
@@ -14902,7 +14860,7 @@
       <c r="E721" s="23"/>
       <c r="F721" s="23"/>
     </row>
-    <row r="722" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="722" spans="1:6" ht="19.5" customHeight="1">
       <c r="A722" s="23"/>
       <c r="B722" s="23"/>
       <c r="C722" s="23"/>
@@ -14910,7 +14868,7 @@
       <c r="E722" s="23"/>
       <c r="F722" s="23"/>
     </row>
-    <row r="723" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="723" spans="1:6" ht="19.5" customHeight="1">
       <c r="A723" s="23"/>
       <c r="B723" s="23"/>
       <c r="C723" s="23"/>
@@ -14918,7 +14876,7 @@
       <c r="E723" s="23"/>
       <c r="F723" s="23"/>
     </row>
-    <row r="724" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="724" spans="1:6" ht="19.5" customHeight="1">
       <c r="A724" s="23"/>
       <c r="B724" s="23"/>
       <c r="C724" s="23"/>
@@ -14926,7 +14884,7 @@
       <c r="E724" s="23"/>
       <c r="F724" s="23"/>
     </row>
-    <row r="725" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="725" spans="1:6" ht="19.5" customHeight="1">
       <c r="A725" s="23"/>
       <c r="B725" s="23"/>
       <c r="C725" s="23"/>
@@ -14934,7 +14892,7 @@
       <c r="E725" s="23"/>
       <c r="F725" s="23"/>
     </row>
-    <row r="726" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="726" spans="1:6" ht="19.5" customHeight="1">
       <c r="A726" s="23"/>
       <c r="B726" s="23"/>
       <c r="C726" s="23"/>
@@ -14942,7 +14900,7 @@
       <c r="E726" s="23"/>
       <c r="F726" s="23"/>
     </row>
-    <row r="727" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="727" spans="1:6" ht="19.5" customHeight="1">
       <c r="A727" s="23"/>
       <c r="B727" s="23"/>
       <c r="C727" s="23"/>
@@ -14950,7 +14908,7 @@
       <c r="E727" s="23"/>
       <c r="F727" s="23"/>
     </row>
-    <row r="728" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="728" spans="1:6" ht="19.5" customHeight="1">
       <c r="A728" s="23"/>
       <c r="B728" s="23"/>
       <c r="C728" s="23"/>
@@ -14958,7 +14916,7 @@
       <c r="E728" s="23"/>
       <c r="F728" s="23"/>
     </row>
-    <row r="729" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="729" spans="1:6" ht="19.5" customHeight="1">
       <c r="A729" s="23"/>
       <c r="B729" s="23"/>
       <c r="C729" s="23"/>
@@ -14966,7 +14924,7 @@
       <c r="E729" s="23"/>
       <c r="F729" s="23"/>
     </row>
-    <row r="730" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="730" spans="1:6" ht="19.5" customHeight="1">
       <c r="A730" s="23"/>
       <c r="B730" s="23"/>
       <c r="C730" s="23"/>
@@ -14974,7 +14932,7 @@
       <c r="E730" s="23"/>
       <c r="F730" s="23"/>
     </row>
-    <row r="731" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="731" spans="1:6" ht="19.5" customHeight="1">
       <c r="A731" s="23"/>
       <c r="B731" s="23"/>
       <c r="C731" s="23"/>
@@ -14982,7 +14940,7 @@
       <c r="E731" s="23"/>
       <c r="F731" s="23"/>
     </row>
-    <row r="732" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="732" spans="1:6" ht="19.5" customHeight="1">
       <c r="A732" s="23"/>
       <c r="B732" s="23"/>
       <c r="C732" s="23"/>
@@ -14990,7 +14948,7 @@
       <c r="E732" s="23"/>
       <c r="F732" s="23"/>
     </row>
-    <row r="733" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="733" spans="1:6" ht="19.5" customHeight="1">
       <c r="A733" s="23"/>
       <c r="B733" s="23"/>
       <c r="C733" s="23"/>
@@ -14998,7 +14956,7 @@
       <c r="E733" s="23"/>
       <c r="F733" s="23"/>
     </row>
-    <row r="734" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="734" spans="1:6" ht="19.5" customHeight="1">
       <c r="A734" s="23"/>
       <c r="B734" s="23"/>
       <c r="C734" s="23"/>
@@ -15006,7 +14964,7 @@
       <c r="E734" s="23"/>
       <c r="F734" s="23"/>
     </row>
-    <row r="735" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="735" spans="1:6" ht="19.5" customHeight="1">
       <c r="A735" s="23"/>
       <c r="B735" s="23"/>
       <c r="C735" s="23"/>
@@ -15014,7 +14972,7 @@
       <c r="E735" s="23"/>
       <c r="F735" s="23"/>
     </row>
-    <row r="736" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="736" spans="1:6" ht="19.5" customHeight="1">
       <c r="A736" s="23"/>
       <c r="B736" s="23"/>
       <c r="C736" s="23"/>
@@ -15022,7 +14980,7 @@
       <c r="E736" s="23"/>
       <c r="F736" s="23"/>
     </row>
-    <row r="737" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="737" spans="1:6" ht="19.5" customHeight="1">
       <c r="A737" s="23"/>
       <c r="B737" s="23"/>
       <c r="C737" s="23"/>
@@ -15030,7 +14988,7 @@
       <c r="E737" s="23"/>
       <c r="F737" s="23"/>
     </row>
-    <row r="738" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="738" spans="1:6" ht="19.5" customHeight="1">
       <c r="A738" s="23"/>
       <c r="B738" s="23"/>
       <c r="C738" s="23"/>
@@ -15038,7 +14996,7 @@
       <c r="E738" s="23"/>
       <c r="F738" s="23"/>
     </row>
-    <row r="739" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="739" spans="1:6" ht="19.5" customHeight="1">
       <c r="A739" s="23"/>
       <c r="B739" s="23"/>
       <c r="C739" s="23"/>
@@ -15046,7 +15004,7 @@
       <c r="E739" s="23"/>
       <c r="F739" s="23"/>
     </row>
-    <row r="740" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="740" spans="1:6" ht="19.5" customHeight="1">
       <c r="A740" s="23"/>
       <c r="B740" s="23"/>
       <c r="C740" s="23"/>
@@ -15054,7 +15012,7 @@
       <c r="E740" s="23"/>
       <c r="F740" s="23"/>
     </row>
-    <row r="741" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="741" spans="1:6" ht="19.5" customHeight="1">
       <c r="A741" s="23"/>
       <c r="B741" s="23"/>
       <c r="C741" s="23"/>
@@ -15062,7 +15020,7 @@
       <c r="E741" s="23"/>
       <c r="F741" s="23"/>
     </row>
-    <row r="742" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="742" spans="1:6" ht="19.5" customHeight="1">
       <c r="A742" s="23"/>
       <c r="B742" s="23"/>
       <c r="C742" s="23"/>
@@ -15070,7 +15028,7 @@
       <c r="E742" s="23"/>
       <c r="F742" s="23"/>
     </row>
-    <row r="743" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="743" spans="1:6" ht="19.5" customHeight="1">
       <c r="A743" s="23"/>
       <c r="B743" s="23"/>
       <c r="C743" s="23"/>
@@ -15078,7 +15036,7 @@
       <c r="E743" s="23"/>
       <c r="F743" s="23"/>
     </row>
-    <row r="744" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="744" spans="1:6" ht="19.5" customHeight="1">
       <c r="A744" s="23"/>
       <c r="B744" s="23"/>
       <c r="C744" s="23"/>
@@ -15086,7 +15044,7 @@
       <c r="E744" s="23"/>
       <c r="F744" s="23"/>
     </row>
-    <row r="745" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="745" spans="1:6" ht="19.5" customHeight="1">
       <c r="A745" s="23"/>
       <c r="B745" s="23"/>
       <c r="C745" s="23"/>
@@ -15094,7 +15052,7 @@
       <c r="E745" s="23"/>
       <c r="F745" s="23"/>
     </row>
-    <row r="746" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="746" spans="1:6" ht="19.5" customHeight="1">
       <c r="A746" s="23"/>
       <c r="B746" s="23"/>
       <c r="C746" s="23"/>
@@ -15102,7 +15060,7 @@
       <c r="E746" s="23"/>
       <c r="F746" s="23"/>
     </row>
-    <row r="747" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="747" spans="1:6" ht="19.5" customHeight="1">
       <c r="A747" s="23"/>
       <c r="B747" s="23"/>
       <c r="C747" s="23"/>
@@ -15110,7 +15068,7 @@
       <c r="E747" s="23"/>
       <c r="F747" s="23"/>
     </row>
-    <row r="748" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="748" spans="1:6" ht="19.5" customHeight="1">
       <c r="A748" s="23"/>
       <c r="B748" s="23"/>
       <c r="C748" s="23"/>
@@ -15118,7 +15076,7 @@
       <c r="E748" s="23"/>
       <c r="F748" s="23"/>
     </row>
-    <row r="749" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="749" spans="1:6" ht="19.5" customHeight="1">
       <c r="A749" s="23"/>
       <c r="B749" s="23"/>
       <c r="C749" s="23"/>
@@ -15126,7 +15084,7 @@
       <c r="E749" s="23"/>
       <c r="F749" s="23"/>
     </row>
-    <row r="750" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="750" spans="1:6" ht="19.5" customHeight="1">
       <c r="A750" s="23"/>
       <c r="B750" s="23"/>
       <c r="C750" s="23"/>
@@ -15134,7 +15092,7 @@
       <c r="E750" s="23"/>
       <c r="F750" s="23"/>
     </row>
-    <row r="751" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="751" spans="1:6" ht="19.5" customHeight="1">
       <c r="A751" s="23"/>
       <c r="B751" s="23"/>
       <c r="C751" s="23"/>
@@ -15142,7 +15100,7 @@
       <c r="E751" s="23"/>
       <c r="F751" s="23"/>
     </row>
-    <row r="752" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="752" spans="1:6" ht="19.5" customHeight="1">
       <c r="A752" s="23"/>
       <c r="B752" s="23"/>
       <c r="C752" s="23"/>
@@ -15150,7 +15108,7 @@
       <c r="E752" s="23"/>
       <c r="F752" s="23"/>
     </row>
-    <row r="753" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="753" spans="1:6" ht="19.5" customHeight="1">
       <c r="A753" s="23"/>
       <c r="B753" s="23"/>
       <c r="C753" s="23"/>
@@ -15158,7 +15116,7 @@
       <c r="E753" s="23"/>
       <c r="F753" s="23"/>
     </row>
-    <row r="754" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="754" spans="1:6" ht="19.5" customHeight="1">
       <c r="A754" s="23"/>
       <c r="B754" s="23"/>
       <c r="C754" s="23"/>
@@ -15166,7 +15124,7 @@
       <c r="E754" s="23"/>
       <c r="F754" s="23"/>
     </row>
-    <row r="755" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="755" spans="1:6" ht="19.5" customHeight="1">
       <c r="A755" s="23"/>
       <c r="B755" s="23"/>
       <c r="C755" s="23"/>
@@ -15174,7 +15132,7 @@
       <c r="E755" s="23"/>
       <c r="F755" s="23"/>
     </row>
-    <row r="756" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="756" spans="1:6" ht="19.5" customHeight="1">
       <c r="A756" s="23"/>
       <c r="B756" s="23"/>
       <c r="C756" s="23"/>
@@ -15182,7 +15140,7 @@
       <c r="E756" s="23"/>
       <c r="F756" s="23"/>
     </row>
-    <row r="757" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="757" spans="1:6" ht="19.5" customHeight="1">
       <c r="A757" s="23"/>
       <c r="B757" s="23"/>
       <c r="C757" s="23"/>
@@ -15190,7 +15148,7 @@
       <c r="E757" s="23"/>
       <c r="F757" s="23"/>
     </row>
-    <row r="758" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="758" spans="1:6" ht="19.5" customHeight="1">
       <c r="A758" s="23"/>
       <c r="B758" s="23"/>
       <c r="C758" s="23"/>
@@ -15198,7 +15156,7 @@
       <c r="E758" s="23"/>
       <c r="F758" s="23"/>
     </row>
-    <row r="759" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="759" spans="1:6" ht="19.5" customHeight="1">
       <c r="A759" s="23"/>
       <c r="B759" s="23"/>
       <c r="C759" s="23"/>
@@ -15206,7 +15164,7 @@
       <c r="E759" s="23"/>
       <c r="F759" s="23"/>
     </row>
-    <row r="760" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="760" spans="1:6" ht="19.5" customHeight="1">
       <c r="A760" s="23"/>
       <c r="B760" s="23"/>
       <c r="C760" s="23"/>
@@ -15214,7 +15172,7 @@
       <c r="E760" s="23"/>
       <c r="F760" s="23"/>
     </row>
-    <row r="761" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="761" spans="1:6" ht="19.5" customHeight="1">
       <c r="A761" s="23"/>
       <c r="B761" s="23"/>
       <c r="C761" s="23"/>
@@ -15222,7 +15180,7 @@
       <c r="E761" s="23"/>
       <c r="F761" s="23"/>
     </row>
-    <row r="762" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="762" spans="1:6" ht="19.5" customHeight="1">
       <c r="A762" s="23"/>
       <c r="B762" s="23"/>
       <c r="C762" s="23"/>
@@ -15230,7 +15188,7 @@
       <c r="E762" s="23"/>
       <c r="F762" s="23"/>
     </row>
-    <row r="763" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="763" spans="1:6" ht="19.5" customHeight="1">
       <c r="A763" s="23"/>
       <c r="B763" s="23"/>
       <c r="C763" s="23"/>
@@ -15238,7 +15196,7 @@
       <c r="E763" s="23"/>
       <c r="F763" s="23"/>
     </row>
-    <row r="764" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="764" spans="1:6" ht="19.5" customHeight="1">
       <c r="A764" s="23"/>
       <c r="B764" s="23"/>
       <c r="C764" s="23"/>
@@ -15246,7 +15204,7 @@
       <c r="E764" s="23"/>
       <c r="F764" s="23"/>
     </row>
-    <row r="765" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="765" spans="1:6" ht="19.5" customHeight="1">
       <c r="A765" s="23"/>
       <c r="B765" s="23"/>
       <c r="C765" s="23"/>
@@ -15254,7 +15212,7 @@
       <c r="E765" s="23"/>
       <c r="F765" s="23"/>
     </row>
-    <row r="766" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="766" spans="1:6" ht="19.5" customHeight="1">
       <c r="A766" s="23"/>
       <c r="B766" s="23"/>
       <c r="C766" s="23"/>
@@ -15262,7 +15220,7 @@
       <c r="E766" s="23"/>
       <c r="F766" s="23"/>
     </row>
-    <row r="767" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="767" spans="1:6" ht="19.5" customHeight="1">
       <c r="A767" s="23"/>
       <c r="B767" s="23"/>
       <c r="C767" s="23"/>
@@ -15270,7 +15228,7 @@
       <c r="E767" s="23"/>
       <c r="F767" s="23"/>
     </row>
-    <row r="768" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="768" spans="1:6" ht="19.5" customHeight="1">
       <c r="A768" s="23"/>
       <c r="B768" s="23"/>
       <c r="C768" s="23"/>
@@ -15278,7 +15236,7 @@
       <c r="E768" s="23"/>
       <c r="F768" s="23"/>
     </row>
-    <row r="769" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="769" spans="1:6" ht="19.5" customHeight="1">
       <c r="A769" s="23"/>
       <c r="B769" s="23"/>
       <c r="C769" s="23"/>
@@ -15286,7 +15244,7 @@
       <c r="E769" s="23"/>
       <c r="F769" s="23"/>
     </row>
-    <row r="770" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="770" spans="1:6" ht="19.5" customHeight="1">
       <c r="A770" s="23"/>
       <c r="B770" s="23"/>
       <c r="C770" s="23"/>
@@ -15294,7 +15252,7 @@
       <c r="E770" s="23"/>
       <c r="F770" s="23"/>
     </row>
-    <row r="771" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="771" spans="1:6" ht="19.5" customHeight="1">
       <c r="A771" s="23"/>
       <c r="B771" s="23"/>
       <c r="C771" s="23"/>
@@ -15302,7 +15260,7 @@
       <c r="E771" s="23"/>
       <c r="F771" s="23"/>
     </row>
-    <row r="772" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="772" spans="1:6" ht="19.5" customHeight="1">
       <c r="A772" s="23"/>
       <c r="B772" s="23"/>
       <c r="C772" s="23"/>
@@ -15310,7 +15268,7 @@
       <c r="E772" s="23"/>
       <c r="F772" s="23"/>
     </row>
-    <row r="773" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="773" spans="1:6" ht="19.5" customHeight="1">
       <c r="A773" s="23"/>
       <c r="B773" s="23"/>
       <c r="C773" s="23"/>
@@ -15318,7 +15276,7 @@
       <c r="E773" s="23"/>
       <c r="F773" s="23"/>
     </row>
-    <row r="774" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="774" spans="1:6" ht="19.5" customHeight="1">
       <c r="A774" s="23"/>
       <c r="B774" s="23"/>
       <c r="C774" s="23"/>
@@ -15326,23 +15284,8 @@
       <c r="E774" s="23"/>
       <c r="F774" s="23"/>
     </row>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>